--- a/util/questions.xlsx
+++ b/util/questions.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F142"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,19 +424,19 @@
     </row>
     <row r="2">
       <c r="B2" t="str">
-        <v>undefined ps य | प्रश्‍नपुस्तिका J17 : न n FE सामान्य क्षमता चाचणी ot e एकूण प्रश्‍न : 100 बेळ: 1 (एक) तास एकूण गुण : 100 सूचना ” (1) सदर प्रश्‍नपुस्तिकेत 100 अनिवार्य प्रश्‍न आहेत. उमेदवारांनी प्रश्‍नांची उत्तरे लिहिण्यास सुरुवात करण्यापूर्वी या प्रश्‍नपुस्तिकेत सर्व प्रश्‍न आहेत किंवा नाहीत याची खात्री करून घ्यावी. तसेच अन्य काही दोष आढळल्यास ही प्रश्‍नपुस्तिका समवेक्षकांकडु लगेच बदलून घ्यावी. परीक्षा -क्रमांक (©) आपला परीक्षा-क्रमांक ह्या चौकोनांत न विसरता बॉलपेनने लिहावा. पाती केंद्राची संकेताक्षे चिवडा अक</v>
+        <v>undefined प्रश्‍नपुस्तिका क्रमांक प्रश्‍नपुस्तिका एकूण प्रश्‍न : 150 वेळ : दीड तास सामान्य क्षमता चाचणी एकूण गुण : 800 LAAT</v>
       </c>
       <c r="C2" t="str">
-        <v>(3) वर छापलेला प्रश्‍नपुस्तिका क्रमांक तुमच्या उत्तरपत्रिकेवर विशिष्ट जागी उत्तरपत्रिकेवरील सूचनेप्रमाणे न fren नमूद करावा.</v>
+        <v>(1) सदर प्रश्‍नपुस्तिकेत 150 अनिवार्य प्रश्‍न आहेत. उमेदवारांनी प्रश्‍नांची उत्तरे लिहिण्यास सुरुवात करण्यापूर्वी या प्रश्‍्नपुस्तिकेत</v>
       </c>
       <c r="D2" t="str">
-        <v>(4) (अ) या प्रश्‍नपुस्तिकेतील प्रत्येक प्रश्‍नाला 4 पर्यायी उत्तरे सुचबिली असून त्यांना 1, 2, 8 आणि 4 असे क्रमाक दिलेले</v>
+        <v>सर्व प्रश्‍न आहेत किंबा नाहीत याची खात्री करून घ्यावी. असा तसेच अन्य काही दोष आढळल्यास ही प्रश्‍्नपुस्तिका</v>
       </c>
       <c r="E2" t="str">
-        <v>आहेत. त्या चार उत्तरांपैकी सर्वात योग्य उत्तराचा क्रमांक उत्तरपत्रिकेवरील सूचनेप्रमाणे तुमच्या उत्तरपत्रिकेवर नमूद! Pry</v>
+        <v>(2) आपला परीक्षा क्रमांक ह्या चौकोनांत प. T</v>
       </c>
       <c r="F2" t="str">
-        <v>करावा. अशा प्रकारे उत्तरपत्रिकेवर उत्तर-क्रमांक Fg करताना तो संबंधित FH -क्रमाकासमोर छायांकित कॅरून &gt; 2</v>
+        <v>न बिसरता बॉलपेनने लिहावा. T= शेवटचा अंक</v>
       </c>
     </row>
     <row r="3">
@@ -444,99 +444,99 @@
         <v>1</v>
       </c>
       <c r="B3" t="str">
-        <v>1. नारायणं मेघाजी लोखंडे यांनी “बॉम्बे मिल हॅण्ड असोसिएशन' ही -कामगार संघटना स्थापन करीत असताना त्यांना खालीलपैकी कोणत्या व्यक्तींचे सहकार्य मिळाले होते ? | अ. केशवराव बागडे, केशवराव बोले | ब. रघु भिकाजी, गेणू बाबाजी उ क. नारायण सुर्काजी, विठ्ठलराव कोरगांवकर ड. कृष्णाजी अर्जुन केळूसकर, रामचंद्र शिंदे, नारायण पवार</v>
+        <v>1. एका संख्येची 25% किंमत जर 0.25 असेल तर ती संख्या कोणती ?</v>
       </c>
       <c r="C3" t="str">
-        <v>(1) अ आणि ब फक्त</v>
+        <v>(1) 12.5</v>
       </c>
       <c r="D3" t="str">
-        <v>(2) ब आणि ड फक्त</v>
+        <v>(2) 1.25</v>
       </c>
       <c r="E3" t="str">
-        <v>(3) अ, ब आणि क फक्त</v>
+        <v>(3) 1</v>
       </c>
       <c r="F3" t="str">
-        <v>(4) ब, क आणि ड फक्त्त</v>
+        <v>(4) 1.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="str">
-        <v>3. प्रार्थना समाजाबाबत पुढीलपैकी कोणती विधाने बरोबर आहेत ? अ. दादोबा तर्खडकर, डॉ. आत्माराम पांडुरंग, वामन आबाजी मोडक, भाऊ महाजन, इत्यादींनी 81 मार्च | 1867 रोजी मुंबई येथे प्रार्थना समाजाची स्थापना केली. ब. प्रार्थना समाजामार्फत सुबोध पत्रिका' सुरू केली. क. प्रार्थना समाजाच्या माध्यमातून ना. म्‌. जजोशी यांनी मजुरांची स्थिती सुधारण्यासाठी 'सोशल सर्व्हीस लीग'ची स्थापना केली. ड. प्रार्थना समाजाने मुंबई, सोलापूर, कोल्हापूर येथे महाविद्यालयांची स्थापना केली.</v>
+        <v>2. एका वर्गातील सर्व मुलांच्या गुणांची बेरीज 2795 इतकी आहे व सरासरी 65 आहे. तर त्या वर्गात किती मुले असतील ?</v>
       </c>
       <c r="C4" t="str">
-        <v>(1) अ आणि ब फक्त</v>
+        <v>(1) 45</v>
       </c>
       <c r="D4" t="str">
-        <v>(2) ब आणि क फक्त</v>
+        <v>(2) 55</v>
       </c>
       <c r="E4" t="str">
-        <v>(3) अ, ब आणि क फक्त )</v>
+        <v>(3) 43</v>
       </c>
       <c r="F4" t="str">
-        <v>|</v>
+        <v>(4) 40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="str">
-        <v>4. हिंदू महासभेच्या संदर्भातील पुढीलपैकी कोणती विधाने बरोबर आहेत ? op ”- अ) 9 एप्रिल, 1915 रोजी हरिद्वार येथे कासिम बाजारचे महाराज सर महिंद्रचंद नंदी यांनी हिंदू महासभेची | क स्थापना केल्याचे घोषित केले. 3 ब) हिंदू महासभेचे अध्यक्ष बा.शि.मुंजे होते. क) डॉ. मुंजे, डॉ. हेडगेवार, डॉ. परांजपे यांनी नागपूरला 11 नोव्हेंबर 1923 रोजी हिंदू महासभेची शाखा सुरू केली. ड) 28, 29, 80 डिसेंबर 1938 मध्ये हिंदू महासभेचे भव्य अधिवेशन पुणे येथे पार पडले. , (1) अ, ब आणि क फक्त (2) ब, क आणि ड फक्त</v>
+        <v>3. खालील ferme जागेतील संख्या शोधा : | 1, 5,11, 19, |, 41</v>
       </c>
       <c r="C5" t="str">
-        <v>(3) अ, क आणि ड फक्त</v>
+        <v>(1) 29</v>
       </c>
       <c r="D5" t="str">
-        <v>(4) वरील सर्व बरोबर</v>
+        <v>(2) 27</v>
       </c>
       <c r="E5" t="str">
-        <v/>
+        <v>(3) 30</v>
       </c>
       <c r="F5" t="str">
-        <v/>
+        <v>(4) 31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="str">
-        <v>5. इ.स. 1857 च्या उठावाच्या वेळी इंग्रजांच्या कोणत्या कर्तबगार सेनानींनी महत्वाची भूमिका बजावली होती ? | अ. नील, हॅवलॉक | ब. औटरॅम, लॉरेन्स बंधू | क. कॅम्पबेल, सर ह्यूम रोज - ड. विल्यम डिग्बी, कॉलिन क्लार्क</v>
+        <v>4. जर 123456789 x9=111111111 आणि 123456789 x A =222 222 222 तर A =?</v>
       </c>
       <c r="C6" t="str">
-        <v>(1) अ आणि बं फक्त</v>
+        <v>(1) 45</v>
       </c>
       <c r="D6" t="str">
-        <v>(2) बआणि क फक्त</v>
+        <v>(2) 36</v>
       </c>
       <c r="E6" t="str">
-        <v>(3) अ, ब आणि क फक्त</v>
+        <v>(3) 27</v>
       </c>
       <c r="F6" t="str">
-        <v>(4) ब, क आणि ड फक्तं</v>
+        <v>(4) 18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="str">
-        <v>6. इ.स. 1875 मधील शेतकऱ्यांचे उठाव कोणत्या भागामध्ये झाले होते ? अ. भिमडी, शिरुर, पारनेर, नगर ब. इंदापूर, हवेली, बागलाण, सातारा - क. तासगांव, शिराळा, जत; मलकापूर ड. श्रीगोंदा, कर्जत, सोलापूर, रत्नागिरी</v>
+        <v>5. J [(1024 + 28x 32] = 22 [(1024 + 23) २९32] + 2% &gt;?</v>
       </c>
       <c r="C7" t="str">
-        <v>(1) अ आणि ब फक्त</v>
+        <v>(1) 1024</v>
       </c>
       <c r="D7" t="str">
-        <v>(2) ब आणि क फक्त</v>
+        <v>(2) 512</v>
       </c>
       <c r="E7" t="str">
-        <v>(3) अ, ब आणि ड फक्त</v>
+        <v>(3) 32</v>
       </c>
       <c r="F7" t="str">
-        <v>(4) कआणि डफक्त ” &lt;</v>
+        <v>(4) 256</v>
       </c>
     </row>
     <row r="8">
@@ -544,19 +544,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <v>7. क्रांतीकारक सेनापती बापट यांनी खालीलपैकी कोणत्या चळवळी/आहंदोलना मध्ये भाग घेतला होता ? अ. गोवा मुक्‍ती संग्राम ब. हैद्राबाद मुक्‍ती संग्रामं क. संयुक्त महाराष्ट्र चळवळ ड. महाराष्ट्र - म्हैसूर-सीमा आंदोलन</v>
+        <v>7. सोडवा : 65 96 25 44 32 80 1 [X | — oF — [|| — + — 13 16 25 11 16 10</v>
       </c>
       <c r="C8" t="str">
-        <v>(1) अ आणि बफक्त '</v>
+        <v>(1) 15.4</v>
       </c>
       <c r="D8" t="str">
-        <v>(2) अ, बं आणि क फक्त</v>
+        <v>(2) 1.54</v>
       </c>
       <c r="E8" t="str">
-        <v>(3) ब, क आणि ड फक्त</v>
+        <v>(3) 0.154</v>
       </c>
       <c r="F8" t="str">
-        <v>(4) वरील सर्व बरोबर</v>
+        <v>(4) 0.0154</v>
       </c>
     </row>
     <row r="9">
@@ -564,19 +564,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="str">
-        <v>8. इ. स. 1919 मध्ये ब्रिटीश, सरकारने घटनात्मक सुधारणा दिल्या कारण झा अ. क्रांतीकारकांच्या चळवळी मधून भारतीयांच्यात असंतोष वाढला ब. काँग्रेस व मुस्लीम लीग यांच्यातील युती | क. जहाल ब मवाळ यांच्यातील युती इ. पहिल्या महायुद्धाने निर्माण केलेली राजकीय परिस्थिती &lt;x (1) अ आणि ब wR (2) ब आणि क फक्त * (3) ब, क आणि ड फक्त (4) वरील सर्व बरोबर</v>
+        <v>8. एका मंगल कार्यालयाची लांबी 60 फूट व रुंदी 45 फूट आहे, तर 3 फूट लांबी व रुंदी असलेल्या किती फरशा त्याच्या जमिनीसाठी लागतील ?</v>
       </c>
       <c r="C9" t="str">
-        <v/>
+        <v>(1) 450</v>
       </c>
       <c r="D9" t="str">
-        <v/>
+        <v>(2) 600</v>
       </c>
       <c r="E9" t="str">
-        <v/>
+        <v>(3) 900</v>
       </c>
       <c r="F9" t="str">
-        <v/>
+        <v>(4) 300</v>
       </c>
     </row>
     <row r="10">
@@ -584,19 +584,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="str">
-        <v>9. यांनी स्वदेशी चळवळीचा *श्री गणेशा' करून. खादीचा पोशाख घालून सन 1877 मधील दिल्ली च दरबारात हजेरी लावली.</v>
+        <v>9. 7663 या संख्येतील 6 ह्या संख्येच्या स्थानिक किंमतीतील फरक किती 7</v>
       </c>
       <c r="C10" t="str">
-        <v>(1) गणेश वासुदेव जोशी</v>
+        <v>(1) 660</v>
       </c>
       <c r="D10" t="str">
-        <v>(2) सीताराम हरी चिपळूणकर</v>
+        <v>(2) 540</v>
       </c>
       <c r="E10" t="str">
-        <v>(3) त्या. के. टी. तेलंग</v>
+        <v>(3) 630</v>
       </c>
       <c r="F10" t="str">
-        <v>(4) महात्मा फुले</v>
+        <v>(4) 450</v>
       </c>
     </row>
     <row r="11">
@@ -604,19 +604,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="str">
-        <v>10. जोड्या लावा: जन) - \ $ राष्ट्रीय सभेची अधिवेशने - ठिकाण अध्यक्ष | अ. 1889 - पाचवे अधिवेशन - मुंबई I. आलनंदाचार्लू क. 1895 - अकरावे अधिवेशन - पुणे 1. विल्यम वेडरबर्न ड. 1897 - तेरावे अधिवेशन - अमरावती IV. सुरेन्द्रनाथ बॅनजीं : अ ब कक ड़ र a b c d</v>
+        <v>10. खालीलपैकी कोणत्या संख्येस 5 ने नि:शेष भाग जातो ?</v>
       </c>
       <c r="C11" t="str">
-        <v/>
+        <v>(1) 3762</v>
       </c>
       <c r="D11" t="str">
-        <v/>
+        <v>(2) 3725</v>
       </c>
       <c r="E11" t="str">
-        <v/>
+        <v>(3) 2537</v>
       </c>
       <c r="F11" t="str">
-        <v/>
+        <v>(4) 3876</v>
       </c>
     </row>
     <row r="12">
@@ -624,19 +624,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="str">
-        <v>11. भारतात धवल क्रान्तीला सुरुवात सालापासून करण्यात आली.</v>
+        <v>11. क्रिकेटच्या वर्तुळाकार मैदानाचे क्षेत्रफळ 20096 चौ. मी. आहे. चार धावांची खूण मैदानाच्या बाहेरील कडेपासून 5 मीटर आत आखण्याकरिता किती मीटर दोरी लागेल ?</v>
       </c>
       <c r="C12" t="str">
-        <v>(1) 1971</v>
+        <v>(1) 502.4 मीटर</v>
       </c>
       <c r="D12" t="str">
-        <v>(2) 1972</v>
+        <v>(2) 402.4 मीटर</v>
       </c>
       <c r="E12" t="str">
-        <v>(3) 1973</v>
+        <v>(3) 471 मीटर</v>
       </c>
       <c r="F12" t="str">
-        <v>(4) 1974 |</v>
+        <v>(4) 571 मीटर</v>
       </c>
     </row>
     <row r="13">
@@ -644,19 +644,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="str">
-        <v>12. महाराष्ट्राच्या दख्खन पठारावर ग्रामीण भागामध्ये घर बांधणीसाठी या स्थानिक दगडाचा वापर केला जातो.</v>
+        <v>12. जर 10x +24 =29x +H तर न</v>
       </c>
       <c r="C13" t="str">
-        <v>(1) जांभा दगड</v>
+        <v>(1) -1</v>
       </c>
       <c r="D13" t="str">
-        <v>(2) संगमरवरी दगड</v>
+        <v>(2) +1</v>
       </c>
       <c r="E13" t="str">
-        <v>(8) ग्रानाईट दगड</v>
+        <v>(3) +2</v>
       </c>
       <c r="F13" t="str">
-        <v>(4) बेसॉल्ट दगड</v>
+        <v>(4) +3</v>
       </c>
     </row>
     <row r="14">
@@ -664,19 +664,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="str">
-        <v>13. योग्य जोड्या जुळवा : झ राज्य लोकसंख्या घनता दर चौ. कि.मी. (2011) | 8. हरयाणा i. 123 ७. हिमाचल प्रदेश ii. 414 | ८. झारखंड iii. 573 | त. बिहार ” iv. 1106 @ ® © (५)</v>
+        <v>13. ताशी 45 कि.मी. वेगाने जाणाऱ्या 400 मीटर लांबीच्या आगगाडीस, 400 मीटर लांबीचा पूल ओलांडण्यास किती वेळ लागेल ?</v>
       </c>
       <c r="C14" t="str">
-        <v>(2) 11 1 ii iv</v>
+        <v/>
       </c>
       <c r="D14" t="str">
-        <v>@ ii प 1 i</v>
+        <v/>
       </c>
       <c r="E14" t="str">
-        <v>, (4 1 1 1 iv</v>
+        <v/>
       </c>
       <c r="F14" t="str">
-        <v>| ® 0) © @</v>
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -684,167 +684,167 @@
         <v>14</v>
       </c>
       <c r="B15" t="str">
-        <v>14. योग्य जोड्या जुळवा : गा शिखर, ठिकाण उंची (मीटर) स a. मांगी-तुंगी * » क * ग: 1567 -</v>
+        <v>14. क्षितिजची कार एका लीटरमध्ये 13 कि.मी. अंतर जाते आणि पेट्रोलचा दर 51.55 रुपये प्रति लीटर आहे. जर क्षितिजला 350 कि.मी. अंतराचा प्रवास करावयाचा असेल तर त्याला किती रुपये रक्‍कम पेट्रोलवर खर्च कराबी लागेल ?</v>
       </c>
       <c r="C15" t="str">
-        <v/>
+        <v>(1) 1,388 रुपये</v>
       </c>
       <c r="D15" t="str">
-        <v/>
+        <v>(2) 1,358 रुपये</v>
       </c>
       <c r="E15" t="str">
-        <v/>
+        <v>(3) 1,348 रुपये</v>
       </c>
       <c r="F15" t="str">
-        <v/>
+        <v>(4) 1,338 रुपये</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B16" t="str">
-        <v>9. त्र्यंबकेश्‍वर i. 1416 : d. साल्हेर iv. 1100 | @ ® (८ (०) ! |</v>
+        <v>15. SR 15, 7, 16, 8 आणि K यांची सरासरी 13 येत असेल तर K =</v>
       </c>
       <c r="C16" t="str">
-        <v>(1) iv य i i र ,</v>
+        <v>(1) 20</v>
       </c>
       <c r="D16" t="str">
-        <v>@ ® © (१) * RE a</v>
+        <v>(2) 18</v>
       </c>
       <c r="E16" t="str">
-        <v>(2) ii i 1 iv .</v>
+        <v>(3) 9 4) 19</v>
       </c>
       <c r="F16" t="str">
-        <v>3 ii i im 1४ |</v>
+        <v>(1) 20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="str">
-        <v>15. U- वाहतुकीची सुरुवात भारतात सर्वप्रथम कोणत्या रेल्वेमार्गावर झाली ?</v>
+        <v>16. 17 ( 85)_ 12 | 36) ——</v>
       </c>
       <c r="C17" t="str">
-        <v>(1) उत्तर-पूर्व सीमांत रेल्वेमार्ग</v>
+        <v>(1) 3/5</v>
       </c>
       <c r="D17" t="str">
-        <v>(2) दक्षिण रेल्वेमार्ग ” र र</v>
+        <v>(2) 5/3</v>
       </c>
       <c r="E17" t="str">
-        <v>(3) कोंकण रेल्वेमार्ग</v>
+        <v>(3) —b/3</v>
       </c>
       <c r="F17" t="str">
-        <v>(4) पूर्व Hue '</v>
+        <v>(4) -3/5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="str">
-        <v>16. योग्य जोड्या जुळवा : राज्य पर्यटन स्थळ</v>
+        <v>17. अमितची सरासरी दिवसाला 6 कॉम्प्युटर सर्व्हीस कॉलस्‌ आणि नितीनची सरासरी दिवसाला 8 कॉम्प्युटर सर्व्हीस 9 3 कॉलस्‌ अशी आहे. अमितचा सरासरी दर नितीनच्या दराच्या द्र पट आहे, नितीनने एका महिन्याला 8,000 रुपये मिळविले. तर अमितने त्या महिन्याला किती रुपये मिळविले 7</v>
       </c>
       <c r="C18" t="str">
-        <v/>
+        <v>(1) 6,000 रुपये</v>
       </c>
       <c r="D18" t="str">
-        <v/>
+        <v>(2) 10,000 रुपये</v>
       </c>
       <c r="E18" t="str">
-        <v/>
+        <v>(3) 7,000 रुपये</v>
       </c>
       <c r="F18" t="str">
-        <v/>
+        <v>(4) 9,000 रुपये</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B19" t="str">
-        <v>8. जम्मुव काश्मिर 1. तरण तारण, बाबा बकाला उ b. हिमाचल प्रदेश ii, अंबाला, भडकल सरोवर उ ८. पंजाब 18. अवंतीपूर, अलचीगोम्पा</v>
+        <v>18. जर 3756 x25 =93900, तर 3.756 x25 =</v>
       </c>
       <c r="C19" t="str">
-        <v/>
+        <v>(1) 9.3900</v>
       </c>
       <c r="D19" t="str">
-        <v/>
+        <v>(2) 93.900</v>
       </c>
       <c r="E19" t="str">
-        <v/>
+        <v>(3) 939</v>
       </c>
       <c r="F19" t="str">
-        <v/>
+        <v>(4) 93900</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B20" t="str">
-        <v>0. हरयाणा 1४. त्रिलोकनाथ, नैनादेवी उ @ (७ © @</v>
+        <v>19. पहिली संख्या दुसरीच्या दुप्पट व तिसरीच्या तिप्पट आहे. तिन्ही संख्यांची सरासरी 44 आहे तर पहिली संख्या काढा.</v>
       </c>
       <c r="C20" t="str">
-        <v>(1) iv 1m 1 1</v>
+        <v>(1) 72</v>
       </c>
       <c r="D20" t="str">
-        <v>(8) ii iv ग i</v>
+        <v>(2) 69</v>
       </c>
       <c r="E20" t="str">
-        <v>(4) iv iii 1 1</v>
+        <v>(3) 70</v>
       </c>
       <c r="F20" t="str">
-        <v>@ ७). © (@</v>
+        <v>(4) 62</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B21" t="str">
-        <v>17. चॅम्पिअन आणि सेठ यांच्या वर्गीकरणानुसार महाराष्ट्र राज्यात जंगलांचे किती प्रमुख प्रकार आहेत ?</v>
+        <v>20. प्रविणची जन्मदिनांक 20/07/1969 ही आहे. तर 02/04/2010 या दिवशी त्याचे वय किती असेल ?</v>
       </c>
       <c r="C21" t="str">
-        <v>(1) 6</v>
+        <v>(1) 41 वर्षे 3 महिने 18 दिवस</v>
       </c>
       <c r="D21" t="str">
-        <v>(2) 8</v>
+        <v>(2) 40 वर्षे 3 महिने 18 दिवस</v>
       </c>
       <c r="E21" t="str">
-        <v>(3) 4</v>
+        <v>(3) 40 वर्षे 8 महिने 12 दिवस</v>
       </c>
       <c r="F21" t="str">
-        <v>(4) 3</v>
+        <v>(4) 41 वर्षे 8 महिने 12 दिवस</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B22" t="str">
-        <v>18. भारतातील कोणते शहर भारतीय शासनाच्या स्वच्छ क्रमवारीत सलग तीन वेळा (2019 ते 2021) स्वच्छ शहरं | म्हणून घोषित करण्यात आले ?</v>
+        <v>21. अस्पष्ट केंद्रकयुक्त पेशी मध्ये आढळतात.</v>
       </c>
       <c r="C22" t="str">
-        <v>(1) इंदौर</v>
+        <v>(1) अमिबा</v>
       </c>
       <c r="D22" t="str">
-        <v>(2) पुणे</v>
+        <v>(2) जीवाणु</v>
       </c>
       <c r="E22" t="str">
-        <v>(3) मुंबई</v>
+        <v>(3) जलबव्याल</v>
       </c>
       <c r="F22" t="str">
-        <v>(4) सुरत |</v>
+        <v>(4) लाल पेशी</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B23" t="str">
-        <v>19. योग्य जोड्या जुळवा : ) औष्णिक विज केंद्र जिल्हा : 1 a. कोराडी i ठाणे ' ो | ७. पारस ॥1. नागपूर | रा</v>
+        <v>22. मद्यपानामुळे चा अभाव निर्माण होतो. उ (1) थायमिन (2) रेटिनॉल (3) नायसिन (4) अस्कॉर्बिक आम्ल</v>
       </c>
       <c r="C23" t="str">
         <v/>
@@ -861,362 +861,362 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B24" t="str">
-        <v>6. उरण iii. जळगांव 1 d. फेकरी iv. अकोला ” @ (७) © @: : | 1 i ne या . पपच</v>
+        <v>23. ८: हा प्रकाशाची हवेमधील वेग असून 1.5 हा काचेचा हवासापेक्ष अपवर्तनांक असल्यास प्रकाशाची काचेमधील वेग किती ? C ८ 5</v>
       </c>
       <c r="C24" t="str">
-        <v>(0) iv ii नप i |</v>
+        <v>(1) 1.5C</v>
       </c>
       <c r="D24" t="str">
-        <v>® i iv dj</v>
+        <v>(2) TE</v>
       </c>
       <c r="E24" t="str">
-        <v>@ i iv oi सॉ |</v>
+        <v>(3) C 4) (1.5)“ 0</v>
       </c>
       <c r="F24" t="str">
-        <v>@ @&amp; 4) Ad ल टर न ” [</v>
+        <v>C</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="B25" t="str">
-        <v>91. खालील निकषांच्या आधारे 2011-12 या वर्षासाठी नियोजन आयोगाने दारिद्र्य रेषा निश्‍चित केली.</v>
+        <v>24. पाण्याची घनता ला उच्चतम असते.</v>
       </c>
       <c r="C25" t="str">
-        <v>(1) दरडोई उत्पन्न प्रतिमहिना ग्रामीण भागासाठी र 816 व शहरी भागासाठी र 1,000</v>
+        <v>(1) 4°C</v>
       </c>
       <c r="D25" t="str">
-        <v>(2) दरडोई उत्पन्न प्रतिदिनी ग्रामीण भागासाठी ₹ 47 व शहरी भागासाठी ₹ 32</v>
+        <v>(2) 258१ €</v>
       </c>
       <c r="E25" t="str">
-        <v>(3) दरडोई उत्पन्न प्रतिदिनी ग्रामीण भागासाठी ₹ 49.63 व शहरी भागासाठी ₹ 56.64</v>
+        <v>(3) 0°C</v>
       </c>
       <c r="F25" t="str">
-        <v>(4) यापैकी नाही</v>
+        <v>(4) 73°C</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B26" t="str">
-        <v>22. विशेष प्रदेश विकास कार्यक्रम यासाठी तयार्‌ करण्यात आला अ. दारिद्र्य निर्मूलन व रोजगार वाढ ब. डोंगराळ व आदिवासी भागाचा विकास h क. दुष्काळग्रस्त भागाचा विकास ड. ग्रामीण भागात औद्योगिकीकरण</v>
+        <v>25. मानव पालेभाज्यांतील सेल्युलोज पचवु शकत नाही, कारण हे विकर त्याच्या जठरात नसते.</v>
       </c>
       <c r="C26" t="str">
-        <v>(1) अ फक्त "न</v>
+        <v>(1) सेल्युलेज</v>
       </c>
       <c r="D26" t="str">
-        <v>(2) ब आणि ड॒ फक्त</v>
+        <v>(2) पेप्सीन</v>
       </c>
       <c r="E26" t="str">
-        <v>(3) ब आणि क फक्त</v>
+        <v>(3) सेल्युलीन</v>
       </c>
       <c r="F26" t="str">
-        <v>(4) ड फक्त</v>
+        <v>(4) सेल्युपेज</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B27" t="str">
-        <v>23. राजकोषीय नीतीची साधने कोणती ? अ. सार्वजनिक व्यय आणि सार्वजनिक कर्ज ब. लोकशाही आणि संघराज्यात्मक रचना क. करारोपण आणि अंदाजपत्रक उ ड. संसद आणि प्रशासन</v>
+        <v>26. खालीलपैकी कोणती वनस्पती, टेश्डिफायटा या संवहीनी वनस्पती वर्गात येत नाही ?</v>
       </c>
       <c r="C27" t="str">
-        <v>(1) अ फक्त © ब आणि क wa’ .</v>
+        <v>(1) फिलीसीनी</v>
       </c>
       <c r="D27" t="str">
-        <v>(3) ड फक्त</v>
+        <v>(2) मुसी</v>
       </c>
       <c r="E27" t="str">
-        <v>(4) अ आणि क फक्त ' न</v>
+        <v>(3) लायकोपोडियम</v>
       </c>
       <c r="F27" t="str">
-        <v>i 1</v>
+        <v>(4) इक्विसेटिनी</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="B28" t="str">
-        <v>95. ऑगस्ट 1991 मध्ये भारतातील कर सुधारणा शिफारसीसाठी खालीलपैकी कोणती समिती rh a कोणती तपती fg कण्यात. करण्यात , आली होती ?</v>
+        <v>27. जीवाणुमधील प्रजननाची सर्वात प्रभावी पद्धती आहे.</v>
       </c>
       <c r="C28" t="str">
-        <v>(1) डॉ. राजा जे. चेलैया</v>
+        <v>(1) मुकुलायन</v>
       </c>
       <c r="D28" t="str">
-        <v>(2) एम. नरसिंहम</v>
+        <v>(2) पुनर्जीवन</v>
       </c>
       <c r="E28" t="str">
-        <v>(3) डॉ. सुखमॉय चक्रवती</v>
+        <v>(3) दू्‌विविखंडन</v>
       </c>
       <c r="F28" t="str">
-        <v>(4) डॉ. अबीद Td</v>
+        <v>(4) युग्मकी एकत्रीकरण</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B29" t="str">
-        <v>26. 2011-12 मध्ये एकूण श्रमशक्तीमध्ये स्वयंरोजगार, नियमीत रोजगार आणि प्रासंगिक रोजगाराचा काय हिस्सा होता ?</v>
+        <v>28. मलेशिया रोग मुळे होतो.</v>
       </c>
       <c r="C29" t="str">
-        <v>(1) स्वयंरोजगार 52%, नियमीत 18%, प्रासंगिक 30%</v>
+        <v>(1) प्लाझमोडियम</v>
       </c>
       <c r="D29" t="str">
-        <v>(2) स्वयंशेजगार 30%, नियमीत 52%, प्रासंगिक 18%</v>
+        <v>(2) प्लॅनेर्या</v>
       </c>
       <c r="E29" t="str">
-        <v>(3) स्वयंरोजगार 20%, नियमीत 18%, प्रासंगिक 62%</v>
+        <v>(3) फायलेरिया</v>
       </c>
       <c r="F29" t="str">
-        <v>(4) यापैकी नाही</v>
+        <v>(4) fern</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="str">
-        <v>28. पीक विविधीकरण कार्यक्रम 2013-14 wm ची उपयोजना म्हणून राबविण्यात आला.</v>
+        <v>29. जीवभूरसायन चक्रात कार्बन प्रमाण आहे.</v>
       </c>
       <c r="C30" t="str">
-        <v>(1) ऑपरेशन ग्रीन्स</v>
+        <v>(1) 0.03%</v>
       </c>
       <c r="D30" t="str">
-        <v>(2) राष्ट्रीय कृषि विकास योजना</v>
+        <v>(2) 0.3%</v>
       </c>
       <c r="E30" t="str">
-        <v>(3) एक जिल्हा एक उत्पादन ग</v>
+        <v>(3) 3%</v>
       </c>
       <c r="F30" t="str">
-        <v>(4) भारतीय, प्राकृतिक कृषि पद्धती योजना र</v>
+        <v>(4) 0.003%</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="str">
-        <v>29. 2021-22 दरम्यान W-3 (M,) मध्ये समाविष्ट आहेत. LH. पोस्ट ऑर्फिस बचत बँक ठेवी ब. पोस्ट ऑफिसच्या एकूण ठेवी $ क. बँकाकडील मुदत ठेवी ड. बँकाकडील मागणी ठेवी</v>
+        <v>30. कोणता नेत्रदोष नेत्र गोल काहीसे लांबट होण्यामुळे उद्‌भवतो ?</v>
       </c>
       <c r="C31" t="str">
-        <v>(1) अ,बआणिक</v>
+        <v>(1) केवळ निकटदृष्टिता</v>
       </c>
       <c r="D31" t="str">
-        <v>(2) क.आणि ड</v>
+        <v>(2) केवळ दूरदृष्टिता</v>
       </c>
       <c r="E31" t="str">
-        <v>(8) अ,बआणिड</v>
+        <v>(3) रंगांधता</v>
       </c>
       <c r="F31" t="str">
-        <v>(4) वरीलपैकी सर्व g</v>
+        <v>(4) वृद्धदृष्टिता</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="str">
-        <v>30. 2023-24 च्या अर्थसंकल्पात खालीलपैकी कोणते प्राधान्य क्रम आहेत ? र अ. सर्वसमावेशक विकास ब. हरित वाढ क. युवा शक्‍ती ड. आर्थिक क्षेत्र</v>
+        <v>31. च्या पाण्यातील द्रावणाला व्हीनेगार म्हणतात.</v>
       </c>
       <c r="C32" t="str">
-        <v>(1) अआणिड</v>
+        <v>(1) मिथिलेटेड स्पिरीट</v>
       </c>
       <c r="D32" t="str">
-        <v>(2) बआणिक</v>
+        <v>(2) असेटिक असिड</v>
       </c>
       <c r="E32" t="str">
-        <v>(3) अ आणि ब</v>
+        <v>(3) इथेनॉल</v>
       </c>
       <c r="F32" t="str">
-        <v>(4) अ,ब, क आणि ड</v>
+        <v>(4) असिटाल्डिहाइड</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="str">
-        <v>31. 12 व्या वित्त आयोगाने राष्ट्रीय आपत्ती निवारण निधीची योजना केंद्र आणि राज्यांच्या योगदानासह च्या प्रमाणात चालू ठेवण्याची शिफारस केली.</v>
+        <v>32. हे हरित गृह वायु आहेत.</v>
       </c>
       <c r="C33" t="str">
-        <v>(1) 25:75</v>
+        <v/>
       </c>
       <c r="D33" t="str">
-        <v>(2) 50:50 @ 75:25 4 90:10</v>
+        <v/>
       </c>
       <c r="E33" t="str">
-        <v>(1) 25:75</v>
+        <v/>
       </c>
       <c r="F33" t="str">
-        <v>(2) 50:50</v>
+        <v/>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="str">
-        <v>32. खालीलपैकी कोणते/ती विधान/ने अयोग्य आहे/त ? अ. युटीजीएसटी, केंद्र सरकार आणि केंद्रशासित प्रदेश सरकारांद्वारे गोळा केले जोतात. ब. आयजीएसटी, केंद्र सरकार आणि राज्य सरकारे गोळा करतात. ‘</v>
+        <v>33. प्रकाश संश्लेषण क्रियेत हरित वनस्पती सौर ऊर्जेचे रूपांतर ऊर्जेत करतात.</v>
       </c>
       <c r="C34" t="str">
-        <v>(1) फक्त अ अयोग्य आहे</v>
+        <v>(1) यांत्रिक</v>
       </c>
       <c r="D34" t="str">
-        <v>(2) फक्त ब अयोग्य़ आहे</v>
+        <v>(2) रासायनिक</v>
       </c>
       <c r="E34" t="str">
-        <v>(3) दोन्ही अ आणि ब अयोग्य आहेत</v>
+        <v>(3) अणु</v>
       </c>
       <c r="F34" t="str">
-        <v>(4) वरीलपैकी नाही</v>
+        <v>(4) विद्युत्‌</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B35" t="str">
-        <v>38. मानवी विकास निर्देशांकांमध्ये बहुआयामी Gigs निर्देशांकाचे तीन आयाम प्रतिबिंबित होतात. अ. आरोग्य ब. उत्पन्न क. शिक्षण न 1 ड. TRE</v>
+        <v>35. असेटिक असिडच्या विरल द्रावणाला म्हणतात.</v>
       </c>
       <c r="C35" t="str">
-        <v>(1) अ,बआणिक</v>
+        <v>(1) इथिलीन</v>
       </c>
       <c r="D35" t="str">
-        <v>(2) ब, क आणि ड</v>
+        <v>(2) पॅराफिन</v>
       </c>
       <c r="E35" t="str">
-        <v>(3) अ, क आणि ड़</v>
+        <v>(3) बँझिन</v>
       </c>
       <c r="F35" t="str">
-        <v>(4) अ, vais</v>
+        <v>(4) व्हिनेगार</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="B36" t="str">
-        <v>84. सप्टेंबर 2001 मध्ये जवाहर ग्राम समृद्धी योजना आणि रोजगार शाश्वती योजना या योजनेत एकत्रीत करण्यात: आल्या.</v>
+        <v>36. खालीलपैकी अचूक व संतुलित रासायनिक समीकरण हे आहे.</v>
       </c>
       <c r="C36" t="str">
-        <v>(1) संपूर्ण ग्रामीण रोंजगार योंजना</v>
+        <v/>
       </c>
       <c r="D36" t="str">
-        <v>(2) स्वर्णजयंती ग्राम स्वरोजगार योजना</v>
+        <v/>
       </c>
       <c r="E36" t="str">
-        <v>(3) प्रधान मंत्री ग्रामोद्य योजना</v>
+        <v/>
       </c>
       <c r="F36" t="str">
-        <v>(4) स्वर्णजयंती शहरी रोजगार योजना</v>
+        <v/>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B37" t="str">
-        <v>35. वित्तीय जबाबदारी आणि अंदाजपत्रक व्यवस्थापन 'कायदा, 9003 (एफ आर बी एम कायदा, 2003) असे नमूद करतो की केंद्र सरकारने पर्यंत महसूली तूट दूर कंरण्यासाठी योग्य उपाययोजना करणे आवश्यक उ ' आहे. 1 ' त ” श (1) 2004-08. (2 2008-09 _ (3 2010-11 (4 2015 — 16 | I = liu ~ 2</v>
+        <v>37. 1 मिलीग्रॅम वस्तुमानाचे ऊर्जेत रूपांतर केल्यास किती ऊर्जा मिळु शकेल ?</v>
       </c>
       <c r="C37" t="str">
-        <v>(1) 2004-05</v>
+        <v>(1) 9x10" ज्यूल</v>
       </c>
       <c r="D37" t="str">
-        <v>(2) 2008-09</v>
+        <v>(2) 3&gt;101% ज्यूल</v>
       </c>
       <c r="E37" t="str">
-        <v>(3) 2010-11</v>
+        <v>(3) 9९1010 ज्यूल</v>
       </c>
       <c r="F37" t="str">
-        <v>(4) 2015-16</v>
+        <v>(4) 3x10% ज्यूल</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" t="str">
-        <v>37. खालीलपैकी कोणाला राजीव गांधी खेलरत्न पुरस्कार 2020 ने सन्मानित करण्यात आले ? -. (1). सचिन तेंडूलकर -. . (2) महेंद्रसिंग धोनी | (3) विराट कोहली. °° ; * (4) रोहित शर्मा &gt;  ———— 1 न मंत्रालयाने , ह</v>
+        <v>38. खालीलपैकी कोणत्या पदार्थापासून सर्वात जास्त कॅलरीज मिळतात ? प्रत्येक वेळी सारख्या आकारमानाचा कप वापरला आहे हे गृहीत धरुन</v>
       </c>
       <c r="C38" t="str">
-        <v/>
+        <v>(1) एक कप आइस्क्रीम</v>
       </c>
       <c r="D38" t="str">
-        <v/>
+        <v>(2) एक कप सरबत</v>
       </c>
       <c r="E38" t="str">
-        <v/>
+        <v>(3) एक कप दूध</v>
       </c>
       <c r="F38" t="str">
-        <v/>
+        <v>(4) एक कप आंब्याचा रस</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" t="str">
-        <v>38. 2020 मधील लॉकडाऊन दरम्यान कृषि व शेतकरी कल्याण मंत्रालयाने कृषि उत्पादनांच्या सुलभ वाहतुकीसाठी हे मोबाईल अँप्लिकेशन सुरू केले. र</v>
+        <v>39. ‘m’ वस्तुमान असलेली वस्तू ४ या चालीने गतिमान असेल तर त्याची गतिज ऊर्जा 1 1 1</v>
       </c>
       <c r="C39" t="str">
-        <v>(1) किसान एक्सप्रेस</v>
+        <v>(1) mv @ 5</v>
       </c>
       <c r="D39" t="str">
-        <v>(2). किसान स्थ्‌ , ,</v>
+        <v>(3) 3</v>
       </c>
       <c r="E39" t="str">
-        <v>(3) किसान कनेक्ट Ce.</v>
+        <v>(4) 5</v>
       </c>
       <c r="F39" t="str">
-        <v>(4) कृषि नेटवर्क</v>
+        <v>1 1» 1. 9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" t="str">
-        <v>39. पद्मविभूषण पुरस्काराने सन्मानित झालेल्या ,प्रभा अत्रे Fre क्षेत्राशी संबंधित आहेत 7 _ Te</v>
+        <v>40. एक लीटर पाणी 4° से. पासून 3° से. पर्यंत थंड केल्यास</v>
       </c>
       <c r="C40" t="str">
-        <v>(1) साहित्य</v>
+        <v>(1) पाण्याचे आकारमान कमी होईल व घनता वाढेल</v>
       </c>
       <c r="D40" t="str">
-        <v>(2) संगीत</v>
+        <v>(2) पाण्याचे आकारमान वाढेल व घनता कमी होईल</v>
       </c>
       <c r="E40" t="str">
-        <v>(39) खेळ &lt;</v>
+        <v>(3) पाण्याचे आकारमान कमी होईल व घनता स्थिर राहीलं</v>
       </c>
       <c r="F40" t="str">
-        <v>(4) नागरी सेवा,</v>
+        <v>(4) पाण्याचे आकारमान वाढेल व घनता स्थिर राहील</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" t="str">
-        <v>40. 2022 मध्ये आयोजित अखिल भारतीय राजभाषा परिषदेचे' यजमान कोणते ARIF</v>
+        <v>41. भारतीय कामगार संघटनावर कुठल्या क्रांतीचा फार मोठ्या प्रमाणावर प्रभाव पडला ?</v>
       </c>
       <c r="C41" t="str">
-        <v>(1) सुरतः ;</v>
+        <v>(1) अमेरिकन क्रांती</v>
       </c>
       <c r="D41" t="str">
-        <v>(2) अहमदाबाद</v>
+        <v>(2) फ्रेंच क्रांती</v>
       </c>
       <c r="E41" t="str">
-        <v>(8) मुंबई</v>
+        <v>(3) रशियन क्रांती</v>
       </c>
       <c r="F41" t="str">
-        <v>(4) पुणे</v>
+        <v>(4) औद्योगिक क्रांती</v>
       </c>
     </row>
     <row r="42">
@@ -1224,19 +1224,19 @@
         <v>42</v>
       </c>
       <c r="B42" t="str">
-        <v>42. कोणती संस्था “अँन्युअल स्टेटस ऑफ इज्युकेशन रिपोर्ट' (ASER) प्रसिद्ध करते ?</v>
+        <v>42. अचूक कालक्रम लावा : (अ) गदरपार्टीची स्थापना (ब) चौरीचौरा घटना (क) खुदीराम बोसची फाशी (ड) मलबारमध्ये मोपला बंड A=1;d=2;%=3;5=4</v>
       </c>
       <c r="C42" t="str">
-        <v>(1) नीती आयोग</v>
+        <v>(1) अ,ब,क, 81,2, 3, 4</v>
       </c>
       <c r="D42" t="str">
-        <v>(2) प्रथम,</v>
+        <v>(2) ब, अ, ड, क (2,1, 4, 3)</v>
       </c>
       <c r="E42" t="str">
-        <v>(3) ऑक्सफॅम इंटरनॅशनल</v>
+        <v>(3) क, ड, अ, ब (3, 4, 1, 2)</v>
       </c>
       <c r="F42" t="str">
-        <v>(4) युनिसेफ</v>
+        <v>(4) क, अ, ड, ब (3, 1, 4, 2)</v>
       </c>
     </row>
     <row r="43">
@@ -1244,19 +1244,19 @@
         <v>43</v>
       </c>
       <c r="B43" t="str">
-        <v>43. कोणत्या संस्थेने आण्विक सुरक्षेवर उच्चस्तरीय किव- संबाद स्थापन केला ?</v>
+        <v>43. वहाबी चळवळीचे उद्दिष्ट कोणते ?</v>
       </c>
       <c r="C43" t="str">
-        <v>(1) आय.ए.ई.ए.</v>
+        <v>(1) मुसलमानामध्ये शिक्षणाचा प्रसार करणे</v>
       </c>
       <c r="D43" t="str">
-        <v>(2) युनिसेफ</v>
+        <v>(2) जगातील सर्व मुसलमानाचे एकत्रीकरण करणे</v>
       </c>
       <c r="E43" t="str">
-        <v>(8) आय.एम.एफ.</v>
+        <v>(3) हिंदूना विरोध करणे</v>
       </c>
       <c r="F43" t="str">
-        <v>(4) यु.एन.एस.सी.</v>
+        <v>(4) मुसलमानांचे राज्य स्थापन करणे</v>
       </c>
     </row>
     <row r="44">
@@ -1264,79 +1264,79 @@
         <v>44</v>
       </c>
       <c r="B44" t="str">
-        <v>44. कोव्हीड-19 या महामारीचा पहिला रुग्ण भारतामध्ये केव्हा व-कोठे आढळला ? "=</v>
+        <v>44. ब्रिटीशांचे आर्थिक धोरण ह्या नावाने ओळखल्या जात होते</v>
       </c>
       <c r="C44" t="str">
-        <v>(1) 80 जानेवारी 2020, केरळ</v>
+        <v>(1) राष्ट्रांची संपत्ती</v>
       </c>
       <c r="D44" t="str">
-        <v>(2) 31 डिसेंबर 2019, केरळ</v>
+        <v>(2) धननि:सारण अथवा संपत्तीचा निचरा</v>
       </c>
       <c r="E44" t="str">
-        <v>(3) 30 जानेवारी 2020, गोवा</v>
+        <v>(3) वरील दोन्ही उत्तरे बरोबर आहेत</v>
       </c>
       <c r="F44" t="str">
-        <v>(4) 31 डिसेंबर 2019, गोवा</v>
+        <v>(4) वरीलपैकी दोन्ही चूक आहेत</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" t="str">
-        <v>46. 21 ग्रँड स्लॅम जेते पदे जिंकणारा पहिला पुरुष टेनिस स्टार कोण आहे ?</v>
+        <v>45. शेतीचे व्यापारीकरण म्हणजे</v>
       </c>
       <c r="C45" t="str">
-        <v>(1) रॉजर फेडरर</v>
+        <v>(1) नगदी पिकांचे उत्पादन घेणे</v>
       </c>
       <c r="D45" t="str">
-        <v>(2) TH नदाल</v>
+        <v>(2) शेतीमध्ये कारखानदारी उभारणे</v>
       </c>
       <c r="E45" t="str">
-        <v>(3) नोवाक जोकोविच _</v>
+        <v>(3) शेतीची खरेदी-विक्री करणे</v>
       </c>
       <c r="F45" t="str">
-        <v>(4) आंद्रे आगासी</v>
+        <v>(4) पारंपरिक पिके घेणे</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" t="str">
-        <v>47. कोणत्या तंत्रज्ञान प्लॅटफॉर्म Yeh. व्होटर' मोहीम सुरू केली ?</v>
+        <v>46. भारताच्या दारिद्र्याच्या मुळाशी ब्रिटीशांचे आर्थिक धोरण जबाबदार आहे' असे ठामपणे प्रतिपादन करणारे पहिले भारतीय विचारवंत कोण ?</v>
       </c>
       <c r="C46" t="str">
-        <v>(1) फेसबुक</v>
+        <v>(1) दादाभाई नौरोजी</v>
       </c>
       <c r="D46" t="str">
-        <v>(2) मायक्रोसॉफ्ट</v>
+        <v>(2) व्ही. के. आर. व्ही, राव</v>
       </c>
       <c r="E46" t="str">
-        <v>(3) व्टिटर</v>
+        <v>(3) रमेशचंद्र दत्त</v>
       </c>
       <c r="F46" t="str">
-        <v>(4) गुगल</v>
+        <v>(4) विनगेट</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" t="str">
-        <v>48. युद्धकाळात गाजविलेल्या असामान्य शौर्याबद्दलं 2021 मध्ये अशोकचक्र ह्य सन्मान यांना मरणोत्तर प्रदान करण्यात आला. र ग ग</v>
+        <v>47. राष्ट्रीय काँग्रेस सभेच्या मुंबई येथील पहिल्या अधिवेशनाचे अध्यक्ष कोण होते ?</v>
       </c>
       <c r="C47" t="str">
-        <v>(1) अल्ताफ हुसेन भट्ट</v>
+        <v>(1) अलन अक्टोव्हिएन ह्यूम</v>
       </c>
       <c r="D47" t="str">
-        <v>(2) ए.एस.आय. बाबू राम</v>
+        <v>(2) सुरेंद्रनाथ बॅनर्जी</v>
       </c>
       <c r="E47" t="str">
-        <v>(3) ज्योतीकुमार निराला ”</v>
+        <v>(3) व्योमेशचंद्र बॅनर्जी</v>
       </c>
       <c r="F47" t="str">
-        <v>(4) अश्विनीकुमार दिक्षित</v>
+        <v>(4) स्वातंत्र्यवीर सावरकर</v>
       </c>
     </row>
     <row r="48">
@@ -1344,379 +1344,379 @@
         <v>49</v>
       </c>
       <c r="B48" t="str">
-        <v>49. 2021 - 22 चा ज्ञानपीठ पुरस्कार जिंकणारे मराठी साहित्यिक कोण होते ?</v>
+        <v>49. 1919 च्या माँट-फोर्ड कायंद्यावर' हे 'स्वराज्य नव्हे आणि त्याचा पायाही नव्हे' अशी टीका कोणी केली ?</v>
       </c>
       <c r="C48" t="str">
-        <v>(1) दामोदर मौजो</v>
+        <v>(1) लाला लजपतराय</v>
       </c>
       <c r="D48" t="str">
-        <v>(2) व्ही. एस. खांडेकर</v>
+        <v>(2) लोकमान्य टिळक</v>
       </c>
       <c r="E48" t="str">
-        <v>(3) लक्ष्मणशास्त्री जोशी</v>
+        <v>(3) महात्मा गांधी</v>
       </c>
       <c r="F48" t="str">
-        <v>(4) विंदा करंदीकर "od</v>
+        <v>(4) पंडित नेहरु</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" t="str">
-        <v>51. महाधिवक्त्या बद्दल खालीलपैकी कोणते विधान असत्य आहे ?</v>
+        <v>50. लंडनमध्ये इंडिया हाऊस ची स्थापना यांनी केली.</v>
       </c>
       <c r="C49" t="str">
-        <v>(1) 'महाधिवक्त्याची' नियुक्ती भारताचे राष्ट्रपती करतात</v>
+        <v>(1) लाला हरदयाळ</v>
       </c>
       <c r="D49" t="str">
-        <v>(2) राज्यपालांनी त्यांना संदर्भीत केलेल्या अशा कायदेशीर बाबींवर ते राज्यसरकारला सल्ला देतात</v>
+        <v>(2) श्यामजी कृष्ण वर्मा</v>
       </c>
       <c r="E49" t="str">
-        <v>(3) राज्यपालांनी त्यांना नेमून दिलेली कायदेशीर वैशिष्ट्ये असलेली अशी इतर कर्तव्ये ते पार पाडतात</v>
+        <v>(3) स्वातंत्र्यवीर सावरकर</v>
       </c>
       <c r="F49" t="str">
-        <v>(4) संविधान किंवा इतर कोणत्याही कायद्याने त्यांना दिलेली कार्ये ते पार पाडतात</v>
+        <v>(4) सुभाषचंद्र बोस</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B50" t="str">
-        <v>59. भारतातील उच्च न्यायालयाबाबत खालीलपैकी कोणते विधान बरोबर नाही ?</v>
+        <v>51. अनुद्योगीकरण' म्हणजे काय ?</v>
       </c>
       <c r="C50" t="str">
-        <v>(1) उच्च न्यायालये “जनहित याचिकांशी' संबंधित याचिका स्विकारू शकतात</v>
+        <v>(1) वैज्ञानिक शोधाच्याद्वारे उद्योगांना चालना</v>
       </c>
       <c r="D50" t="str">
-        <v>(2) उच्च न्यायालयाच्या प्रत्येक न्यायाधिशाची नियुक्‍ती राष्ट्रपती करतात</v>
+        <v>(2) मोठ्या उद्योगांची निर्मिती</v>
       </c>
       <c r="E50" t="str">
-        <v>(3) राज्याचे राज्यपाल उच्च न्यायालयाच्या न्यायाधिशांची नियुक्ती करतात</v>
+        <v>(3) उत्पादनाचे नफा हेच उद्दिष्ट</v>
       </c>
       <c r="F50" t="str">
-        <v>(4) उच्च न्यायालयाच्या न्यायाधिशांचे निवृत्तीचे वय 62 आहे</v>
+        <v>(4) औद्योगिक उत्पादन कमी होणे</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51" t="str">
-        <v>53. भारत सरकारकडून प्रत्येक वर्षी 24 एप्रिल हा दिवस refer कोणता दिवस म्हणून साजरा केला जातो ?</v>
+        <v>52. कोणत्या पद्धतीत शासकीय अधिकारी सरळ शेतकऱ्यांकडून जमीन महसूल वसूल करीत असे ?</v>
       </c>
       <c r="C51" t="str">
-        <v>(1) राष्ट्रीय जन संपर्क दिन</v>
+        <v>(1) कायमधारा</v>
       </c>
       <c r="D51" t="str">
-        <v>(2) राष्ट्रीय पंचायत राज दिन</v>
+        <v>(2) रयतवारी</v>
       </c>
       <c r="E51" t="str">
-        <v>(3) राष्ट्रीय मतदार दिन</v>
+        <v>(3) महालवारी</v>
       </c>
       <c r="F51" t="str">
-        <v>(4) राष्ट्रीय साक्षरता दिन ~ '</v>
+        <v>(4) वायदा</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="B52" t="str">
-        <v>84. खालीलपैकी कोणत्या राज्यांमध्ये विधानपरिषद हे सभागृह नाही ? ब. कर्नाटक * - क. केरळ Co ड. राजस्थान TT</v>
+        <v>53. ब्रिटीश सरकार भारताला टप्प्याटप्प्याने स्वशासनाचे अधिकार आणि जबाबदार राज्य पद्धती os ' असे 1917 साली यांनी घोषित केले.</v>
       </c>
       <c r="C52" t="str">
-        <v>(1) फक्त अ आणि ब</v>
+        <v>(1) मोले</v>
       </c>
       <c r="D52" t="str">
-        <v>(2) फक्त FAME</v>
+        <v>(2) fie</v>
       </c>
       <c r="E52" t="str">
-        <v>(3) अ,ब आणिक</v>
+        <v>(3) मॉन्टेग्यू</v>
       </c>
       <c r="F52" t="str">
-        <v>(4) फक्त-डू क</v>
+        <v>(4) चेम्सफोर्ड</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B53" t="str">
-        <v>55. अंचूक जोड्या लावा. ” ” अ. 61 वी घटनादुरुस्ती 1. राज्य लोक सेवा आयोगातील सदस्यांचे सेवा निवृत्तीचे | वय 60 बरून 62 वर्षे ३ | ब, 44 वी घटनादुरुस्ती 2. त्रिस्तरीय पंचायत राज व्यवस्था | क. 41 वी घटनादुरुस्ती 3. मतदाराचे वय 21 वरून 18 वर्षे केले | ड. 73 बी vege 4, राष्ट्रपती, उपराष्ट्रपती आणि पंतप्रधान यांच्या निवडणुकी विषयी वाद सर्वोच्च ब उच्च न्यायालयात ह = (1) अ-4,ब-3,क-1,ड-2</v>
+        <v>54. ब्रिटीश सरकारने मदनलाल धिंग्रा यास साली फाशी दिले,</v>
       </c>
       <c r="C53" t="str">
-        <v>(2) अ-38,ब-4,क-1,ड-2</v>
+        <v>(1) 1860</v>
       </c>
       <c r="D53" t="str">
-        <v>(3) H-2,¥-1,%-4,3-3</v>
+        <v>(2) 1891</v>
       </c>
       <c r="E53" t="str">
-        <v>(4) अ-4$,ब-1,क-8,ड-2</v>
+        <v>(3) 1900</v>
       </c>
       <c r="F53" t="str">
-        <v>18 years</v>
+        <v>(4) 1909</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="B54" t="str">
-        <v>86. सरपंचाचे अधिकार आणि कर्तव्ये याबाबत, खालील विधाने विचारात घ्या. i अ. ग्रामसभेत मंजुर झालेल्या ठरावांची अंमलबजावणी करणे. ऱ ब. ग्रामपंचायतीच्या मालकीची मालमत्तेचे संरक्षण करणे. क. ग्रामपंचायतील क्षेत्रातील प्राथमिक शाळांवर देखरेख ठेवणे. वरीलपैकी अयोग्य विधाने निवडा.</v>
+        <v>55. 1906 मध्ये दलित संघाची स्थापना करून त्याद्वारे दलितोद्धाराचे कार्य कुणी केले ?</v>
       </c>
       <c r="C54" t="str">
-        <v>(1) फक्त अ -, —</v>
+        <v>(1) महात्मा ज्योतीबा फुले</v>
       </c>
       <c r="D54" t="str">
-        <v>(2) फक्त ब</v>
+        <v>(2) शाहु महाराज</v>
       </c>
       <c r="E54" t="str">
-        <v>(3) फक्त क न</v>
+        <v>(3) विठ्ठल रामजी शिंदे</v>
       </c>
       <c r="F54" t="str">
-        <v>(4) यापैकी नाही</v>
+        <v>(4) सयाजीराव गायकवाड</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" t="str">
-        <v>57. खालीलपैकी कोण. सरक्रारीया .आग्रोग्राचे सदस्य नव्हते 7+ 3 Le tL,</v>
+        <v>56. खालील वाक्ये काळजीपूर्वक वाचा : (अ) व्ही. चिपळूणकर, बी, जी. टिळक, गो. ग. आगरकर ह्या तिघांनी इ. स. 1880 मध्ये पुण्यात न्यू इंग्लीश स्कूल ची स्थापना केली. (ब) व्ही. चिपळूणकर, बी. जी. टिळक, गो. ग. आगरकर ह्या तिघांनी इ. स. 1881 मध्ये पुण्यात ' न्यू इंग्लीश स्कूल ची स्थापना केली.</v>
       </c>
       <c r="C55" t="str">
-        <v>(1)- क्री. बी. शिव्रामन ४ 5 » « -</v>
+        <v>(1) 'अ बरोबर आहे. परंतु &amp; चुकीचे आहे</v>
       </c>
       <c r="D55" t="str">
-        <v>(2) डॉ. एस. आर. सेन *. *</v>
+        <v>(2) § बरोबर आहे. परंतु A चुकीचे आहे</v>
       </c>
       <c r="E55" t="str">
-        <v>(3) रामा सुब्रमण्युम ह न वाट</v>
+        <v>(3) 'अ' आणि ‘TF दोन्ही चूक आहे</v>
       </c>
       <c r="F55" t="str">
-        <v>(4) यापैकी नाही' :</v>
+        <v>(4) 'अ' आणि ब दोन्ही बरोबर आहे</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" t="str">
-        <v>58. निवडणूक आयोगाची कर्तव्ये स्पष्ट करण्यासाठी कोणत्या कलमात सुधारणा करण्यात आली ?</v>
+        <v>57. कोणत्या कायद्याने अस्पृश्यता समाप्त करण्यात आली 7</v>
       </c>
       <c r="C56" t="str">
-        <v>(1) कलम - 324 भाग - 10</v>
+        <v>(1) 1935 चा कायदा</v>
       </c>
       <c r="D56" t="str">
-        <v>(2) कलम - 324 भाग - 15</v>
+        <v>(2) 1947 चा कायदा</v>
       </c>
       <c r="E56" t="str">
-        <v>(3) कलम - 300 भाग्‌,- 9 |</v>
+        <v>(3) 1951 चा कायदा</v>
       </c>
       <c r="F56" t="str">
-        <v>(4) कलम - 298 भाग - 6</v>
+        <v>(4) 1955 चा कायदा</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B57" t="str">
-        <v>60. भारताच्या संविधान परिषदेच्या 'कार्याविषयीच्या समितीचे अध्यक्ष कोण होते ?</v>
+        <v>58. महात्मा फुले यांनी अस्पृश्यांच्या शिक्षणासाठी वेताळपेठ (पुणे) येथे इ. स. मध्ये शाळा सुरु केली,</v>
       </c>
       <c r="C57" t="str">
-        <v>(1) डॉ. राजेंद्र प्रसाद</v>
+        <v>(1) 1885</v>
       </c>
       <c r="D57" t="str">
-        <v>(2) डॉ. बी. आर. आंबेडकर</v>
+        <v>(2) 1852</v>
       </c>
       <c r="E57" t="str">
-        <v>(3) जवाहरलाल नेहरु</v>
+        <v>(3) 1886</v>
       </c>
       <c r="F57" t="str">
-        <v>(4) ग. वा. माबळणकर</v>
+        <v>(4) 1863</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="str">
-        <v>61. संविधान परिषदेच्या सल्लागार शाखेने भारतीय राज्यघटनेचा पहिला AEG. मध्ये तयार केला.</v>
+        <v>60. मुस्लीम समाजातील पडदापद्धती व बहुपत्नीत्व या पद्धतींना यांनी विरोध केला होता.</v>
       </c>
       <c r="C58" t="str">
-        <v>(1) जानेवारी, 1947</v>
+        <v>(1) सर सय्यद अहमद खान</v>
       </c>
       <c r="D58" t="str">
-        <v>(2) मार्च, 1941</v>
+        <v>(2) बॅरीस्टर जिना</v>
       </c>
       <c r="E58" t="str">
-        <v>(8) सप्टेंबर, 1947</v>
+        <v>(3) खान अब्दुल गफार खान</v>
       </c>
       <c r="F58" t="str">
-        <v>(4) ऑक्टोबर, 1947 :</v>
+        <v>(4) रहेमत अली</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="str">
-        <v>62. भारतीय शज्यघटनेतील मार्गदर्शक तत्वांच्या भारतीय राज्यघटनेतील अनुच्छेदाच्या क्रमांकानुसार योग्य क्रम लावा. अ. पर्यावरणाचे संरक्षण व सुधारणा. ब. जनतेचे राहाणीमान व सार्वजनीक आरोग्य सुधारणे. क. अनुसूचीत जाती, जमाती आणि दूर्बल घटकांच्या आर्थिक हितांचे रक्षण. ड. सर्व नागरीकांसाठी समान नागरी कायदा लागू करणे.</v>
+        <v>61. गोपाळ गणेश आगरकरांनी 'बालविवाह' ही सामाजिक प्रथा बंद करण्यासाठी 'केसरी त अग्रलेख लिहून बाजू मांडली की</v>
       </c>
       <c r="C59" t="str">
-        <v>(1) अ,ब,क,ड</v>
+        <v>(1) समाजाने ही प्रथा बंद करावी</v>
       </c>
       <c r="D59" t="str">
-        <v>(2) ड,अ,क,ब</v>
+        <v>(2) कायद्याने ही प्रथा बंद करावी</v>
       </c>
       <c r="E59" t="str">
-        <v>(3) ड,क,ब,अ</v>
+        <v>(3) स्त्री-शिक्षणाचा प्रसार करून प्रथा बद करावी</v>
       </c>
       <c r="F59" t="str">
-        <v>(4) ब,क,ड, अ</v>
+        <v>(4) हिंदू धर्माने पुढाकार घेऊन प्रथा बंद करावी</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="str">
-        <v>63. माटिग्यू-चेम्सफोर्ड या नावाने ओळखला.जाणारा भारतीय घटनात्मक सुधारणाविषयक Ea, मध्ये. | प्रसिद्ध करण्यात आला. | (1) जून 1918 (2) ऑगस्ट 1918 | (3) जुलै 1918 (4) ऑक्टोबर 1918 _———_—ee_—_——— ——_—_—_—_—_—_—e—————,——_— m/s</v>
+        <v>62. तृतीय रत्न हे मराठी नाटक ___ यांनी लिहिले,</v>
       </c>
       <c r="C60" t="str">
-        <v/>
+        <v>(1) महर्षी कर्वे</v>
       </c>
       <c r="D60" t="str">
-        <v/>
+        <v>(2) महात्मा फुले</v>
       </c>
       <c r="E60" t="str">
-        <v/>
+        <v>©</v>
       </c>
       <c r="F60" t="str">
-        <v/>
+        <v>(3) दादोबा पांडुरंग</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="str">
-        <v>64. कोणती जोडी अयोग्यरित्या जुळवलेली आहे/त ? | अ. भेदभाव करण्यास मनाई - कलम 15 | ब. संमेलनाचा हक्क - कलम 19 क. जीवित संरक्षणाचा अधिकार - कलम 20 | ड. घटनात्मक उपायाचा अधिकार - कलम 32</v>
+        <v>63. आगरकर, पंडिता रमाबाईंनी काढलेल्या कुठल्या संस्थेचे हितचिंतक होते ?</v>
       </c>
       <c r="C61" t="str">
-        <v>(1) अ फक्त</v>
+        <v>(1) महिलाश्रम</v>
       </c>
       <c r="D61" t="str">
-        <v>(2) ब आणि क फक्त</v>
+        <v>(2) स्त्री-सुधारकेंद्र</v>
       </c>
       <c r="E61" t="str">
-        <v>(3) क फक्त</v>
+        <v>(3) स्त्री-आधारकेंद्र</v>
       </c>
       <c r="F61" t="str">
-        <v>(4) ड फक्त</v>
+        <v>(4) शारदासदन</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="str">
-        <v>65. समवर्ती सूचीमध्ये खालीलपैकी कशाचा समावेश नाही ? अ. करारनामे i ब. जंगले क. जकात ड. दिवाळखोरी आणि नादारी</v>
+        <v>64. राजर्षी शाहु महाराजांनी कोल्हापूर येथे अस्पृश्य मुलांसाठी सुरु केलेल्या वसतीगृहाचे नाव काय होते ?</v>
       </c>
       <c r="C62" t="str">
-        <v>(1) बआणिक</v>
+        <v>(1) व्हिक्टोरिया वसतीगृह</v>
       </c>
       <c r="D62" t="str">
-        <v>(2) "फक्त अ</v>
+        <v>(2) मिस क्लार्क वसतीगृह</v>
       </c>
       <c r="E62" t="str">
-        <v>(3) फक्त क</v>
+        <v>(3) एस्‌ . एम्‌. क्रेझर वसतीगृह</v>
       </c>
       <c r="F62" t="str">
-        <v>(4) फक्त ड</v>
+        <v>(4) श्री फिटझिराल वसतीगृह</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="str">
-        <v>66. शैवाळ वर्गीकरणामध्ये “किटोफोरेल्स' हा गट खालीलपैकी कोणत्या वर्गामध्ये येतो ?</v>
+        <v>65. महात्मा फुलेंच्या शाळेतील चौदा वर्षाच्या मुक्ताई या मातंग समाजाच्या मुलीने लिहिलेला निबंध कशावर आधारित आहे ?</v>
       </c>
       <c r="C63" t="str">
-        <v>(1) TBE</v>
+        <v>(1) सामाजिक स्थितीवर</v>
       </c>
       <c r="D63" t="str">
-        <v>(2) कॅरोफायटा ”</v>
+        <v>(2) धार्मिक स्थितीवर</v>
       </c>
       <c r="E63" t="str">
-        <v>(3) सियानोफायटा</v>
+        <v>(3) स्त्रियांच्या स्थितीवर</v>
       </c>
       <c r="F63" t="str">
-        <v>(4) व्होडोफायटा</v>
+        <v>(4) शैक्षणिक स्थितीवर</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="str">
-        <v>67. अति पाण्यामुळे वनस्पती मृत होतात कारण</v>
+        <v>66. महर्षी कर्वे पुणे Af महाविद्यालयात गणिताचे प्राध्यापक होते.</v>
       </c>
       <c r="C64" t="str">
-        <v>(1) पाण्यामुळे मातीच्या सामूचे उदासीनीकरण होते</v>
+        <v>(1) फर्ग्युसन</v>
       </c>
       <c r="D64" t="str">
-        <v>(2) मूळे ऑक्सीजनपासून वंचित होतात</v>
+        <v>(2) डेक्कन</v>
       </c>
       <c r="E64" t="str">
-        <v>(8) पाण्यामुळे मूळावरील परजीवींची वाढ होते</v>
+        <v>(3) सर परशुरामभाऊ</v>
       </c>
       <c r="F64" t="str">
-        <v>(4) वनस्पतीच्या वाढीसाठी आवश्यक असलेली सर्व खनिजे पाण्यात नसतात</v>
+        <v>(4) वाडिया</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="str">
-        <v>68. नायट्रोजन स्थिर करण्यासाठी खालीलपैकी कोणते शैवाळे जास्तीत जास्त उपयोगी-आहे ?</v>
+        <v>67. महर्षी कर्वे यांनी ग्रामीण भागात शिक्षण प्रसार करण्यासाठी इ. स. 1936 मध्ये संस्था उघडली</v>
       </c>
       <c r="C65" t="str">
-        <v>(1) क्लोरोफायसी :</v>
+        <v>(1) महिला विद्यालय</v>
       </c>
       <c r="D65" t="str">
-        <v>(2) मीक्झोफायसी</v>
+        <v>(2) अनाथ बालिकाश्रम</v>
       </c>
       <c r="E65" t="str">
-        <v>.</v>
+        <v>(3) ग्राम प्राथमिक शिक्षण मंडळ</v>
       </c>
       <c r="F65" t="str">
-        <v>(8) र्‍्होडोफायसी</v>
+        <v>4) समतामंच</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="str">
-        <v>69. मिओसिसच्या टप्प्यांचे योग्य क्रम कोणता आहे ?</v>
+        <v>68. महात्मा फुलेच्या सत्यशोधक समाजाने कशाविरूद्ध आवाज उठविला ?</v>
       </c>
       <c r="C66" t="str">
-        <v>(1) लेप्टोटिन, पॅचीटिन, झायगोटिन, डिप्लोटिन, डायकायनेसिस</v>
+        <v>(1) स्त्री-गुलामगिरी</v>
       </c>
       <c r="D66" t="str">
-        <v>|</v>
+        <v>(2) धार्मिक गुलामगिरी</v>
       </c>
       <c r="E66" t="str">
-        <v>(2) लेप्टोटिन, डायकायनेसिस, पॅचीटिन, डिप्लोटिन, झायगोटिन |</v>
+        <v>(3) सामाजिक गुलामगिरी</v>
       </c>
       <c r="F66" t="str">
-        <v>(3) लेप्टोटिन, झायगोटिन, पॅचीटिन, डिप्लोटिन, डायकायनेसिस</v>
+        <v>(4) शेतकऱ्यांची गुलामगिरी</v>
       </c>
     </row>
     <row r="67">
@@ -1724,19 +1724,19 @@
         <v>70</v>
       </c>
       <c r="B67" t="str">
-        <v>70. अँटीमोनी संयुगे च्या उपचारांसाठी वापरण्याची शिफारस केली जोते.</v>
+        <v>70. लोकसेवेसाठी कर्वे यांनी संस्थेची स्थापना केली.</v>
       </c>
       <c r="C67" t="str">
-        <v>(1) एलिफंटायसीस</v>
+        <v>(1) ग्राम मंडळ</v>
       </c>
       <c r="D67" t="str">
-        <v>(2) फॅसिओलोप्सियासिस</v>
+        <v>(2) महिला विद्यापीठ</v>
       </c>
       <c r="E67" t="str">
-        <v>(3) शिस्टोमियासिस</v>
+        <v>(3) ग्रामरक्षा</v>
       </c>
       <c r="F67" t="str">
-        <v>(4) वरीलपैकी काहीही नाही</v>
+        <v>(4) निष्काम कर्ममठ</v>
       </c>
     </row>
     <row r="68">
@@ -1744,484 +1744,1504 @@
         <v>71</v>
       </c>
       <c r="B68" t="str">
-        <v>71. साधारणपणे पौरिफेरामध्ये गेमेट कशामुळे तयार होतात ? I (1) कोयानोसाईट्स (2) आर्किओसाईट्स</v>
+        <v>71. आगरकर चे संपादक होते.</v>
       </c>
       <c r="C68" t="str">
-        <v>(3) मायोसाईट्स</v>
+        <v>(1) शतपत्रे</v>
       </c>
       <c r="D68" t="str">
-        <v>(4) पिनाकोसाईट्स</v>
+        <v>(2) हरिञन</v>
       </c>
       <c r="E68" t="str">
-        <v>72, तापमानातील प्रत्येक 1°C वाढीसाठी हवेतील ध्वनीचा वेग _______ से.मी./सेकंद ने वाढतो..</v>
+        <v>(3) सुधारक</v>
       </c>
       <c r="F68" t="str">
-        <v>|</v>
+        <v>(4) मराठा</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B69" t="str">
-        <v>73. विशिष्ट उष्णतेचे, सी.जी.एस्‌. प्रणालीतील एकक PE. आहे. _</v>
+        <v>72. कोणता कायदा म्हणजे स्त्री-पुरुषांच्या सामाजिक स्वातंत्र्याचा पुरस्कार करणारे शाहु महाराजांचे एक क्रांतिकारी पाऊल होते ?</v>
       </c>
       <c r="C69" t="str">
-        <v>(1) कॅलरीज /ग्रॅम</v>
+        <v>(1) विधवांच्या पुनर्विवाहाचा कायदा</v>
       </c>
       <c r="D69" t="str">
-        <v>(2) कॅलरीज /ग्रॅम डिग्री सेल्सिअस |</v>
+        <v>(2) आंतरजातीय विवाहाचा कायदा</v>
       </c>
       <c r="E69" t="str">
-        <v>(3) कॅलरीज डिग्री सेल्सिअस /ग्रॅम</v>
+        <v>(3) घटस्फोटाचा व वारसाचा कायदा</v>
       </c>
       <c r="F69" t="str">
-        <v>(4) वरीलपैकी कोणतेच नाही</v>
+        <v>(4) क्रूरपणाच्या वर्तनास प्रतिबंध लावणारा कायदा</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B70" t="str">
-        <v>74. विद्युतधारेने विद्युतरोधकात खर्च केलेली शक्‍ती कशाच्या श्रमाणात असते ? र,</v>
+        <v>73. गोपाळ गणेश आगरकरांचा सुधारक' हे साप्ताहिक काढण्यामागचा उद्देश काय होता ?</v>
       </c>
       <c r="C70" t="str">
-        <v>(1) विद्युतरधकातील विद्युत धारेचा वर्ग । ,</v>
+        <v>(1) पाश्‍चिमात्य शिक्षणाचा स्वीकार</v>
       </c>
       <c r="D70" t="str">
-        <v>3 19g 1</v>
+        <v>(2) स्त्री-पुरुष समानतेचा स्वीकार</v>
       </c>
       <c r="E70" t="str">
-        <v>—</v>
+        <v>(3) नवीन बैचारिक दृष्टिकोनाचा स्वीकार</v>
       </c>
       <c r="F70" t="str">
-        <v>(2) उिद्युतरोधकातील विद्युत धारेचा घन_  _</v>
+        <v>(4) व्यक्‍ती-स्वातंत्र्याचा स्वीकार</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B71" t="str">
-        <v>75. डांग्या खोकला हा आजार कोणत्या जीवाणूच्या संसर्गामुळे होतो ?</v>
+        <v>74. टिळकांनी गीतारहस्य हा ग्रंथ या तुरुंगात लिहिला.</v>
       </c>
       <c r="C71" t="str">
-        <v>(1) स्टॅफिलोकोकस ऑरियिस'</v>
+        <v>(1) अंदमान</v>
       </c>
       <c r="D71" t="str">
-        <v>(2) wisn पर्टूयुसिस</v>
+        <v>(2) येरवडा</v>
       </c>
       <c r="E71" t="str">
-        <v>(3) स्ट्रेप्टेकोकस पायोजीनस्‌ ग</v>
+        <v>(3) मंडाले</v>
       </c>
       <c r="F71" t="str">
-        <v>(4) सॉल्मोनेला प्रजाती</v>
+        <v>(4) अहमदनगर</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B72" t="str">
-        <v>76. खालीलपैकी कोणते जीवनसत्व ऑक्सिडेशन प्रतिबंधित करणारे आहे ?</v>
+        <v>75. महर्षी कर्व्यांनी 21 एप्रिल, 1944 मध्ये स्थापन केलेला 'समता संघ* कुठल्या संस्थेत पुढे अंतर्भूत झाला ?</v>
       </c>
       <c r="C72" t="str">
-        <v>(1) जीवनसत्व ए ,</v>
+        <v>(1) जाती-निर्मूलन संस्था</v>
       </c>
       <c r="D72" t="str">
-        <v>(2) जीवनसत्व डी</v>
+        <v>(2) स्त्री-पुरुष समानता संघ</v>
       </c>
       <c r="E72" t="str">
-        <v>(3) जीवनसत्व 3</v>
+        <v>(3) स्त्री-पुरुष शिक्षण संघ</v>
       </c>
       <c r="F72" t="str">
-        <v>(4) जीवनसत्व के</v>
+        <v>(4) सर्व धर्मीय संघ</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B73" t="str">
-        <v>77. ही औषधे मध्यवती मज्जासंस्था, पचनसंस्था यांच्यावरील संवेदी चेता तंतूच्या टोकावर बद्ध i गहतात.</v>
+        <v>76. महर्षी कर्व्यांना 3 जून, 1916 रोजी स्थापन केलेल्या महिला विद्यापिठाची प्रेरणा कुणाकडून मिळाली ?</v>
       </c>
       <c r="C73" t="str">
-        <v>(1) कॅन्नाबिनॉईडस्‌</v>
+        <v>(1) अमेरिका वुमेन्स युनिव्हर्सिटी</v>
       </c>
       <c r="D73" t="str">
-        <v>(2) ओपिऑईडूस</v>
+        <v>(2) मास्को वुमेन्स युनिव्हर्सिटी</v>
       </c>
       <c r="E73" t="str">
-        <v>(3) मॉर्फिन</v>
+        <v>(3) जपान वुमेन्स युनिव्हर्सिटी</v>
       </c>
       <c r="F73" t="str">
-        <v>(4) कोका-अल्कलॉईडस्‌</v>
+        <v>(4) फ्रान्स वुमेन्स युनिव्हर्सिटी</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B74" t="str">
-        <v>78. जर्मन सिल्वर हा मिश्रधातू खालील धातूंच्या मिश्रणातून तयार होतो</v>
+        <v>77. डॉ. बाबासाहेब आंबेडकरांना 1923 साली लंडन विद्यापिठाने अर्थशास्त्रातील कोणत्या प्रबंधाबद्दल 'डॉक्टर ऑफ सायन्स ही पदवी दिली ?</v>
       </c>
       <c r="C74" t="str">
-        <v>(1) तांबे, जस्त, कथील</v>
+        <v>(1) द प्रॉब्लेम्स ऑफ रुपी</v>
       </c>
       <c r="D74" t="str">
-        <v>(2) तांबे, निकेल, जस्त : |</v>
+        <v>(2) द प्रॉब्लेम्स ऑफ मनी'</v>
       </c>
       <c r="E74" t="str">
-        <v>(3) तांबे, जस्त</v>
+        <v>(3) अँडमिनिस्ट्रेशन अण्ड फायनान्स अँट द ईस्ट इंडिया कंपनी</v>
       </c>
       <c r="F74" t="str">
-        <v>(4) तांबे, कथील</v>
+        <v>(4) 'द इव्होल्युशन अट प्रिन्सीपल फायनान्स इन ब्रिटीश इंडिया</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B75" t="str">
-        <v>80. कठीण आणि मृदु - आम्ल आणि अल्कली या संज्ञा कोणी दिल्या ?</v>
+        <v>78. कशामधील डॉ. आंबेडकरांचे अग्रलेख म्हणजे शैलीच्या सौंदर्याने सजलेले बैचाशकि गद्य होय ?</v>
       </c>
       <c r="C75" t="str">
-        <v>(1) ब्रॉन्स्टेड</v>
+        <v>(1) मूकनायक</v>
       </c>
       <c r="D75" t="str">
-        <v>(2) लेविस</v>
+        <v>(2) बहिष्कृत भारत</v>
       </c>
       <c r="E75" t="str">
-        <v>£ a ) Co \ ग</v>
+        <v>(3) समतापत्र</v>
       </c>
       <c r="F75" t="str">
-        <v>i v</v>
+        <v>(4) श्रबुद्ध भारत</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B76" t="str">
-        <v>82. THT दुकानदाराने- 15 शर्ट 2,340 रुपयांना- विकल्यास 60 रु. तोटा झाला. -तर प्रत्येक शर्टची खरेदी -किंमत किती ? 1 ” v</v>
+        <v>79. कोल्हापूरमध्ये मोफत शिक्षण देणाऱ्या शाळा कोणी सुरु कैल्या ?</v>
       </c>
       <c r="C76" t="str">
-        <v>(1) 152%. र ।</v>
+        <v>(1) कर्मवीर भाऊराव पाटील</v>
       </c>
       <c r="D76" t="str">
-        <v>(2) 160%.</v>
+        <v>(2) शाहु महाराज</v>
       </c>
       <c r="E76" t="str">
-        <v>(3) 180%.</v>
+        <v>(3) गो. कृ. गोखले</v>
       </c>
       <c r="F76" t="str">
-        <v>(4) 230%. त</v>
+        <v>(4) डॉ. बाबासाहेब आंबेडकर</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B77" t="str">
-        <v>83. सोडवा :7 ” i ग ५ ¥ .</v>
+        <v>80. ' डोंगरीच्या तुरुंगातील 101 दिवस'' हे पुस्तक कोणी लिहिले ?</v>
       </c>
       <c r="C77" t="str">
-        <v/>
+        <v>(1) लोकमान्य टिळक</v>
       </c>
       <c r="D77" t="str">
-        <v/>
+        <v>(2) चिपळूणकर</v>
       </c>
       <c r="E77" t="str">
-        <v/>
+        <v>(3) आगरकर</v>
       </c>
       <c r="F77" t="str">
-        <v/>
+        <v>(4) डॉ. आंबेडकर</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="B78" t="str">
-        <v>0.1 x 0.1 x 0.1 +0.02 x 0.02 x 0.02 २</v>
+        <v>81. क्षेत्रफळाच्या दृष्टीने भारत हा जगातील क्रमांकाचा देश आहे.</v>
       </c>
       <c r="C78" t="str">
-        <v/>
+        <v>(1) तीन</v>
       </c>
       <c r="D78" t="str">
-        <v/>
+        <v>(2) पाच</v>
       </c>
       <c r="E78" t="str">
-        <v/>
+        <v>(3) सात</v>
       </c>
       <c r="F78" t="str">
-        <v/>
+        <v>(4) नऊ</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="B79" t="str">
-        <v>0.2 x 0.2 x 0.2+0.04 x 0:04 x 0.04 1 र ग</v>
+        <v>82. झासकर, लडाख व काराकोरम पर्वतरांगांचे TIF हिमालयात आहे.</v>
       </c>
       <c r="C79" t="str">
-        <v>(1) 0.375 ” Ft ळे 01028 ह !</v>
+        <v>(1) कुमाउन</v>
       </c>
       <c r="D79" t="str">
-        <v>1 (3 0.280 1 क 0800 1</v>
+        <v>(2) काश्मिर</v>
       </c>
       <c r="E79" t="str">
-        <v>* ह ६ ब त</v>
+        <v>(3) पूर्व</v>
       </c>
       <c r="F79" t="str">
-        <v>Solve : - |</v>
+        <v>(4) मध्य</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B80" t="str">
-        <v>84. तीन व्यक्तींच्या आजच्या FAR बेरीज 72 वर्षे आहे व सात वर्षांपूर्वी त्यांच्या वयांचे गुणोत्तर 4: 6: 7 अर्से होते, तर त्यांचे आजचे वय किती ?</v>
+        <v>83. हा भारतातील सर्वात उंच धबधबा आहे.</v>
       </c>
       <c r="C80" t="str">
-        <v>(1) 20, 80, 22</v>
+        <v>(1) जोग</v>
       </c>
       <c r="D80" t="str">
-        <v>(2) 22, 24, 26</v>
+        <v>(2) नायगारा</v>
       </c>
       <c r="E80" t="str">
-        <v>(3) 19, ४5, 28</v>
+        <v>(3) कपिलधारा</v>
       </c>
       <c r="F80" t="str">
-        <v>(4) 17, 25, 30</v>
+        <v>(4) शिवसमुद्र</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B81" t="str">
-        <v>85. एका माणसाने बँकेकडून द्‌. सा. द. शे. 12% सरळ व्याजानेःकर्ज घेतले. 3 वर्षानंतर त्याने रुपये 5,400 सरळ. व्याज फेडले. तर त्याने घेतलेल्या कर्जाची रक्‍कम किती ?</v>
+        <v>84. भारतामध्ये दर वर्षांनी पशुगणना केली जाते.</v>
       </c>
       <c r="C81" t="str">
-        <v>(1) रुपये 12,000</v>
+        <v>(1) दहा</v>
       </c>
       <c r="D81" t="str">
-        <v>(2) रुपये 20,000</v>
+        <v>(2) बारा</v>
       </c>
       <c r="E81" t="str">
-        <v>(3) रुपये 15,000</v>
+        <v>(3) सात</v>
       </c>
       <c r="F81" t="str">
-        <v>(4) रुपये 10,500</v>
+        <v>(4) पाच</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B82" t="str">
-        <v>88. सोडवा : ह . (2-3) X(5+38) + (2-3) = र (-6-4)+(-7-b)</v>
+        <v>85. श्योक, झासकर आणि गिलगिट या नद्या या नदीच्या प्रमुख उपनद्या आहेत.</v>
       </c>
       <c r="C82" t="str">
-        <v>(1) 96</v>
+        <v>(1) गंगा</v>
       </c>
       <c r="D82" t="str">
-        <v>(2) 6.9</v>
+        <v>(2) कोसी</v>
       </c>
       <c r="E82" t="str">
-        <v>(3) -9.6</v>
+        <v>(3) महानंदा</v>
       </c>
       <c r="F82" t="str">
-        <v>(4) 9.6</v>
+        <v>(4) सिंधु</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B83" t="str">
-        <v>89. एक फलंदाज 19 व्या डावात 98 धावा करतो आणि त्यामुळे त्याची सरासरी 4 ने वाढते. तर 19 व्या डावानंतर त्याची सरासरी किती आहे ?</v>
+        <v>86. हे राज्य तंबाखू उत्पादनात अग्रेसर आहे.</v>
       </c>
       <c r="C83" t="str">
-        <v>(1) 22</v>
+        <v>(1) आंध्रप्रदेश</v>
       </c>
       <c r="D83" t="str">
-        <v>(2) 24</v>
+        <v>(2) महाराष्ट्र</v>
       </c>
       <c r="E83" t="str">
-        <v>(3) '25</v>
+        <v>(3) कर्नाटक</v>
       </c>
       <c r="F83" t="str">
-        <v>(4) 26</v>
+        <v>(4) गुजरात</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B84" t="str">
-        <v xml:space="preserve">90. एका वर्तुळाचे क्षेत्रफळ हे 3 सेमी, 4 सेमी व 12 सेमी त्रिज्या असणाऱ्या तीन वर्तुळांच्या क्षेत्रफळाच्या  बेरजेइतके असेल तर त्या वर्तुळाची त्रिज्या किती ? </v>
+        <v>87. सोलापूर-विजापूर-हुबळी हा राष्ट्रीय महामार्ग क्रमांक आहे.</v>
       </c>
       <c r="C84" t="str">
-        <v>(1) 17 सेमी</v>
+        <v>(1) नऊ</v>
       </c>
       <c r="D84" t="str">
-        <v>(2) 14 सेमी</v>
+        <v>(2) तेरा</v>
       </c>
       <c r="E84" t="str">
-        <v>(3) 13 सेमी</v>
+        <v>(3) सात</v>
       </c>
       <c r="F84" t="str">
-        <v>(4) 16 सेमी</v>
+        <v>(4) आढ</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B85" t="str">
-        <v xml:space="preserve">91. बुद्धिबळाच्या पटावर किती चौरस असतात ? प </v>
+        <v>88. कोणत्या नदीला बिहारचे दु:खाश्चु म्हणतात ?</v>
       </c>
       <c r="C85" t="str">
-        <v>(1) 1092</v>
+        <v>(1) कोसी</v>
       </c>
       <c r="D85" t="str">
-        <v>(2) 204</v>
+        <v>(2) दामोदर</v>
       </c>
       <c r="E85" t="str">
-        <v>(3) 1296</v>
+        <v>(3) गंडक</v>
       </c>
       <c r="F85" t="str">
-        <v>(4) 1500</v>
+        <v>(4) घागरा</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B86" t="str">
-        <v>94. अंकिताच्या आईचे वय तिच्या वयाच्या अडिचपट आणि तिच्या भावाच्या वयाच्या चारपट आहे. त्यांचे -एकूण वय 66 वर्षे आहे. अंकिताच्या भावाचे दोन वर्षानंतरचे वय किती असेल ? | (1) 108 1 (2) 14 वर्षे (3) 12 वर्षे (4) 16 वर्षे | कक त कक _—™ 0 पणा द . A   C D उ क opr : . 98 J17</v>
+        <v>89. लोह व अल्युमिनिअमचे प्रमाण कोणत्या मृदेमध्ये जास्त असते 7</v>
       </c>
       <c r="C86" t="str">
-        <v/>
+        <v>(1) काळी मृदा</v>
       </c>
       <c r="D86" t="str">
-        <v/>
+        <v>(2) गाळाची मृदा</v>
       </c>
       <c r="E86" t="str">
-        <v/>
+        <v>(3) जांभी मृदा</v>
       </c>
       <c r="F86" t="str">
-        <v/>
+        <v>(4) पिवळसर मृदा</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B87" t="str">
-        <v>95. खाली दिलेल्या माहितीचा काळजीपूर्वक अभ्यास करा व प्रश्‍नांची उत्तरे द्या. it iy ii. ९ हा 1) च्या तात्काळ उजवीकडे आहे. र * iv. 0 हा E आणि F च्या मध्यात आहे. | v. 7) हा दक्षिणेकडील टोकापासून तिसऱ्या wine आहें. र ‘G’ च्या उजबीकडे कोण बसले आहे ? क (1 A @ Cc ८ (8) D . 4 F »~ «</v>
+        <v>90. अभयाणण्यांची संख्या व क्षेत्रफळ सर्वात जास्त असलेले राज्य आहे.</v>
       </c>
       <c r="C87" t="str">
-        <v>(1) A 2 C</v>
+        <v>(1) हिमाचल प्रदेश</v>
       </c>
       <c r="D87" t="str">
-        <v>(8) D 4 F</v>
+        <v>(2) महाराष्ट</v>
       </c>
       <c r="E87" t="str">
-        <v/>
+        <v>(3) गुजरात</v>
       </c>
       <c r="F87" t="str">
-        <v/>
+        <v>(4) राजस्थान</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B88" t="str">
-        <v>96. जर 30 16 या वर्षी आतरराष्ट्रीयं योगा दिन मंगळवारी असेल, तर त्याच 'वर्षी राष्ट्रीये विंज्ञांनं दिन कोणल्या वारी असेल ?</v>
+        <v>91. जम्मुव काश्मिर या राज्यामधील सलाल जलविद्युत्‌ प्रकल्प 0" नंदीवर आहे न</v>
       </c>
       <c r="C88" t="str">
-        <v>(1) शुक्रवार</v>
+        <v>(1) रावी</v>
       </c>
       <c r="D88" t="str">
-        <v>(2) 'शनिंबार *  '</v>
+        <v>(2) बियास</v>
       </c>
       <c r="E88" t="str">
-        <v>(3) TER) सोमवार |</v>
+        <v>(3) चिनाब</v>
       </c>
       <c r="F88" t="str">
-        <v/>
+        <v>(4) व्यास</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B89" t="str">
-        <v>97. SR 4,5, 8, 18, 14, 17, 22,..., :ही मालिका अशीच सुरू' ठेवली तर खालीलपैकी कोणतीं संख्या ही मालिकेची राहणार नाही ? 7 J र</v>
+        <v>92. भारतातील सर्वात जास्त तांबे उत्पादन करणारे राज्य आहे.</v>
       </c>
       <c r="C89" t="str">
-        <v>(1) 31</v>
+        <v>(1) कर्नाटक</v>
       </c>
       <c r="D89" t="str">
-        <v>(2) 32</v>
+        <v>(2) झारखंड</v>
       </c>
       <c r="E89" t="str">
-        <v>(3) 338</v>
+        <v>(3) आंध्रप्रदेश</v>
       </c>
       <c r="F89" t="str">
-        <v>(4) 35</v>
+        <v>(4) उत्तर प्रदेश</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B90" t="str">
-        <v>99. सान्वी पूर्वेकडे काही अंतर चालत जाते आणि ती तिच्या डाव्या बाजूला 90° त वळते. नंतर ती 50 मी. चालते. आता ती तिच्या उजव्या बाजूला 135° त वळते आणि 15 मी. चालत जाते. आता तिच्या डाव्या बाजूला "कोणती दिशा निर्देश करते ? - (1) ईशान्य (2) वायव्य (3) Ihe (4) आमेय</v>
+        <v>93. संकल्पित जैतापूर अणु-ऊर्जा प्रकल्पाचे स्थान या जिल्ह्यात आहे.</v>
       </c>
       <c r="C90" t="str">
-        <v/>
+        <v>(1) रत्नागिरी</v>
       </c>
       <c r="D90" t="str">
-        <v/>
+        <v>(2) सिंधुदुर्ग</v>
       </c>
       <c r="E90" t="str">
-        <v/>
+        <v>(3) कोल्हापूर</v>
       </c>
       <c r="F90" t="str">
-        <v/>
+        <v>(4) सोलापूर</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
+        <v>95</v>
+      </c>
+      <c r="B91" t="str">
+        <v>95. खालीलपैकी कोणत्या जिल्ह्यात चामड्याच्या वस्तु बनविण्याचा उद्योग मोठ्या प्रमाणावर चालतो ?</v>
+      </c>
+      <c r="C91" t="str">
+        <v>(1) सिंधुदुर्ग</v>
+      </c>
+      <c r="D91" t="str">
+        <v>(2) रत्नागिरी</v>
+      </c>
+      <c r="E91" t="str">
+        <v>(3) सातारा</v>
+      </c>
+      <c r="F91" t="str">
+        <v>(4) कोल्हापूर</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>96</v>
+      </c>
+      <c r="B92" t="str">
+        <v>96. खालीलपैकी कोणत्या ठिकाणास महाराष्ट्रातील चेरापुंजी असे म्हटले जाते ?</v>
+      </c>
+      <c r="C92" t="str">
+        <v>(1) माथेरान</v>
+      </c>
+      <c r="D92" t="str">
+        <v>(2) आंबोळी</v>
+      </c>
+      <c r="E92" t="str">
+        <v>(3) रामटेक</v>
+      </c>
+      <c r="F92" t="str">
+        <v>(4) लोणावळा</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>97</v>
+      </c>
+      <c r="B93" t="str">
+        <v>97. खालीलपैकी कोणता जिल्हा महाराष्ट्रामध्ये लोकसंख्येच्या दृष्टीने सर्वात मोठा आहे ?</v>
+      </c>
+      <c r="C93" t="str">
+        <v>(1) पुणे</v>
+      </c>
+      <c r="D93" t="str">
+        <v>(2) नागपूर</v>
+      </c>
+      <c r="E93" t="str">
+        <v>(3) ठाणे</v>
+      </c>
+      <c r="F93" t="str">
+        <v>(4) कोल्हापूर</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>99</v>
+      </c>
+      <c r="B94" t="str">
+        <v>99. महाराष्ट्रात खालीलपैकी कोणत्या ठिकाणी ऊस संशोधन केंद्र सुरु करण्यात आले आहे ?</v>
+      </c>
+      <c r="C94" t="str">
+        <v>(1) लोणंद</v>
+      </c>
+      <c r="D94" t="str">
+        <v>(2) पाडेगाव</v>
+      </c>
+      <c r="E94" t="str">
+        <v>(3) शेखमिरेवाडी</v>
+      </c>
+      <c r="F94" t="str">
+        <v>(4) कागल</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
         <v>100</v>
       </c>
-      <c r="B91" t="str">
-        <v>100. खाली वेन आकृती आणि तीन शब्दांचे पर्याय दिलेले आहेत. कोणता पर्याय वेन आकृती अंचूकपर्णे दर्शवितो ? $ : (00: .</v>
-      </c>
-      <c r="C91" t="str">
-        <v>(1) इतिहास, भूगोल, नागारेकशास्त्र</v>
-      </c>
-      <c r="D91" t="str">
-        <v>(2) भारत, आशिया, युरोपम.</v>
-      </c>
-      <c r="E91" t="str">
-        <v>उ</v>
-      </c>
-      <c r="F91" t="str">
-        <v>(3) फूले, सुवासिक, पांढरा CW कप,बशी, चहा</v>
+      <c r="B95" t="str">
+        <v>100. खालीलपैकी कोणती वस्ती महानगरपालिका नाही ?</v>
+      </c>
+      <c r="C95" t="str">
+        <v>(1) नागपूर</v>
+      </c>
+      <c r="D95" t="str">
+        <v>(2) भिवंडी</v>
+      </c>
+      <c r="E95" t="str">
+        <v>(3) पुणे</v>
+      </c>
+      <c r="F95" t="str">
+        <v>(4) बुलढाणा</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>101</v>
+      </c>
+      <c r="B96" t="str">
+        <v>101. उत्तरांचल, छत्तीसगड, झारखंड या राज्यांची निर्मिती या पंचवार्षिक योजनेत झाली.</v>
+      </c>
+      <c r="C96" t="str">
+        <v>(1) नवव्या</v>
+      </c>
+      <c r="D96" t="str">
+        <v>(2) सातव्या</v>
+      </c>
+      <c r="E96" t="str">
+        <v>(3) AAT</v>
+      </c>
+      <c r="F96" t="str">
+        <v>(4) वरीलपैकी नाही</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>102</v>
+      </c>
+      <c r="B97" t="str">
+        <v>102. भारताच्या दहाव्या पंचवार्षिक योजनेनुसार (2002-2007) शेती क्षेत्रामधून अजूनही टक्के रोजगार निर्मिती होते आहे.</v>
+      </c>
+      <c r="C97" t="str">
+        <v>(1) 50.3</v>
+      </c>
+      <c r="D97" t="str">
+        <v>(2) 40.4</v>
+      </c>
+      <c r="E97" t="str">
+        <v>(3) 45.0</v>
+      </c>
+      <c r="F97" t="str">
+        <v>(4) 58.4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>103</v>
+      </c>
+      <c r="B98" t="str">
+        <v>103. हिराकूड योजना निर्मिती ही पंचवार्षिक योजनेची निष्पत्ती आहे.</v>
+      </c>
+      <c r="C98" t="str">
+        <v>(1) पहिल्या</v>
+      </c>
+      <c r="D98" t="str">
+        <v>(2) दुसऱ्या</v>
+      </c>
+      <c r="E98" t="str">
+        <v>(3) तिसऱ्या</v>
+      </c>
+      <c r="F98" t="str">
+        <v>(4) चौथ्या</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>104</v>
+      </c>
+      <c r="B99" t="str">
+        <v>104. - हे नियोजन आयोगाचे पहिले अध्यक्ष होते.</v>
+      </c>
+      <c r="C99" t="str">
+        <v>(1) श्री. जवाहरलाल नेहरु</v>
+      </c>
+      <c r="D99" t="str">
+        <v>(2) श्री. राजेंद्र प्रसाद</v>
+      </c>
+      <c r="E99" t="str">
+        <v>(3) श्री, सी. डी. देशमुख</v>
+      </c>
+      <c r="F99" t="str">
+        <v>(4) श्री. के. सी. पंत</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>105</v>
+      </c>
+      <c r="B100" t="str">
+        <v>105. भारतातील पहिला खत कारखाना पहिल्या पंचवार्षिक योजनेत येथे सुरु झाला.</v>
+      </c>
+      <c r="C100" t="str">
+        <v>(1) भटिंडा ARE</v>
+      </c>
+      <c r="D100" t="str">
+        <v>(3) कोची</v>
+      </c>
+      <c r="E100" t="str">
+        <v>(4) हाजिरा</v>
+      </c>
+      <c r="F100" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>106</v>
+      </c>
+      <c r="B101" t="str">
+        <v>106. 11 व्या पंचवार्षिक योजनेचा कालावधी आहे.</v>
+      </c>
+      <c r="C101" t="str">
+        <v>(1) 2008-2013</v>
+      </c>
+      <c r="D101" t="str">
+        <v>(2) 2009-2014</v>
+      </c>
+      <c r="E101" t="str">
+        <v>(3) 2007-2012</v>
+      </c>
+      <c r="F101" t="str">
+        <v>(4) 2010-2015</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>107</v>
+      </c>
+      <c r="B102" t="str">
+        <v>107. खालीलपैकी कोणत्या तरतूदीद्वारे न्यायालयीन हस्तक्षेपाच्या माध्यमातून मूलभूत अधिकारांच्या संरक्षणाची हमी मिळते ?</v>
+      </c>
+      <c r="C102" t="str">
+        <v>(1) अनुच्छेद 32</v>
+      </c>
+      <c r="D102" t="str">
+        <v>(2) अनुच्छेद 25</v>
+      </c>
+      <c r="E102" t="str">
+        <v>(3) अनुच्छेद 14</v>
+      </c>
+      <c r="F102" t="str">
+        <v>(4) अनुच्छेद 30</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>108</v>
+      </c>
+      <c r="B103" t="str">
+        <v>108. खालीलपैकी कोणते उद्दिष्ट्य राज्यांच्या मार्गदर्शक तत्त्वांमध्ये समाविष्ट नाही ?</v>
+      </c>
+      <c r="C103" t="str">
+        <v>(1) गो हत्या थांबविणे</v>
+      </c>
+      <c r="D103" t="str">
+        <v>(2) कुटिरोद्योगांची स्थापना करणे</v>
+      </c>
+      <c r="E103" t="str">
+        <v>(3) आंतरराष्ट्रीय शांतता वृद्धींगत करणे</v>
+      </c>
+      <c r="F103" t="str">
+        <v>(4) देहाताची शिक्षा रद्द करणे</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>109</v>
+      </c>
+      <c r="B104" t="str">
+        <v>109. भारतीय राज्यघटना रोजी स्वीकारण्यात आली.</v>
+      </c>
+      <c r="C104" t="str">
+        <v>(1) नोव्हेंबर 26, 1949</v>
+      </c>
+      <c r="D104" t="str">
+        <v>(2) जानेवारी 26, 1949</v>
+      </c>
+      <c r="E104" t="str">
+        <v>(3) जानेवारी 26, 1950</v>
+      </c>
+      <c r="F104" t="str">
+        <v>(4) नोव्हेंबर 10, 1949</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>110</v>
+      </c>
+      <c r="B105" t="str">
+        <v>110. भारतीय न्यायपालिकेचे वैशिष्ट्य कोणते ?</v>
+      </c>
+      <c r="C105" t="str">
+        <v>(1) एकेरी ब एकात्म न्यायपालिका</v>
+      </c>
+      <c r="D105" t="str">
+        <v>(2) न्यायपालिकेस विधीमंडळ नियंत्रित करते</v>
+      </c>
+      <c r="E105" t="str">
+        <v>(3) न्यायपालिकेस सरकार नियंत्रित करते</v>
+      </c>
+      <c r="F105" t="str">
+        <v>(4) हे सर्व</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>111</v>
+      </c>
+      <c r="B106" t="str">
+        <v>111. राष्ट्रपतींकडून लोकसभेमध्ये अँग्लो इंडियन सदस्य नेमले जातात.</v>
+      </c>
+      <c r="C106" t="str">
+        <v>(1) तीन</v>
+      </c>
+      <c r="D106" t="str">
+        <v>(2) दोन</v>
+      </c>
+      <c r="E106" t="str">
+        <v>(3) चार</v>
+      </c>
+      <c r="F106" t="str">
+        <v>(4) पाच</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>112</v>
+      </c>
+      <c r="B107" t="str">
+        <v>112. देशातील कायद्यांची निर्मिती करणारी सर्वोच्च संस्था म्हणजे होय.</v>
+      </c>
+      <c r="C107" t="str">
+        <v>(1) राज्य विधिमंडळ</v>
+      </c>
+      <c r="D107" t="str">
+        <v>(2) कार्यकारी मंडळ</v>
+      </c>
+      <c r="E107" t="str">
+        <v>(3) संसद</v>
+      </c>
+      <c r="F107" t="str">
+        <v>(4) न्यायमंडळ</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>114</v>
+      </c>
+      <c r="B108" t="str">
+        <v>114. उच्च न्यायालयाचे न्यायाधिश कडून नियुक्त केले जातात.</v>
+      </c>
+      <c r="C108" t="str">
+        <v>(1) सर्वोच्च न्यायालय</v>
+      </c>
+      <c r="D108" t="str">
+        <v>(2) राज्यपाल</v>
+      </c>
+      <c r="E108" t="str">
+        <v>(3) मुख्यमंत्री</v>
+      </c>
+      <c r="F108" t="str">
+        <v>(4) राष्ट्रपती</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>115</v>
+      </c>
+      <c r="B109" t="str">
+        <v>115. विधानपरिषद असलेल्या राज्यातील विधान परिषदेत कमीत कमी 40 व जास्तीत जास्त त्या राज्यातील विधानसभा सदस्य संख्येच्या इतके सभासद असू शकतात.</v>
+      </c>
+      <c r="C109" t="str">
+        <v>(1) दोन तृतियांश</v>
+      </c>
+      <c r="D109" t="str">
+        <v>(2) एक तृतियांश</v>
+      </c>
+      <c r="E109" t="str">
+        <v>(3) एक चतुर्थांश</v>
+      </c>
+      <c r="F109" t="str">
+        <v>(4) यापैकी नाही</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>116</v>
+      </c>
+      <c r="B110" t="str">
+        <v>116. ची मर्जी असेपर्यंत राज्यपाल आपल्या पदावर राहू शकतात.</v>
+      </c>
+      <c r="C110" t="str">
+        <v>(1) राष्ट्रपती</v>
+      </c>
+      <c r="D110" t="str">
+        <v>(2) पतप्रधान</v>
+      </c>
+      <c r="E110" t="str">
+        <v>(3) संसद</v>
+      </c>
+      <c r="F110" t="str">
+        <v>(4) सर्वाच्च न्यायालय</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>117</v>
+      </c>
+      <c r="B111" t="str">
+        <v>117. हा संघराज्य व घटकराज्य यामधील दुवा म्हणून कार्य करतो.</v>
+      </c>
+      <c r="C111" t="str">
+        <v>(1) मुख्यमंत्री</v>
+      </c>
+      <c r="D111" t="str">
+        <v>(2) पंतप्रधान</v>
+      </c>
+      <c r="E111" t="str">
+        <v>(3) राष्ट्रपती</v>
+      </c>
+      <c r="F111" t="str">
+        <v>(4) राज्यपाल</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>118</v>
+      </c>
+      <c r="B112" t="str">
+        <v>118. राज्य मंत्रीमंडळाच्या बैठकीच्या अध्यक्षस्थानी हे असतात.</v>
+      </c>
+      <c r="C112" t="str">
+        <v>(1) उपराष्ट्रपती</v>
+      </c>
+      <c r="D112" t="str">
+        <v>(2) राज्याचे सचिव</v>
+      </c>
+      <c r="E112" t="str">
+        <v>(3) मुख्यमंत्री</v>
+      </c>
+      <c r="F112" t="str">
+        <v>(4) राज्यपाल</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>119</v>
+      </c>
+      <c r="B113" t="str">
+        <v>119. महाराष्ट्रातून लोकसभा व राज्यसभेवर निर्वाचित होणाऱ्या सदस्यांची एकूण सदस्य संख्या आहे.</v>
+      </c>
+      <c r="C113" t="str">
+        <v>(1) 288</v>
+      </c>
+      <c r="D113" t="str">
+        <v>(2) 19</v>
+      </c>
+      <c r="E113" t="str">
+        <v>(3) 48</v>
+      </c>
+      <c r="F113" t="str">
+        <v>(4) 67</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>120</v>
+      </c>
+      <c r="B114" t="str">
+        <v>120. नागरी भागातील स्थानिक स्वराज्य संस्थांविषयीच्या नवीन तरतूदी घटनादुरुस्तीद्वारे समाविष्ट करण्यात आल्या.</v>
+      </c>
+      <c r="C114" t="str">
+        <v>(1) 178 व्या</v>
+      </c>
+      <c r="D114" t="str">
+        <v>(2) 174 व्या</v>
+      </c>
+      <c r="E114" t="str">
+        <v>(3) 86 व्या</v>
+      </c>
+      <c r="F114" t="str">
+        <v>(4) 42 व्या</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>121</v>
+      </c>
+      <c r="B115" t="str">
+        <v>121. गावचा पोलीस पाटील ___________ कडून नियुक्त ees.</v>
+      </c>
+      <c r="C115" t="str">
+        <v>(1) जिल्हाधिकारी</v>
+      </c>
+      <c r="D115" t="str">
+        <v>(2) उपविभागीय अधिकारी</v>
+      </c>
+      <c r="E115" t="str">
+        <v>(3) तहसीलदार</v>
+      </c>
+      <c r="F115" t="str">
+        <v>(4) गट विकास अधिकारी</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>122</v>
+      </c>
+      <c r="B116" t="str">
+        <v>122. महाराष्ट्रातील पंचायत राज्याचा आकृतीबंध निश्‍चित करण्यासाठी सर्वात प्रथम कोणती कमिटी नेमली होती ?</v>
+      </c>
+      <c r="C116" t="str">
+        <v>(1) ल. ना. बोंगिरवार</v>
+      </c>
+      <c r="D116" t="str">
+        <v>(2) बाबुराब काळे</v>
+      </c>
+      <c r="E116" t="str">
+        <v>(3) वसंतराव नाईक</v>
+      </c>
+      <c r="F116" t="str">
+        <v>(4) प्राचार्य पी. बी. पाटील</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>124</v>
+      </c>
+      <c r="B117" t="str">
+        <v>124. TEER धरण जिल्ह्यात आहे.</v>
+      </c>
+      <c r="C117" t="str">
+        <v>(1) बीड</v>
+      </c>
+      <c r="D117" t="str">
+        <v>(2) जालना</v>
+      </c>
+      <c r="E117" t="str">
+        <v>(3) चंद्रपूर</v>
+      </c>
+      <c r="F117" t="str">
+        <v>(4) गडचिरोली</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>125</v>
+      </c>
+      <c r="B118" t="str">
+        <v>125. ग्रामपंचायतीमध्ये किती सभासद असू शकतात १</v>
+      </c>
+      <c r="C118" t="str">
+        <v>(1) 7ते 10</v>
+      </c>
+      <c r="D118" t="str">
+        <v>(2) 7d 17</v>
+      </c>
+      <c r="E118" t="str">
+        <v>(3) 10ते 15</v>
+      </c>
+      <c r="F118" t="str">
+        <v>(4) 1858 ते 20</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>126</v>
+      </c>
+      <c r="B119" t="str">
+        <v>126. 'जलमणी' योजना कशाशी संबंधित आहे ?</v>
+      </c>
+      <c r="C119" t="str">
+        <v>(1) शहरांना शुद्ध पाणी पुरवठा</v>
+      </c>
+      <c r="D119" t="str">
+        <v>(2) विद्यार्थ्यांना पिण्याचे शुद्ध पाणी पुरवणे</v>
+      </c>
+      <c r="E119" t="str">
+        <v>(3) पावसाचे पाणी साठवणे</v>
+      </c>
+      <c r="F119" t="str">
+        <v>(4) पाण्याचा जपून वापर करणे</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>127</v>
+      </c>
+      <c r="B120" t="str">
+        <v>127. महात्मा गांधी राष्ट्रीय रोजगार हमी कायदा 2005 अन्तर्गत उत्कृष्ट काम केल्याबद्दल कोणत्या जिल्ह्याना पुरस्कार मिळाले ?</v>
+      </c>
+      <c r="C120" t="str">
+        <v>(1) औरंगाबाद, वर्धा</v>
+      </c>
+      <c r="D120" t="str">
+        <v>(2) औरंगाबाद व गडचिरोली</v>
+      </c>
+      <c r="E120" t="str">
+        <v>(3) गडचिरोली, धुळे</v>
+      </c>
+      <c r="F120" t="str">
+        <v>(4) गडचिरोली, उस्मानाबाद</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>128</v>
+      </c>
+      <c r="B121" t="str">
+        <v>128. 'अकुला' पानबुड़ी भारताने कोणत्या देशाकडून घेतली आहे ?</v>
+      </c>
+      <c r="C121" t="str">
+        <v>(1) इग्लंड</v>
+      </c>
+      <c r="D121" t="str">
+        <v>(2) फ्रान्स</v>
+      </c>
+      <c r="E121" t="str">
+        <v>(3) अमेरिका</v>
+      </c>
+      <c r="F121" t="str">
+        <v>(4) रशिया</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>129</v>
+      </c>
+      <c r="B122" t="str">
+        <v>129. द्वितीय fava मराठी साहित्य सम्मेलन कोठे पार पडले ?</v>
+      </c>
+      <c r="C122" t="str">
+        <v>(1) हाँग-काँग</v>
+      </c>
+      <c r="D122" t="str">
+        <v>(2) सॅनफ्रानसिस्को</v>
+      </c>
+      <c r="E122" t="str">
+        <v>(3) दुबई</v>
+      </c>
+      <c r="F122" t="str">
+        <v>(4) न्युयॉर्क</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>130</v>
+      </c>
+      <c r="B123" t="str">
+        <v>130. अमेरिकेचा प्रसिद्ध ग्रॅमी पुरस्कार यांना मिळाला.</v>
+      </c>
+      <c r="C123" t="str">
+        <v>(1) ए. आरं. रेहमान</v>
+      </c>
+      <c r="D123" t="str">
+        <v>(2) झाकीर हुसेन</v>
+      </c>
+      <c r="E123" t="str">
+        <v>(3) नौशाद</v>
+      </c>
+      <c r="F123" t="str">
+        <v>(4) जतीन ललित</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>131</v>
+      </c>
+      <c r="B124" t="str">
+        <v>131. केंब्रीज विद्यापिठाने भारताच्या कोणत्या पंतप्रधानाच्या नावाने शिष्यवृत्ती जाहीर केली ?</v>
+      </c>
+      <c r="C124" t="str">
+        <v>(1) इंदिरा गांधी</v>
+      </c>
+      <c r="D124" t="str">
+        <v>(2) जवाहरलाल नेहरु</v>
+      </c>
+      <c r="E124" t="str">
+        <v>(3) मनमोहन सिंग</v>
+      </c>
+      <c r="F124" t="str">
+        <v>(4) पी. व्ही. नरसिंहराव</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>132</v>
+      </c>
+      <c r="B125" t="str">
+        <v>132. प्रसिद्ध चित्रकार एम. एफ. हुसेन यांनी कोणत्या देशाचे नागरिकत्व स्वीकारले ?</v>
+      </c>
+      <c r="C125" t="str">
+        <v>(1) लिबिया</v>
+      </c>
+      <c r="D125" t="str">
+        <v>(2) ओमान</v>
+      </c>
+      <c r="E125" t="str">
+        <v>(3) कुवेत</v>
+      </c>
+      <c r="F125" t="str">
+        <v>(4) कतार</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>133</v>
+      </c>
+      <c r="B126" t="str">
+        <v>133. टिंग्याची भूमिका केलेल्या कलाकाराचे आडनाव काय आहे ?</v>
+      </c>
+      <c r="C126" t="str">
+        <v>(1) ओंबाळे</v>
+      </c>
+      <c r="D126" t="str">
+        <v>(2) वासपते</v>
+      </c>
+      <c r="E126" t="str">
+        <v>(3) गोयेकर</v>
+      </c>
+      <c r="F126" t="str">
+        <v>(4) बोयेकर</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>134</v>
+      </c>
+      <c r="B127" t="str">
+        <v>134. (सेझ (SEZ) चे विस्तारित रूप काय आहे ?</v>
+      </c>
+      <c r="C127" t="str">
+        <v>(1) स्मॉल इकोनॉमिक झोन</v>
+      </c>
+      <c r="D127" t="str">
+        <v>(2) सोशल इकोनॉमिक झोन</v>
+      </c>
+      <c r="E127" t="str">
+        <v>(3) स्पेशल इकोनॉमिक झोन</v>
+      </c>
+      <c r="F127" t="str">
+        <v>(4) सर्व्हिस इकोनॉमिक झोन</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>135</v>
+      </c>
+      <c r="B128" t="str">
+        <v>135. यमुना गंगा नदीचा संगम कोठे होतो ?</v>
+      </c>
+      <c r="C128" t="str">
+        <v>(1) हरिद्वार</v>
+      </c>
+      <c r="D128" t="str">
+        <v>(2) अलाहाबाद</v>
+      </c>
+      <c r="E128" t="str">
+        <v>(3) आग्रा</v>
+      </c>
+      <c r="F128" t="str">
+        <v>(4) मीरत</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>136</v>
+      </c>
+      <c r="B129" t="str">
+        <v>136. टाटांनी उत्पादित केलेली छोटी कार या नावाने ओळखली जाते.</v>
+      </c>
+      <c r="C129" t="str">
+        <v>(1) नॅनो</v>
+      </c>
+      <c r="D129" t="str">
+        <v>(2) Tee</v>
+      </c>
+      <c r="E129" t="str">
+        <v>(3) सुमो</v>
+      </c>
+      <c r="F129" t="str">
+        <v>(4) प्राइमो</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>137</v>
+      </c>
+      <c r="B130" t="str">
+        <v>137. खालीलपैकी कोणी भारतात आश्रय मागितला आहे ?</v>
+      </c>
+      <c r="C130" t="str">
+        <v>(1) व्ही. एस्‌. नायपॉल</v>
+      </c>
+      <c r="D130" t="str">
+        <v>(2) सलमान रश्दी</v>
+      </c>
+      <c r="E130" t="str">
+        <v>(3) तस्लिमा नसरीन</v>
+      </c>
+      <c r="F130" t="str">
+        <v>(4) डोरिस लेसिंग</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>138</v>
+      </c>
+      <c r="B131" t="str">
+        <v>138. राष्ट्रवादी काँग्रेस पक्षाचे अध्यक्ष कोण आहेत ?</v>
+      </c>
+      <c r="C131" t="str">
+        <v>(1) जॉर्ज फर्नांडीस</v>
+      </c>
+      <c r="D131" t="str">
+        <v>(2) आर. आर. पाटील</v>
+      </c>
+      <c r="E131" t="str">
+        <v>(3) लालु प्रसाद यादव</v>
+      </c>
+      <c r="F131" t="str">
+        <v>(4) शरद पवार</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>139</v>
+      </c>
+      <c r="B132" t="str">
+        <v>139. महाराष्ट्रात 2008 हे वर्ष काय म्हणून साजरे करण्यात आले ?</v>
+      </c>
+      <c r="C132" t="str">
+        <v>(1) माहिती तंत्रज्ञान वर्ष</v>
+      </c>
+      <c r="D132" t="str">
+        <v>(2) क्रीडा वर्ष</v>
+      </c>
+      <c r="E132" t="str">
+        <v>(3) साक्षरता वर्ष</v>
+      </c>
+      <c r="F132" t="str">
+        <v>(4) महिला विकास वर्ष</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>140</v>
+      </c>
+      <c r="B133" t="str">
+        <v>140. स्लमडॉग मिल्लेनियर ह्या चित्रपटाला किती ऑस्कर पुरस्कार मिळाले ?</v>
+      </c>
+      <c r="C133" t="str">
+        <v>(1) सात</v>
+      </c>
+      <c r="D133" t="str">
+        <v>(2) दहा</v>
+      </c>
+      <c r="E133" t="str">
+        <v>(3) आठ</v>
+      </c>
+      <c r="F133" t="str">
+        <v>(4) नऊ</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>141</v>
+      </c>
+      <c r="B134" t="str">
+        <v>141. यांचा जन्मदिवस शिक्षक दिन म्हणून साजरा केला जातो.</v>
+      </c>
+      <c r="C134" t="str">
+        <v>(1) जवाहरलाल नेहरु</v>
+      </c>
+      <c r="D134" t="str">
+        <v>(2) एस. राधाकृष्णन्‌</v>
+      </c>
+      <c r="E134" t="str">
+        <v>(3) राजेन्द्र प्रसाद</v>
+      </c>
+      <c r="F134" t="str">
+        <v>(4) इदिरा गांधी</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>142</v>
+      </c>
+      <c r="B135" t="str">
+        <v>142. नानावटी आयोग कशासाठी नेमण्यात आला होता ?</v>
+      </c>
+      <c r="C135" t="str">
+        <v>(1) मुंबईतील दंगली</v>
+      </c>
+      <c r="D135" t="str">
+        <v>(2) 26/11 दहशतवादी हल्ला</v>
+      </c>
+      <c r="E135" t="str">
+        <v>(3) गुजरातमधील MYT हत्याकांड</v>
+      </c>
+      <c r="F135" t="str">
+        <v>(4) संसदेवरील हल्ला</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>143</v>
+      </c>
+      <c r="B136" t="str">
+        <v>143. 2008 सालचा महात्मा गांधी आंतरराष्ट्रीय शांतता व सहजीवन पुरस्कार कोणाला प्रदान करण्यात आला 7</v>
+      </c>
+      <c r="C136" t="str">
+        <v>(1) अमर्त्य सेन</v>
+      </c>
+      <c r="D136" t="str">
+        <v>(2) एल. के. अडवाणी</v>
+      </c>
+      <c r="E136" t="str">
+        <v>(3) सोनिया गांधी</v>
+      </c>
+      <c r="F136" t="str">
+        <v>(4) नेल्सन मंडेला</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>145</v>
+      </c>
+      <c r="B137" t="str">
+        <v>145. 2008 चा ई-गव्हर्नन्स राज्य पुरस्कार कोणत्या राज्याने मिळविला ?</v>
+      </c>
+      <c r="C137" t="str">
+        <v>(1) महाराष्टर्‌</v>
+      </c>
+      <c r="D137" t="str">
+        <v>(2) आंध्रप्रदेश</v>
+      </c>
+      <c r="E137" t="str">
+        <v>(3) दिल्ली</v>
+      </c>
+      <c r="F137" t="str">
+        <v>(4) कर्नाटक</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>146</v>
+      </c>
+      <c r="B138" t="str">
+        <v>146. राज्य सरकारमध्ये गुर्जरांना नोकरीत 5% (टक्के) आरक्षण दिले आहे.</v>
+      </c>
+      <c r="C138" t="str">
+        <v>(1) गुजरात</v>
+      </c>
+      <c r="D138" t="str">
+        <v>(2) राजस्थान</v>
+      </c>
+      <c r="E138" t="str">
+        <v>(3) महाराष्ट</v>
+      </c>
+      <c r="F138" t="str">
+        <v>(4) बिहार</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>147</v>
+      </c>
+      <c r="B139" t="str">
+        <v>147. 8 मार्च म्हणून पाळला जातो.</v>
+      </c>
+      <c r="C139" t="str">
+        <v>(1) आंतरराष्ट्रीय महिला दिन</v>
+      </c>
+      <c r="D139" t="str">
+        <v>(2) जागतिक एडस्‌ दिन</v>
+      </c>
+      <c r="E139" t="str">
+        <v>(3) मानवी हक्क दिन</v>
+      </c>
+      <c r="F139" t="str">
+        <v>(4) जागतिक कामगार दिन</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>148</v>
+      </c>
+      <c r="B140" t="str">
+        <v>148. पुढीलपैकी कोणत्या शहरात मुंबई उच्चन्यायालयाचे खंडपीठ नाही ?</v>
+      </c>
+      <c r="C140" t="str">
+        <v>(1) औरंगाबाद</v>
+      </c>
+      <c r="D140" t="str">
+        <v>(2) नागपूर</v>
+      </c>
+      <c r="E140" t="str">
+        <v>(3) पणजी</v>
+      </c>
+      <c r="F140" t="str">
+        <v>(4) नवी मुंबई</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>149</v>
+      </c>
+      <c r="B141" t="str">
+        <v>149. 2008 सालची जी-8 शिखर परिषद कोठे घेण्यात आली 7</v>
+      </c>
+      <c r="C141" t="str">
+        <v>(1) लंडन</v>
+      </c>
+      <c r="D141" t="str">
+        <v>(2) रोम</v>
+      </c>
+      <c r="E141" t="str">
+        <v>(3) पॅरिस</v>
+      </c>
+      <c r="F141" t="str">
+        <v>(4) होक्काईडो</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>150</v>
+      </c>
+      <c r="B142" t="str">
+        <v>150. शांतता ! कोर्ट चालू आहे' हे नाटक कोणी लिहिले ? र</v>
+      </c>
+      <c r="C142" t="str">
+        <v>(1) विजय तेंडूलकर</v>
+      </c>
+      <c r="D142" t="str">
+        <v>(2) वसंत बापट</v>
+      </c>
+      <c r="E142" t="str">
+        <v>(3) संतोष पवार</v>
+      </c>
+      <c r="F142" t="str">
+        <v>(4) वसंत कानेटकर</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F91"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F142"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/util/questions.xlsx
+++ b/util/questions.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F142"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,19 +424,19 @@
     </row>
     <row r="2">
       <c r="B2" t="str">
-        <v>undefined प्रश्‍नपुस्तिका क्रमांक प्रश्‍नपुस्तिका एकूण प्रश्‍न : 150 वेळ : दीड तास सामान्य क्षमता चाचणी एकूण गुण : 800 LAAT</v>
+        <v>undefined ळा हत ष्ट्र त्र ळा IN निचे a . (go) — संच क्रमांक 2019 Y12 प्रश्‍नपुस्तिका क्रमांक प्रश्‍नपुस्तिका एकूण प्रश्‍न : 100 वेळ : 1 (एक ) तास सामान्य क्षमता चाचणी एकूण गुण : 100 EE — — यया</v>
       </c>
       <c r="C2" t="str">
-        <v>(1) सदर प्रश्‍नपुस्तिकेत 150 अनिवार्य प्रश्‍न आहेत. उमेदवारांनी प्रश्‍नांची उत्तरे लिहिण्यास सुरुवात करण्यापूर्वी या प्रश्‍्नपुस्तिकेत</v>
+        <v>(1) सदर प्रश्‍नपुस्तिकेत 100 अनिवार्य प्रश्‍न आहेत. उमेदवारांनी प्रश्‍नांची उत्तरे लिहिण्यास सुरुवात करण्यापूर्वी या प्रश्‍नपुस्तिकेत सर्वे</v>
       </c>
       <c r="D2" t="str">
-        <v>सर्व प्रश्‍न आहेत किंबा नाहीत याची खात्री करून घ्यावी. असा तसेच अन्य काही दोष आढळल्यास ही प्रश्‍्नपुस्तिका</v>
+        <v>प्रश्‍न आहेत किंवा नाहीत याची खात्री करून घ्यावी. तसेच अन्य काही दोष आढळल्यास ही प्रश्‍नपुस्तिका समवेक्षकांक डून लगेच</v>
       </c>
       <c r="E2" t="str">
-        <v>(2) आपला परीक्षा क्रमांक ह्या चौकोनांत प. T</v>
+        <v>बदलून घ्याव. परीक्षा-क्रमांक के | | | | | | |</v>
       </c>
       <c r="F2" t="str">
-        <v>न बिसरता बॉलपेनने लिहावा. T= शेवटचा अंक</v>
+        <v>(2) आपला परीक्षा-क्रमांक ह्या चौकोनांत त्र शेवरी जक (५</v>
       </c>
     </row>
     <row r="3">
@@ -444,19 +444,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="str">
-        <v>1. एका संख्येची 25% किंमत जर 0.25 असेल तर ती संख्या कोणती ?</v>
+        <v>1. ग्रीन पीस अण्ड एअर विज्युअल अनॅलिसिस ऑफ पोल्युशन' अहवालामध्ये जगातील सर्वाधिक प्रदूषित शहरे जाहीर करण्यात आली. त्यापैकी 30 सर्वाधिक प्रदूषिक शहरामध्ये 22 शहरे भारतातील आहेत. खालील शहरे वायु प्रदूषणाच्या क्रमवारीनुसार चढत्या क्रमाने लावा. | (a) दिल्ली (0) नोएडा (c) गुरूग्राम (५) गाझियाबाद पर्यायी उत्तरे :</v>
       </c>
       <c r="C3" t="str">
-        <v>(1) 12.5</v>
+        <v>(1) fa)</v>
       </c>
       <c r="D3" t="str">
-        <v>(2) 1.25</v>
+        <v>(9), (प, (©)</v>
       </c>
       <c r="E3" t="str">
-        <v>(3) 1</v>
+        <v>(2) (८, (व),</v>
       </c>
       <c r="F3" t="str">
-        <v>(4) 1.5</v>
+        <v>(9), @ ©)</v>
       </c>
     </row>
     <row r="4">
@@ -464,79 +464,79 @@
         <v>2</v>
       </c>
       <c r="B4" t="str">
-        <v>2. एका वर्गातील सर्व मुलांच्या गुणांची बेरीज 2795 इतकी आहे व सरासरी 65 आहे. तर त्या वर्गात किती मुले असतील ?</v>
+        <v>2. कझाखस्तानच्या पहिल्या राष्ट्रपतीच्या सन्मानार्थ, कझाखस्तानची पूर्व राजधानी ' अस्ताना' चे नाव राष्ट्रपतीच्या नावाने बदलण्यात आली आहे. नव्या राजधानीचे नाव ____ आहे.</v>
       </c>
       <c r="C4" t="str">
-        <v>(1) 45</v>
+        <v>(1) THE</v>
       </c>
       <c r="D4" t="str">
-        <v>(2) 55</v>
+        <v>(2) टोकायाव</v>
       </c>
       <c r="E4" t="str">
-        <v>(3) 43</v>
+        <v>(3) नजरबायेव</v>
       </c>
       <c r="F4" t="str">
-        <v>(4) 40</v>
+        <v>(4) जोमार्त</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>3. खालील ferme जागेतील संख्या शोधा : | 1, 5,11, 19, |, 41</v>
+        <v>4. अयोग्य कथन ओळखा - (सोल शांतता पुरस्कार)</v>
       </c>
       <c r="C5" t="str">
-        <v>(1) 29</v>
+        <v>(1) पंतप्रधान नरेंद्र मोदी यांना *सोल शांतता पुरस्काराने ' सन्मानित करण्यात आले.</v>
       </c>
       <c r="D5" t="str">
-        <v>(2) 27</v>
+        <v>(2) नरेंद्र मोदी यांनी दोन लाख डॉलर (पुरस्कार रक्‍कम) नमामी गंगे मोहिमेस दान केले.</v>
       </c>
       <c r="E5" t="str">
-        <v>(3) 30</v>
+        <v>(3) सोल शांतता पुरस्कार 1995 पासून सुरू झाला.</v>
       </c>
       <c r="F5" t="str">
-        <v>(4) 31</v>
+        <v>(4) कोफी अन्नान, अँजेला मर्केल हे सुद्धा सोल शांतता पुरस्काराचे मानकरी होते.</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="str">
-        <v>4. जर 123456789 x9=111111111 आणि 123456789 x A =222 222 222 तर A =?</v>
+        <v>5. 7100 सिंगल टाईटल जिंकणारे दुसरे पुरुष टेनिस खेळाडू बनले आहे.</v>
       </c>
       <c r="C6" t="str">
-        <v>(1) 45</v>
+        <v>(1) स्टेफॅनोस त्सित्सिपा</v>
       </c>
       <c r="D6" t="str">
-        <v>(2) 36</v>
+        <v>(2) राफेल नदाल</v>
       </c>
       <c r="E6" t="str">
-        <v>(3) 27</v>
+        <v>(3) रॉजर फेडरर</v>
       </c>
       <c r="F6" t="str">
-        <v>(4) 18</v>
+        <v>(4) आंद्रे आगासी</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="str">
-        <v>5. J [(1024 + 28x 32] = 22 [(1024 + 23) २९32] + 2% &gt;?</v>
+        <v>6. जोड्या लावा : (अ) ग्रंथ (ब) लेखक</v>
       </c>
       <c r="C7" t="str">
-        <v>(1) 1024</v>
+        <v>(7) अ शॉर् हिस्ट्री ऑफ ब्रेक्झिट (if) जेस्पर रॉईन</v>
       </c>
       <c r="D7" t="str">
-        <v>(2) 512</v>
+        <v>(त) इनविजिबल वुमेन - एक्सपोजिंग (1४) थॉमस पिकेटी</v>
       </c>
       <c r="E7" t="str">
-        <v>(3) 32</v>
+        <v>अ डाय बायस इन अ वर्ल्ड डिझाइन फॉर मेन</v>
       </c>
       <c r="F7" t="str">
-        <v>(4) 256</v>
+        <v>पर्यायी उत्तरे :</v>
       </c>
     </row>
     <row r="8">
@@ -544,19 +544,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <v>7. सोडवा : 65 96 25 44 32 80 1 [X | — oF — [|| — + — 13 16 25 11 16 10</v>
+        <v>7. प्रस्तावित बुलेट ट्रेन शी संबंधित कोणते विधान/ने चुकीचे आहे/त ? (a) मुंबई - अहमदाबाद दरम्यान द्रुत गति रेल्वे प्रकल्प (b) जपान कडून तांत्रिक साहाय्य आणि स्वस्त कर्ज (८) निर्माण काळात 20,000 लोकांना रोजगार मिळणार</v>
       </c>
       <c r="C8" t="str">
-        <v>(1) 15.4</v>
+        <v>(6) प्रकल्पासाठी संपूर्ण कर्ज विश्‍व बँक देणार</v>
       </c>
       <c r="D8" t="str">
-        <v>(2) 1.54</v>
+        <v>पर्यायी उत्तरे :</v>
       </c>
       <c r="E8" t="str">
-        <v>(3) 0.154</v>
+        <v>(1) (a) आणि (d)</v>
       </c>
       <c r="F8" t="str">
-        <v>(4) 0.0154</v>
+        <v>(2) केवळ (d)</v>
       </c>
     </row>
     <row r="9">
@@ -564,19 +564,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="str">
-        <v>8. एका मंगल कार्यालयाची लांबी 60 फूट व रुंदी 45 फूट आहे, तर 3 फूट लांबी व रुंदी असलेल्या किती फरशा त्याच्या जमिनीसाठी लागतील ?</v>
+        <v>8. 19 वर्षाखालील क्रिकेट वर्ल्ड कप भारताने 2018 साली जिंकला. भारताच्या 19 वर्षाखालील संघाने हा विश्‍वचषक कितव्यांदा मिळवला आहे ?</v>
       </c>
       <c r="C9" t="str">
-        <v>(1) 450</v>
+        <v>(1) तिसत्यांदा</v>
       </c>
       <c r="D9" t="str">
-        <v>(2) 600</v>
+        <v>(2) चौथ्यांदा</v>
       </c>
       <c r="E9" t="str">
-        <v>(3) 900</v>
+        <v>(3) पाचव्यांदा</v>
       </c>
       <c r="F9" t="str">
-        <v>(4) 300</v>
+        <v>(4) यापैकी नाही</v>
       </c>
     </row>
     <row r="10">
@@ -584,19 +584,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="str">
-        <v>9. 7663 या संख्येतील 6 ह्या संख्येच्या स्थानिक किंमतीतील फरक किती 7</v>
+        <v>9. योग्य कथन/ने ओळखा : (a) पकयांग विमानतळ हे हिमालयीन राज्यातील पहिले विमानतळ आहे. (७) THAT विमानतळ हे भारतातील 100 वे विमानतळ आहे. पर्यायी उत्तरे :</v>
       </c>
       <c r="C10" t="str">
-        <v>(1) 660</v>
+        <v>(1) फ़क्त (a)</v>
       </c>
       <c r="D10" t="str">
-        <v>(2) 540</v>
+        <v>(2) फक्त</v>
       </c>
       <c r="E10" t="str">
-        <v>(3) 630</v>
+        <v>(0)</v>
       </c>
       <c r="F10" t="str">
-        <v>(4) 450</v>
+        <v>(3) (a) आणि</v>
       </c>
     </row>
     <row r="11">
@@ -604,19 +604,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="str">
-        <v>10. खालीलपैकी कोणत्या संख्येस 5 ने नि:शेष भाग जातो ?</v>
+        <v>10. जोड्या लावा : (91 वा ऑस्कर पुरस्कार) ( 37) वर्गवारी ( ब) चित्रपट (a) उत्कृष्ट चित्रपट (i) त्राओ</v>
       </c>
       <c r="C11" t="str">
-        <v>(1) 3762</v>
+        <v>(0) उत्कृष्ट लघुचित्रपट (ii) रोमा</v>
       </c>
       <c r="D11" t="str">
-        <v>(2) 3725</v>
+        <v>(©) उत्कृष्ट अँनिमेटेड लघुचित्रपट (il) ग्रीन ब्रुक</v>
       </c>
       <c r="E11" t="str">
-        <v>(3) 2537</v>
+        <v>(५) उत्कृष्ट परकीय चित्रपट (1४) स्कीन</v>
       </c>
       <c r="F11" t="str">
-        <v>(4) 3876</v>
+        <v>पर्यायी उत्तरे :</v>
       </c>
     </row>
     <row r="12">
@@ -624,19 +624,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="str">
-        <v>11. क्रिकेटच्या वर्तुळाकार मैदानाचे क्षेत्रफळ 20096 चौ. मी. आहे. चार धावांची खूण मैदानाच्या बाहेरील कडेपासून 5 मीटर आत आखण्याकरिता किती मीटर दोरी लागेल ?</v>
+        <v>11. कम्बाइन्ड डिफेन्स स्हिसेस परीक्षेत, 2018 मध्ये देशात मुलीमध्ये प्रथम आलेली श्रुती श्रीखंडे ही महाराष्ट्रातील खालीलपैकी कोणत्या शहराची रहिवासी आहे?</v>
       </c>
       <c r="C12" t="str">
-        <v>(1) 502.4 मीटर</v>
+        <v>(1) पुणे</v>
       </c>
       <c r="D12" t="str">
-        <v>(2) 402.4 मीटर</v>
+        <v>(2) मुंबई</v>
       </c>
       <c r="E12" t="str">
-        <v>(3) 471 मीटर</v>
+        <v>(3) रत्नागिरी</v>
       </c>
       <c r="F12" t="str">
-        <v>(4) 571 मीटर</v>
+        <v>(4) नाशिक</v>
       </c>
     </row>
     <row r="13">
@@ -644,19 +644,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="str">
-        <v>12. जर 10x +24 =29x +H तर न</v>
+        <v>12. अँटोनिओ THY इतक्यात बातम्यामध्ये होते. त्यांच्याबाबत काय खरे नाही? (a) ते 1995 - 2001 मध्ये पोर्तुगालचे पंतप्रधान होते. (b) जून 2005 पासून डिसेंबर 2015 पर्यंत त्यांनी संयुक्त राष्ट्राच्या शरणार्थी विभागात उच्च आयुक्त पदी कार्य केले. (८) प्रथम युरौपियन युनियन- अफ्रिका शिखर परिषदेचे ते उपाध्यक्ष होते. (५) त्यांनी पोर्तुगीज शरणार्थी परिषदेची स्थापना केली. पर्यायी उत्तरे : |</v>
       </c>
       <c r="C13" t="str">
-        <v>(1) -1</v>
+        <v>(1) (०), (b)</v>
       </c>
       <c r="D13" t="str">
-        <v>(2) +1</v>
+        <v>(2)</v>
       </c>
       <c r="E13" t="str">
-        <v>(3) +2</v>
+        <v>(0), (९)</v>
       </c>
       <c r="F13" t="str">
-        <v>(4) +3</v>
+        <v>(3) (०), (d)</v>
       </c>
     </row>
     <row r="14">
@@ -664,419 +664,419 @@
         <v>13</v>
       </c>
       <c r="B14" t="str">
-        <v>13. ताशी 45 कि.मी. वेगाने जाणाऱ्या 400 मीटर लांबीच्या आगगाडीस, 400 मीटर लांबीचा पूल ओलांडण्यास किती वेळ लागेल ?</v>
+        <v>13. 'मिशन इंद्रधनुष्य' खालीलपैकी कशाशी संबंधित आहे ?</v>
       </c>
       <c r="C14" t="str">
-        <v/>
+        <v>(1) लसीकरण</v>
       </c>
       <c r="D14" t="str">
-        <v/>
+        <v>(2) जल संवर्धन</v>
       </c>
       <c r="E14" t="str">
-        <v/>
+        <v>(3) कृत्रिम पाऊस</v>
       </c>
       <c r="F14" t="str">
-        <v/>
+        <v>(4) जलसिंचन</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="str">
-        <v>14. क्षितिजची कार एका लीटरमध्ये 13 कि.मी. अंतर जाते आणि पेट्रोलचा दर 51.55 रुपये प्रति लीटर आहे. जर क्षितिजला 350 कि.मी. अंतराचा प्रवास करावयाचा असेल तर त्याला किती रुपये रक्‍कम पेट्रोलवर खर्च कराबी लागेल ?</v>
+        <v>15. यंदाच्या वर्षी 2018 आणि 2019 दोन्ही वर्षाचे नोबेल पारितोषिक श्रेणीत दिले जाईल.</v>
       </c>
       <c r="C15" t="str">
-        <v>(1) 1,388 रुपये</v>
+        <v>(1) शांती</v>
       </c>
       <c r="D15" t="str">
-        <v>(2) 1,358 रुपये</v>
+        <v>(2) रसायनशास्त्र</v>
       </c>
       <c r="E15" t="str">
-        <v>(3) 1,348 रुपये</v>
+        <v>(3) औषध</v>
       </c>
       <c r="F15" t="str">
-        <v>(4) 1,338 रुपये</v>
+        <v>(4) साहित्य</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="str">
-        <v>15. SR 15, 7, 16, 8 आणि K यांची सरासरी 13 येत असेल तर K =</v>
+        <v>16. खालील विधाने विचारात घ्या : (a) राज्यपाल हा राज्य विधिमंडळाचा एकात्मिक भाग नाही. (by राज्यपालास कार्यकाळाची सुरक्षितता नसते. (९) राज्यपालास केंव्हाही राष्ट्रपती पदावरून हटवू शकतो.</v>
       </c>
       <c r="C16" t="str">
-        <v>(1) 20</v>
+        <v>(9) राज्यपालास राष्ट्रपती कोणत्या कारणास्तव पदावरून हटवू शकतो याबाबतीत राज्यघटनेत कोणताही उल्लेख</v>
       </c>
       <c r="D16" t="str">
-        <v>(2) 18</v>
+        <v>नाही.</v>
       </c>
       <c r="E16" t="str">
-        <v>(3) 9 4) 19</v>
+        <v>पर्यायी उत्तरे :</v>
       </c>
       <c r="F16" t="str">
-        <v>(1) 20</v>
+        <v>(1) वरील सर्व विधाने बरोबर आहेत.</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="str">
-        <v>16. 17 ( 85)_ 12 | 36) ——</v>
+        <v>17. 'राज्य निर्वाचन आयोगाबाबत' खालील विधाने विचारात घ्या : (a) ग्रामीण ब शहरी स्थानिक संस्था सदस्यांद्वारे निवडण्यात येणाऱ्या महाराष्ट्र विधान परिषदेतील सदस्यांच्या निवडणूकीसह ग्रामीण व शहरी स्थानिक संस्थांच्या निवडणूका त्याद्वारे घेतल्या जातात. (by राज्य निर्वाचन आयुक्तांची नियुक्ती जरी राज्यपाल करीत असले तरी ते राज्य निर्वाचन आयुक्तांना पदावरून दूर्‌ करू शकत नाही. पर्यायी उत्तरे :</v>
       </c>
       <c r="C17" t="str">
-        <v>(1) 3/5</v>
+        <v>(1) विधान (a) बरोबर आहे.</v>
       </c>
       <c r="D17" t="str">
-        <v>(2) 5/3</v>
+        <v>(2) विधान (७) बरोबर आहे.</v>
       </c>
       <c r="E17" t="str">
-        <v>(3) —b/3</v>
+        <v>(3) दोन्हीही विधाने बरोबर आहेत.</v>
       </c>
       <c r="F17" t="str">
-        <v>(4) -3/5</v>
+        <v>(4) दोन्हीही विधाने चुकीची आहेत.</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="str">
-        <v>17. अमितची सरासरी दिवसाला 6 कॉम्प्युटर सर्व्हीस कॉलस्‌ आणि नितीनची सरासरी दिवसाला 8 कॉम्प्युटर सर्व्हीस 9 3 कॉलस्‌ अशी आहे. अमितचा सरासरी दर नितीनच्या दराच्या द्र पट आहे, नितीनने एका महिन्याला 8,000 रुपये मिळविले. तर अमितने त्या महिन्याला किती रुपये मिळविले 7</v>
+        <v>18. सरकारिया आयोगाच्या शिफारशीबाबत खालीलपैकी कोणती शिफारस ही चुकीची नमूद करण्यात आलेली आहे?</v>
       </c>
       <c r="C18" t="str">
-        <v>(1) 6,000 रुपये</v>
+        <v>(1) आयोगाने राज्यसभेची भूमिका आणि राज्यांच्या पुनर्रचनेच्या केन्द्राच्या अधिकारात बदलासाठी अनुकूलता दाखविली</v>
       </c>
       <c r="D18" t="str">
-        <v>(2) 10,000 रुपये</v>
+        <v>होती.</v>
       </c>
       <c r="E18" t="str">
-        <v>(3) 7,000 रुपये</v>
+        <v>(2) आयोगाने राज्यघटनेच्या अनुच्छेद-356 'चा अगदी क्वचितच वापराबाबत अनुकूलता दाखविली होती.</v>
       </c>
       <c r="F18" t="str">
-        <v>(4) 9,000 रुपये</v>
+        <v>(3) आयोगाने राज्यपाल IE संपुष्टात आणावे ही मागणी फेयळली होती.</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="str">
-        <v>18. जर 3756 x25 =93900, तर 3.756 x25 =</v>
+        <v>19. खालीलपैकी कोणती विधाने योग्य आहेत? (a) विधान परिषद निर्माण करण्यासाठी संबंधित राज्याच्या विधान सभेने हजर राहून मतदान करणाऱ्या सदस्यांच्या 2/3 बहुमताने ठराव पास करणे आवश्यक आहे. (by विधान परिषद निर्माण करण्यासाठी संसदेत 2/3 सदस्यांच्या बहुमताने ठराव पारीत करणे गरजेचे आहे. पर्यायी उत्तरे :</v>
       </c>
       <c r="C19" t="str">
-        <v>(1) 9.3900</v>
+        <v>(1) फक्त (a)</v>
       </c>
       <c r="D19" t="str">
-        <v>(2) 93.900</v>
+        <v>(2) फक्त (b)</v>
       </c>
       <c r="E19" t="str">
-        <v>(3) 939</v>
+        <v>(3) (a) आणि (b) दोन्ही</v>
       </c>
       <c r="F19" t="str">
-        <v>(4) 93900</v>
+        <v>(4) वरीलपैकी एकही नाही</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="str">
-        <v>19. पहिली संख्या दुसरीच्या दुप्पट व तिसरीच्या तिप्पट आहे. तिन्ही संख्यांची सरासरी 44 आहे तर पहिली संख्या काढा.</v>
+        <v>20. जोड्या जुळवा : (a) डॉ. सच्चिदानंद सिन्हा (i) उद्दिष्टांचा ठराव</v>
       </c>
       <c r="C20" t="str">
-        <v>(1) 72</v>
+        <v>(0) डॉ. राजेंद्र प्रसाद (i) घटना परिषदेचे संवैधानिक सल्लागार</v>
       </c>
       <c r="D20" t="str">
-        <v>(2) 69</v>
+        <v>(८) सर.बि.एन.राव (iti) घटना परिषदेचे कायमस्वरूपी अध्यक्ष</v>
       </c>
       <c r="E20" t="str">
-        <v>(3) 70</v>
+        <v>(प) जवाहरलाल नेहरू (iv) घटना परिषदेचे तात्पुरते अध्यक्ष</v>
       </c>
       <c r="F20" t="str">
-        <v>(4) 62</v>
+        <v>पर्यायी उत्तरे :</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="str">
-        <v>20. प्रविणची जन्मदिनांक 20/07/1969 ही आहे. तर 02/04/2010 या दिवशी त्याचे वय किती असेल ?</v>
+        <v>21. जोड्या जुळवा : अनुच्छेद क्रमांक विषय (a) 243 क (i) पंचायतींच्या निवडणूका (b) 243 घ (ii) पंचायतींची स्थापना (c) 243 ख (iil) ग्रामसभा (d) 243 2 (iv) जागांचे आरक्षण पर्यायी उत्तरे : @ (0) (० (9)</v>
       </c>
       <c r="C21" t="str">
-        <v>(1) 41 वर्षे 3 महिने 18 दिवस</v>
+        <v>(1) (ण) (४</v>
       </c>
       <c r="D21" t="str">
-        <v>(2) 40 वर्षे 3 महिने 18 दिवस</v>
+        <v>(0) (i)</v>
       </c>
       <c r="E21" t="str">
-        <v>(3) 40 वर्षे 8 महिने 12 दिवस</v>
+        <v>(2) (प). एर. (प) 0)</v>
       </c>
       <c r="F21" t="str">
-        <v>(4) 41 वर्षे 8 महिने 12 दिवस</v>
+        <v>(3) Gi) (४ GQ) 0)</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="str">
-        <v>21. अस्पष्ट केंद्रकयुक्त पेशी मध्ये आढळतात.</v>
+        <v>22. राज्याचा महाधिवक्ता आपल्या पदाचा राजीनामा कोणाकडे सौपवितो ?</v>
       </c>
       <c r="C22" t="str">
-        <v>(1) अमिबा</v>
+        <v>(1) राज्याच्या उच्च न्यायालयाचा मुख्य न्यायाधीश</v>
       </c>
       <c r="D22" t="str">
-        <v>(2) जीवाणु</v>
+        <v>(2) संबंधित राज्याचा राज्यपाल</v>
       </c>
       <c r="E22" t="str">
-        <v>(3) जलबव्याल</v>
+        <v>(3) भारताचा राष्ट्रपती</v>
       </c>
       <c r="F22" t="str">
-        <v>(4) लाल पेशी</v>
+        <v>(4) संबंधित राज्याचा मुख्यमंत्री</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="str">
-        <v>22. मद्यपानामुळे चा अभाव निर्माण होतो. उ (1) थायमिन (2) रेटिनॉल (3) नायसिन (4) अस्कॉर्बिक आम्ल</v>
+        <v>23. भारतीय राज्यघटनेच्या अनुच्छेद-32 अन्वये खालीलपैकी कोणत्या प्रकारच्या आदेशाची तरतूद सुस्पष्टपणे केलेली नाही?</v>
       </c>
       <c r="C23" t="str">
-        <v/>
+        <v>(1) निषेधाज्ञा</v>
       </c>
       <c r="D23" t="str">
-        <v/>
+        <v>(2) प्रतिषेध</v>
       </c>
       <c r="E23" t="str">
-        <v/>
+        <v>(3) अधिकार-पृच्छा</v>
       </c>
       <c r="F23" t="str">
-        <v/>
+        <v>(4) उत्प्रेक्षण</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="str">
-        <v>23. ८: हा प्रकाशाची हवेमधील वेग असून 1.5 हा काचेचा हवासापेक्ष अपवर्तनांक असल्यास प्रकाशाची काचेमधील वेग किती ? C ८ 5</v>
+        <v>24. भारतीय राज्यघटनेच्या अनुच्छेद-39 मध्ये खालीलपैकी कोणती/कोणत्या तरतूद/तरतूदींचा समावेश नाही ? (a) पुरुष व स्त्रिया या दोघांनाही समान कामाबद्दल समान वेतन.</v>
       </c>
       <c r="C24" t="str">
-        <v>(1) 1.5C</v>
+        <v>(0) ग्रामपंचायतींचे संघटन.</v>
       </c>
       <c r="D24" t="str">
-        <v>(2) TE</v>
+        <v>(८) लोक कल्याणाच्या संवर्धनासाठी समाज व्यवस्था प्रस्थापित करणे.</v>
       </c>
       <c r="E24" t="str">
-        <v>(3) C 4) (1.5)“ 0</v>
+        <v>(प) उपजीविकेचे पुरेसे साधन मिळण्याचा हक्क स्त्री व पुरुष नागरिकांना सारखाच असावा.</v>
       </c>
       <c r="F24" t="str">
-        <v>C</v>
+        <v>पर्यायी उत्तरे :</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="str">
-        <v>24. पाण्याची घनता ला उच्चतम असते.</v>
+        <v>25. प्रशासनावरील न्यायिक नियंत्रणाचा मुख्य उद्देश 7 असतो.</v>
       </c>
       <c r="C25" t="str">
-        <v>(1) 4°C</v>
+        <v>(1) प्रशासकीय अंगाची मुखत्यारी आणि मनमानी काबूत ठेवणे</v>
       </c>
       <c r="D25" t="str">
-        <v>(2) 258१ €</v>
+        <v>(2) नागरिकांच्या तक्रारींचे निरिकरण करण्यास साहाय्य करणे</v>
       </c>
       <c r="E25" t="str">
-        <v>(3) 0°C</v>
+        <v>(3) नागरिकांच्या अधिकाराचे आणि स्वातंत्र्याचे रक्षण करणे</v>
       </c>
       <c r="F25" t="str">
-        <v>(4) 73°C</v>
+        <v>(4) सरकारी अधिकाऱ्यांच्या चुकीच्या कृतींना आळा घालणे व शिक्षा करणे</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="str">
-        <v>25. मानव पालेभाज्यांतील सेल्युलोज पचवु शकत नाही, कारण हे विकर त्याच्या जठरात नसते.</v>
+        <v>26. लॉर्ड डलहौसीच्या बाबत पुढीलपैकी कोणती विधाने बरोबर आहेत ? (a) रेल्वेयुग सुरू केले.</v>
       </c>
       <c r="C26" t="str">
-        <v>(1) सेल्युलेज</v>
+        <v>(0) स्वतंत्र सार्वजनिक बांधकाम खाते निर्माण केले.</v>
       </c>
       <c r="D26" t="str">
-        <v>(2) पेप्सीन</v>
+        <v>(c) 1852 मध्ये तार विभागाची स्थापना केली.</v>
       </c>
       <c r="E26" t="str">
-        <v>(3) सेल्युलीन</v>
+        <v>(d) 1854 मध्ये पोस्ट कायदा संमत करून टपाल तिकिटांची सुरूवात केली.</v>
       </c>
       <c r="F26" t="str">
-        <v>(4) सेल्युपेज</v>
+        <v>पर्यायी उत्तरे :</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="str">
-        <v>26. खालीलपैकी कोणती वनस्पती, टेश्डिफायटा या संवहीनी वनस्पती वर्गात येत नाही ?</v>
+        <v>27. भारतीय वैज्ञानिक अभ्यास परिषदेची स्थापना... AY करण्यात आली.</v>
       </c>
       <c r="C27" t="str">
-        <v>(1) फिलीसीनी</v>
+        <v>(1) दिल्ली</v>
       </c>
       <c r="D27" t="str">
-        <v>(2) मुसी</v>
+        <v>(2) कलकत्ता</v>
       </c>
       <c r="E27" t="str">
-        <v>(3) लायकोपोडियम</v>
+        <v>(3) मद्रास</v>
       </c>
       <c r="F27" t="str">
-        <v>(4) इक्विसेटिनी</v>
+        <v>(4) बेंगलोर</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="str">
-        <v>27. जीवाणुमधील प्रजननाची सर्वात प्रभावी पद्धती आहे.</v>
+        <v>28. इ.स. 1852 मध्ये महाराष्ट्रात स्थापन झालेली पहिली राजकीय संघटना कोणती होती ? |</v>
       </c>
       <c r="C28" t="str">
-        <v>(1) मुकुलायन</v>
+        <v>(1) बॉम्बे असोसिएशन</v>
       </c>
       <c r="D28" t="str">
-        <v>(2) पुनर्जीवन</v>
+        <v>(2) ईस्ट इंडिया असोसिएशन</v>
       </c>
       <c r="E28" t="str">
-        <v>(3) दू्‌विविखंडन</v>
+        <v>(3) सार्वजनिक सभा</v>
       </c>
       <c r="F28" t="str">
-        <v>(4) युग्मकी एकत्रीकरण</v>
+        <v>(4) बॉम्बे प्रेसिडेन्सी असोसिएशन</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" t="str">
-        <v>28. मलेशिया रोग मुळे होतो.</v>
+        <v>29. मुंबई AY इ.स. 1867 मध्ये प्रार्थना समाजाची स्थापना कोणी केली ?</v>
       </c>
       <c r="C29" t="str">
-        <v>(1) प्लाझमोडियम</v>
+        <v>(1) डॉ. आत्माराम पांडुरंग</v>
       </c>
       <c r="D29" t="str">
-        <v>(2) प्लॅनेर्या</v>
+        <v>(2) गोपाळ हरी देशमुख</v>
       </c>
       <c r="E29" t="str">
-        <v>(3) फायलेरिया</v>
+        <v>(3) दादाभाई नौरोजी</v>
       </c>
       <c r="F29" t="str">
-        <v>(4) fern</v>
+        <v>(4) डॉ. सिताराम देसाई</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" t="str">
-        <v>29. जीवभूरसायन चक्रात कार्बन प्रमाण आहे.</v>
+        <v>30. लोकनिंदा सहन करून आंधळ्या पांगळ्यांना च महारोग्यांना मलमपट्टी आणि औषधपाणी देण्याची सेवा कोणत्या सुधारकाने केली ?</v>
       </c>
       <c r="C30" t="str">
-        <v>(1) 0.03%</v>
+        <v>(1) डॉ. आनंदीबाई जोशी</v>
       </c>
       <c r="D30" t="str">
-        <v>(2) 0.3%</v>
+        <v>(2) अनुताई वाघ</v>
       </c>
       <c r="E30" t="str">
-        <v>(3) 3%</v>
+        <v>(3) भाऊ दाजी लाड</v>
       </c>
       <c r="F30" t="str">
-        <v>(4) 0.003%</v>
+        <v>(4) लोकहितवादी गोपाळ हरि देशमुख</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" t="str">
-        <v>30. कोणता नेत्रदोष नेत्र गोल काहीसे लांबट होण्यामुळे उद्‌भवतो ?</v>
+        <v>31. जॅक्सन खून खटल्यात कोणास फाशीची शिक्षा देण्यात आली ?</v>
       </c>
       <c r="C31" t="str">
-        <v>(1) केवळ निकटदृष्टिता</v>
+        <v>(1) कृष्णाजी गोपाळ कर्वे, विनायक नारायण देशपांडे</v>
       </c>
       <c r="D31" t="str">
-        <v>(2) केवळ दूरदृष्टिता</v>
+        <v>(2) ब्रम्हगिरी बुवा, गणेश वैद्य</v>
       </c>
       <c r="E31" t="str">
-        <v>(3) रंगांधता</v>
+        <v>(3) दत्तात्रय पांडुरंग जोशी, सिद्धनाथ काणे</v>
       </c>
       <c r="F31" t="str">
-        <v>(4) वृद्धदृष्टिता</v>
+        <v>(4) वामन फडके, निरंजन पाल</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" t="str">
-        <v>31. च्या पाण्यातील द्रावणाला व्हीनेगार म्हणतात.</v>
+        <v>32. आधुनिक भारताचा पहिला राष्ट्रीय कवी कोण ?</v>
       </c>
       <c r="C32" t="str">
-        <v>(1) मिथिलेटेड स्पिरीट</v>
+        <v>(1) डी.पी. तरखडकर</v>
       </c>
       <c r="D32" t="str">
-        <v>(2) असेटिक असिड</v>
+        <v>(2) व्ही.डी. सावरकर</v>
       </c>
       <c r="E32" t="str">
-        <v>(3) इथेनॉल</v>
+        <v>(3) विनायक</v>
       </c>
       <c r="F32" t="str">
-        <v>(4) असिटाल्डिहाइड</v>
+        <v>(4) एच.व्ही. डेरॉझियो</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" t="str">
-        <v>32. हे हरित गृह वायु आहेत.</v>
+        <v>33. 1857 च्या उठावाचे परिणाम खालीलप्रमाणे होते. (a) कंपनीच्या शासनाचा शेवट (b) भारतीयांना प्रशासनात नोकऱ्या दिल्या नाहीत (८) स्वातंत्र्य आंदोलनास प्रेरणा</v>
       </c>
       <c r="C33" t="str">
-        <v/>
+        <v>(4) सैन्याची GREAT</v>
       </c>
       <c r="D33" t="str">
-        <v/>
+        <v>पर्यायी उत्तरे :</v>
       </c>
       <c r="E33" t="str">
-        <v/>
+        <v>(1) (a),</v>
       </c>
       <c r="F33" t="str">
-        <v/>
+        <v>(0) आणि (०0 फक्त</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" t="str">
-        <v>33. प्रकाश संश्लेषण क्रियेत हरित वनस्पती सौर ऊर्जेचे रूपांतर ऊर्जेत करतात.</v>
+        <v>34. भारतीय राष्ट्रीय काँग्रेसचे चौथे अधिवेशन कोणत्या ठिकाणी झाले ?</v>
       </c>
       <c r="C34" t="str">
-        <v>(1) यांत्रिक</v>
+        <v>(1) मुंबई</v>
       </c>
       <c r="D34" t="str">
-        <v>(2) रासायनिक</v>
+        <v>(2) अलाहाबाद</v>
       </c>
       <c r="E34" t="str">
-        <v>(3) अणु</v>
+        <v>(3) अहमदाबाद</v>
       </c>
       <c r="F34" t="str">
-        <v>(4) विद्युत्‌</v>
+        <v>(4) मद्रास</v>
       </c>
     </row>
     <row r="35">
@@ -1084,19 +1084,19 @@
         <v>35</v>
       </c>
       <c r="B35" t="str">
-        <v>35. असेटिक असिडच्या विरल द्रावणाला म्हणतात.</v>
+        <v>35. मुलींची शाळा चालविण्यासाठी महात्मा ज्योतिबा फुले यांना खालीलपैकी कोणी सहकार्य केले होते ? (a) सखाराम यशवंत परांजपे, सदाशिव गोविंद हाटे</v>
       </c>
       <c r="C35" t="str">
-        <v>(1) इथिलीन</v>
+        <v>(0) सदाशिव बल्लाळ गोवंडे, मोरो विठ्ठल वाळवेकर</v>
       </c>
       <c r="D35" t="str">
-        <v>(2) पॅराफिन</v>
+        <v>(८) विष्णुपंत थत्ते, केशव शिवराम भवाळकर</v>
       </c>
       <c r="E35" t="str">
-        <v>(3) बँझिन</v>
+        <v>(d) देवराव ठोसर, सौ. इ.सी. जोन्स</v>
       </c>
       <c r="F35" t="str">
-        <v>(4) व्हिनेगार</v>
+        <v>पर्यायी उत्तरे :</v>
       </c>
     </row>
     <row r="36">
@@ -1104,19 +1104,19 @@
         <v>36</v>
       </c>
       <c r="B36" t="str">
-        <v>36. खालीलपैकी अचूक व संतुलित रासायनिक समीकरण हे आहे.</v>
+        <v>36. ब्रिटीश काळात “रयतवारी पद्धतीचा ' प्रारंभ कोणत्या प्रांतात झाला ?</v>
       </c>
       <c r="C36" t="str">
-        <v/>
+        <v>(1) मद्रास, मुंबई</v>
       </c>
       <c r="D36" t="str">
-        <v/>
+        <v>(2) बंगाल, पंजाब</v>
       </c>
       <c r="E36" t="str">
-        <v/>
+        <v>(3) कलकत्ता, नागपूर</v>
       </c>
       <c r="F36" t="str">
-        <v/>
+        <v>(4) दिल्ली, हिमाचल प्रदेश</v>
       </c>
     </row>
     <row r="37">
@@ -1124,19 +1124,19 @@
         <v>37</v>
       </c>
       <c r="B37" t="str">
-        <v>37. 1 मिलीग्रॅम वस्तुमानाचे ऊर्जेत रूपांतर केल्यास किती ऊर्जा मिळु शकेल ?</v>
+        <v>37. महर्षी विठ्ठल रामजी शिंदे यांचा कोणत्या सत्याग्रहात सहभाग होता ? (a) पर्वती सत्याग्रह (b) वाई गणपती मंदिर सत्याग्रह (c) वायकोम मंदिर सत्याग्रह (d) लक्ष्मी नारायण मंदिर सत्याग्रह पर्यायी उत्तरे :</v>
       </c>
       <c r="C37" t="str">
-        <v>(1) 9x10" ज्यूल</v>
+        <v>(1)</v>
       </c>
       <c r="D37" t="str">
-        <v>(2) 3&gt;101% ज्यूल</v>
+        <v>(2) आणि (९)</v>
       </c>
       <c r="E37" t="str">
-        <v>(3) 9९1010 ज्यूल</v>
+        <v>(2) (७) आणि</v>
       </c>
       <c r="F37" t="str">
-        <v>(4) 3x10% ज्यूल</v>
+        <v>(0)</v>
       </c>
     </row>
     <row r="38">
@@ -1144,19 +1144,19 @@
         <v>38</v>
       </c>
       <c r="B38" t="str">
-        <v>38. खालीलपैकी कोणत्या पदार्थापासून सर्वात जास्त कॅलरीज मिळतात ? प्रत्येक वेळी सारख्या आकारमानाचा कप वापरला आहे हे गृहीत धरुन</v>
+        <v>38. 1935 च्या कायद्याविषयी कोणती विधाने बरोबर आहेत ? (a) अँग्लो इंडियन, भारतीय ख्रिश्चन, शिख हे मतदारसंघ तयार केले.</v>
       </c>
       <c r="C38" t="str">
-        <v>(1) एक कप आइस्क्रीम</v>
+        <v>(0) संघ न्यायालयाची स्थापना.</v>
       </c>
       <c r="D38" t="str">
-        <v>(2) एक कप सरबत</v>
+        <v>(८) भारतीय उच्च आयुक्त पदाची निर्मिती.</v>
       </c>
       <c r="E38" t="str">
-        <v>(3) एक कप दूध</v>
+        <v>(d) 'दुहेरी शासनव्यवस्थेपेक्षा वाईट कायदा' असे वर्णन राजगोपालाचारी यांनी केले.</v>
       </c>
       <c r="F38" t="str">
-        <v>(4) एक कप आंब्याचा रस</v>
+        <v>पर्यायी उत्तरे : झ</v>
       </c>
     </row>
     <row r="39">
@@ -1164,2084 +1164,1084 @@
         <v>39</v>
       </c>
       <c r="B39" t="str">
-        <v>39. ‘m’ वस्तुमान असलेली वस्तू ४ या चालीने गतिमान असेल तर त्याची गतिज ऊर्जा 1 1 1</v>
+        <v>39. भारतीय राष्ट्रीय काँग्रेसच्या स्थापनेत खालील नेते सहभागी होते. (a) जगन्नाथ शंकर शेठ, दादाभाई नौरोजी (b) उमेशचंद्र बॅनर्जी, सर अँलन gM (८) गणेश जोशी, विनायक सावरकर (व) ईश्वरचंद्र विद्यासागर, दुर्गाराम मंछाराम पर्यायी उत्तरे :</v>
       </c>
       <c r="C39" t="str">
-        <v>(1) mv @ 5</v>
+        <v>(1) (a) आणि (७) फक्त</v>
       </c>
       <c r="D39" t="str">
-        <v>(3) 3</v>
+        <v>(2) (७) आणि (०) फक्त</v>
       </c>
       <c r="E39" t="str">
-        <v>(4) 5</v>
+        <v>(3) (९) आणि (d) फक्त</v>
       </c>
       <c r="F39" t="str">
-        <v>1 1» 1. 9</v>
+        <v>(4) (a) आणि (d) फक्त</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40" t="str">
-        <v>40. एक लीटर पाणी 4° से. पासून 3° से. पर्यंत थंड केल्यास</v>
+        <v>41. खालीलपैकी कोणत्या नद्यांपासून जास्त जलविद्युत निर्मिती होते ?</v>
       </c>
       <c r="C40" t="str">
-        <v>(1) पाण्याचे आकारमान कमी होईल व घनता वाढेल</v>
+        <v>(1) पश्चिम घाटातील पश्चिम वाहिनी नद्या</v>
       </c>
       <c r="D40" t="str">
-        <v>(2) पाण्याचे आकारमान वाढेल व घनता कमी होईल</v>
+        <v>(2) दक्षिणेतील पूर्व वाहिनी नद्या</v>
       </c>
       <c r="E40" t="str">
-        <v>(3) पाण्याचे आकारमान कमी होईल व घनता स्थिर राहीलं</v>
+        <v>(3) मध्य भारतातील नद्या</v>
       </c>
       <c r="F40" t="str">
-        <v>(4) पाण्याचे आकारमान वाढेल व घनता स्थिर राहील</v>
+        <v>(4) गंगेचे खोरे</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41" t="str">
-        <v>41. भारतीय कामगार संघटनावर कुठल्या क्रांतीचा फार मोठ्या प्रमाणावर प्रभाव पडला ?</v>
+        <v>42. महाराष्ट्रातील लघुउद्योग व त्यांची ठिकाणे यांच्या योग्य जोड्या जुळवा : स्तंभ (अ) स्तंभ (ब) लघुउद्योग ठिकाणे (a) चादर (i) नागपूर (०) हिमरुशाली (॥) सावंतवाडी (८) लाकडी खेळणी (iii) सोलापूर (प) रेशिम साड्या (1४) औरंगाबाद पर्यायी उत्तरे :</v>
       </c>
       <c r="C41" t="str">
-        <v>(1) अमेरिकन क्रांती</v>
+        <v>(2) (b) (९) (०)</v>
       </c>
       <c r="D41" t="str">
-        <v>(2) फ्रेंच क्रांती</v>
+        <v>(1) GH) (0 @ (9</v>
       </c>
       <c r="E41" t="str">
-        <v>(3) रशियन क्रांती</v>
+        <v>@ (७ (४) (४)</v>
       </c>
       <c r="F41" t="str">
-        <v>(4) औद्योगिक क्रांती</v>
+        <v>(0)</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42" t="str">
-        <v>42. अचूक कालक्रम लावा : (अ) गदरपार्टीची स्थापना (ब) चौरीचौरा घटना (क) खुदीराम बोसची फाशी (ड) मलबारमध्ये मोपला बंड A=1;d=2;%=3;5=4</v>
+        <v>43. योग्य जोड्या जुळवा : स्तंभ (अ) स्तंभ (ब) राष्ट्रीय उद्याने संबंधित जिल्हे (a) ताडोबा (1) नागपूर</v>
       </c>
       <c r="C42" t="str">
-        <v>(1) अ,ब,क, 81,2, 3, 4</v>
+        <v>(0) पेंच (i) अमरावती</v>
       </c>
       <c r="D42" t="str">
-        <v>(2) ब, अ, ड, क (2,1, 4, 3)</v>
+        <v>(¢) नवेगाव (il) चंद्रपूर</v>
       </c>
       <c r="E42" t="str">
-        <v>(3) क, ड, अ, ब (3, 4, 1, 2)</v>
+        <v>(d) गुगामाळ (iv) गोंदिया</v>
       </c>
       <c r="F42" t="str">
-        <v>(4) क, अ, ड, ब (3, 1, 4, 2)</v>
+        <v>पर्यायी उत्तरे :</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B43" t="str">
-        <v>43. वहाबी चळवळीचे उद्दिष्ट कोणते ?</v>
+        <v>45.  _ _ मृदेने भारतातील सर्वात जास्त प्रदेश व्यापला आहे.</v>
       </c>
       <c r="C43" t="str">
-        <v>(1) मुसलमानामध्ये शिक्षणाचा प्रसार करणे</v>
+        <v>(1) काळी कापसाची मृदा</v>
       </c>
       <c r="D43" t="str">
-        <v>(2) जगातील सर्व मुसलमानाचे एकत्रीकरण करणे</v>
+        <v>(2) तांबडी मृदा</v>
       </c>
       <c r="E43" t="str">
-        <v>(3) हिंदूना विरोध करणे</v>
+        <v>(3) गाळाची मृदा</v>
       </c>
       <c r="F43" t="str">
-        <v>(4) मुसलमानांचे राज्य स्थापन करणे</v>
+        <v>(4) जांभी मृदा</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B44" t="str">
-        <v>44. ब्रिटीशांचे आर्थिक धोरण ह्या नावाने ओळखल्या जात होते</v>
+        <v>46. खालील वैशिष्ट्ये कोणत्या वस्ती प्रारूपाची आहेत ? (a) वस्तीमधील रस्ते परस्परांना समांतर असतात.</v>
       </c>
       <c r="C44" t="str">
-        <v>(1) राष्ट्रांची संपत्ती</v>
+        <v>(0) वस्तीमधील रस्ते परस्परांना काटकोनात छेदतात.</v>
       </c>
       <c r="D44" t="str">
-        <v>(2) धननि:सारण अथवा संपत्तीचा निचरा</v>
+        <v>(८) वस्तीमधील घरांच्या रांगा पहावयास मिळतात.</v>
       </c>
       <c r="E44" t="str">
-        <v>(3) वरील दोन्ही उत्तरे बरोबर आहेत</v>
+        <v>(4) वस्तीमधील हमरस्ते किंवा लोहमार्ग परस्परांना ओलांडतात.</v>
       </c>
       <c r="F44" t="str">
-        <v>(4) वरीलपैकी दोन्ही चूक आहेत</v>
+        <v>पर्यायी उत्तरे :</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B45" t="str">
-        <v>45. शेतीचे व्यापारीकरण म्हणजे</v>
+        <v>47. खालील विधानांची सत्यता तपासा : विधान (A) : सातमाळा अजिंठा डोंगर रांगामुळे गोदावरी नदीचे खोरे हे तापी नदीच्या खोऱ्यापासून अलग झालेले आहे. विधान (5) : गोदावरी नदीचे खोरे आणि भीमा नदीचे खोरे हे शंभू महादेव डोंगर रांगामुळे अलग झालेले आहे.</v>
       </c>
       <c r="C45" t="str">
-        <v>(1) नगदी पिकांचे उत्पादन घेणे</v>
+        <v>(1) विधान (A) आणि</v>
       </c>
       <c r="D45" t="str">
-        <v>(2) शेतीमध्ये कारखानदारी उभारणे</v>
+        <v>(9) दोन्ही सत्य आहेत</v>
       </c>
       <c r="E45" t="str">
-        <v>(3) शेतीची खरेदी-विक्री करणे</v>
+        <v>(2) विधान (&amp;) आणि</v>
       </c>
       <c r="F45" t="str">
-        <v>(4) पारंपरिक पिके घेणे</v>
+        <v>(9) दोन्ही असत्य आहेत</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B46" t="str">
-        <v>46. भारताच्या दारिद्र्याच्या मुळाशी ब्रिटीशांचे आर्थिक धोरण जबाबदार आहे' असे ठामपणे प्रतिपादन करणारे पहिले भारतीय विचारवंत कोण ?</v>
+        <v>48. महाराष्ट्राच्या उत्तेस पर्वतरांगा आणि त्याच्या पूर्वेस टेकड्या आहेत.</v>
       </c>
       <c r="C46" t="str">
-        <v>(1) दादाभाई नौरोजी</v>
+        <v>(1) सह्याद्री आणि नंदूरबार</v>
       </c>
       <c r="D46" t="str">
-        <v>(2) व्ही. के. आर. व्ही, राव</v>
+        <v>(2) सातपडा आणि गावीळगड</v>
       </c>
       <c r="E46" t="str">
-        <v>(3) रमेशचंद्र दत्त</v>
+        <v>(3) ब्रालाघाट आणि भा[मयगड</v>
       </c>
       <c r="F46" t="str">
-        <v>(4) विनगेट</v>
+        <v>(1) गावीळगड आणि महादेव</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B47" t="str">
-        <v>47. राष्ट्रीय काँग्रेस सभेच्या मुंबई येथील पहिल्या अधिवेशनाचे अध्यक्ष कोण होते ?</v>
+        <v>49. हुगळी TR नदीची fai आहे.</v>
       </c>
       <c r="C47" t="str">
-        <v>(1) अलन अक्टोव्हिएन ह्यूम</v>
+        <v>(1) दामोदर</v>
       </c>
       <c r="D47" t="str">
-        <v>(2) सुरेंद्रनाथ बॅनर्जी</v>
+        <v>(2) ब्रह्मपुत्रा</v>
       </c>
       <c r="E47" t="str">
-        <v>(3) व्योमेशचंद्र बॅनर्जी</v>
+        <v>(3) गंगा</v>
       </c>
       <c r="F47" t="str">
-        <v>(4) स्वातंत्र्यवीर सावरकर</v>
+        <v>(4) पदमा</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48" t="str">
-        <v>49. 1919 च्या माँट-फोर्ड कायंद्यावर' हे 'स्वराज्य नव्हे आणि त्याचा पायाही नव्हे' अशी टीका कोणी केली ?</v>
+        <v>51. भारतातील. © राज्य बॉक्साईटचे उत्पादन करणारे प्रमुख राज्य आहे</v>
       </c>
       <c r="C48" t="str">
-        <v>(1) लाला लजपतराय</v>
+        <v>(1) झारखंड</v>
       </c>
       <c r="D48" t="str">
-        <v>(2) लोकमान्य टिळक</v>
+        <v>(2) मध्य प्रदेश</v>
       </c>
       <c r="E48" t="str">
-        <v>(3) महात्मा गांधी</v>
+        <v>(3). छत्तीसगड</v>
       </c>
       <c r="F48" t="str">
-        <v>(4) पंडित नेहरु</v>
+        <v>(4) गुजरात</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49" t="str">
-        <v>50. लंडनमध्ये इंडिया हाऊस ची स्थापना यांनी केली.</v>
+        <v>52. ' ऑपरेशन फ्लड योजना'' El शी संब्रंधित आहे</v>
       </c>
       <c r="C49" t="str">
-        <v>(1) लाला हरदयाळ</v>
+        <v>(1) पूर</v>
       </c>
       <c r="D49" t="str">
-        <v>(2) श्यामजी कृष्ण वर्मा</v>
+        <v>(2) दूध</v>
       </c>
       <c r="E49" t="str">
-        <v>(3) स्वातंत्र्यवीर सावरकर</v>
+        <v>(3) कुक्कुटपालन</v>
       </c>
       <c r="F49" t="str">
-        <v>(4) सुभाषचंद्र बोस</v>
+        <v>(4) यापैकी नाही</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50" t="str">
-        <v>51. अनुद्योगीकरण' म्हणजे काय ?</v>
+        <v>53. भारतातील पहिले जलविद्यूत Fe “शिवसमुद्रम'_ या नदीवर आहे.</v>
       </c>
       <c r="C50" t="str">
-        <v>(1) वैज्ञानिक शोधाच्याद्वारे उद्योगांना चालना</v>
+        <v>(1) कावेरी</v>
       </c>
       <c r="D50" t="str">
-        <v>(2) मोठ्या उद्योगांची निर्मिती</v>
+        <v>(2) कृष्णा</v>
       </c>
       <c r="E50" t="str">
-        <v>(3) उत्पादनाचे नफा हेच उद्दिष्ट</v>
+        <v>(3) तुंगभद्रा</v>
       </c>
       <c r="F50" t="str">
-        <v>(4) औद्योगिक उत्पादन कमी होणे</v>
+        <v>(4) गोदावरी</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51" t="str">
-        <v>52. कोणत्या पद्धतीत शासकीय अधिकारी सरळ शेतकऱ्यांकडून जमीन महसूल वसूल करीत असे ?</v>
+        <v>55. भारताचा हा जगातील सर्वात मोठा त्रिभूज प्रदेश आहे.</v>
       </c>
       <c r="C51" t="str">
-        <v>(1) कायमधारा</v>
+        <v>(1) वृंदावन</v>
       </c>
       <c r="D51" t="str">
-        <v>(2) रयतवारी</v>
+        <v>(2) राजमुंद्री</v>
       </c>
       <c r="E51" t="str">
-        <v>(3) महालवारी</v>
+        <v>(3) सुंदरबन</v>
       </c>
       <c r="F51" t="str">
-        <v>(4) वायदा</v>
+        <v>(4) मच्छलीपट्टण</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52" t="str">
-        <v>53. ब्रिटीश सरकार भारताला टप्प्याटप्प्याने स्वशासनाचे अधिकार आणि जबाबदार राज्य पद्धती os ' असे 1917 साली यांनी घोषित केले.</v>
+        <v>57. एकात्मीक ग्रामीण विकास कार्यक्रमाचे खालील कोणते लाभार्थी आहेत ? (a) अल्पभुधारक शेतकरी (0) अत्य अल्पभुधारक शेतकरी (८) भूमिहीन शेतकरी (d) मोठे शेतकरी वरीलपैकी कोणते विधान/विधाने बरोबर आहेत ?</v>
       </c>
       <c r="C52" t="str">
-        <v>(1) मोले</v>
+        <v/>
       </c>
       <c r="D52" t="str">
-        <v>(2) fie</v>
+        <v/>
       </c>
       <c r="E52" t="str">
-        <v>(3) मॉन्टेग्यू</v>
+        <v/>
       </c>
       <c r="F52" t="str">
-        <v>(4) चेम्सफोर्ड</v>
+        <v/>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53" t="str">
-        <v>54. ब्रिटीश सरकारने मदनलाल धिंग्रा यास साली फाशी दिले,</v>
+        <v>58. सर्वसाधारणपणे खालीलपैकी कोणत्या अंदाजपत्रकात केंद्र सरकारच्या प्राप्ती आणि खर्चाचे Tie दिलेले असते ?</v>
       </c>
       <c r="C53" t="str">
-        <v>(1) 1860</v>
+        <v>(1) महसूली</v>
       </c>
       <c r="D53" t="str">
-        <v>(2) 1891</v>
+        <v>(2) भांडवली</v>
       </c>
       <c r="E53" t="str">
-        <v>(3) 1900</v>
+        <v>(3) तुटीचे</v>
       </c>
       <c r="F53" t="str">
-        <v>(4) 1909</v>
+        <v>(4) शिल्लकोचे</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54" t="str">
-        <v>55. 1906 मध्ये दलित संघाची स्थापना करून त्याद्वारे दलितोद्धाराचे कार्य कुणी केले ?</v>
+        <v>59. खालील विधाने विचारात घ्या : (a) 1956 च्या औद्योगिक धोरण ठरावाचा उद्देश प्रादेशिक समता प्रोत्साहन होता. (b) 1955 मधील गाव आणि लहान उद्योग समितीला कर्वे समिती सुद्धा म्हणतात. (८0) एक लघु औद्योगिक युनिट मध्ये जास्तीत जास्त 10 कोटी रुपयांची गुंतवणुकीची परवानगी आहे. वरीलपैकी कोणते/ती विधान/ने बरोबर आहे/त?</v>
       </c>
       <c r="C54" t="str">
-        <v>(1) महात्मा ज्योतीबा फुले</v>
+        <v>(1) (a) आणि (७)</v>
       </c>
       <c r="D54" t="str">
-        <v>(2) शाहु महाराज</v>
+        <v>(2) (७) आणि (९)</v>
       </c>
       <c r="E54" t="str">
-        <v>(3) विठ्ठल रामजी शिंदे</v>
+        <v>(3) (a) आणि (८)</v>
       </c>
       <c r="F54" t="str">
-        <v>(4) सयाजीराव गायकवाड</v>
+        <v>(4) वरील सर्व</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55" t="str">
-        <v>56. खालील वाक्ये काळजीपूर्वक वाचा : (अ) व्ही. चिपळूणकर, बी, जी. टिळक, गो. ग. आगरकर ह्या तिघांनी इ. स. 1880 मध्ये पुण्यात न्यू इंग्लीश स्कूल ची स्थापना केली. (ब) व्ही. चिपळूणकर, बी. जी. टिळक, गो. ग. आगरकर ह्या तिघांनी इ. स. 1881 मध्ये पुण्यात ' न्यू इंग्लीश स्कूल ची स्थापना केली.</v>
+        <v xml:space="preserve">60. खालील विधाने विचारात घ्या :  (a) महाराष्ट्र राज्याने सेंद्रीय शेती धोरण जानेवारी 2013 मध्ये जाहीर केले.  (b) महाराष्ट्र राज्याने कृषी संजीवनी योजना 2011 मध्ये जाहीर केली. </v>
       </c>
       <c r="C55" t="str">
-        <v>(1) 'अ बरोबर आहे. परंतु &amp; चुकीचे आहे</v>
+        <v>(0) महाराष्ट्र राज्याने शेती व्यवसाय पायाभूत विकास गुंतवणूक कार्यक्रम जागतिक बँकेच्या मदतीने सुरू केला.</v>
       </c>
       <c r="D55" t="str">
-        <v>(2) § बरोबर आहे. परंतु A चुकीचे आहे</v>
+        <v/>
       </c>
       <c r="E55" t="str">
-        <v>(3) 'अ' आणि ‘TF दोन्ही चूक आहे</v>
+        <v>वरीलपैकी कोणते/ती विधान/ने बरोबर आहे/त?</v>
       </c>
       <c r="F55" t="str">
-        <v>(4) 'अ' आणि ब दोन्ही बरोबर आहे</v>
+        <v/>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56" t="str">
-        <v>57. कोणत्या कायद्याने अस्पृश्यता समाप्त करण्यात आली 7</v>
+        <v xml:space="preserve">61. खालील विधाने विचारात घ्या :  (a) पत पत्रे देणे हे व्यापारी बॅकेचे प्राथमिक कार्य आहे. </v>
       </c>
       <c r="C56" t="str">
-        <v>(1) 1935 चा कायदा</v>
+        <v>(9) व्यापारी बँकांच्या चालू खाते ठेवी आणि बचत खाते ठेवी यामध्ये काहीही फरक नाही.</v>
       </c>
       <c r="D56" t="str">
-        <v>(2) 1947 चा कायदा</v>
+        <v/>
       </c>
       <c r="E56" t="str">
-        <v>(3) 1951 चा कायदा</v>
+        <v>(c) देशाच्या मध्यवर्ती बँकेकडून पतपैसा निर्माण केला जातो. |</v>
       </c>
       <c r="F56" t="str">
-        <v>(4) 1955 चा कायदा</v>
+        <v/>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57" t="str">
-        <v>58. महात्मा फुले यांनी अस्पृश्यांच्या शिक्षणासाठी वेताळपेठ (पुणे) येथे इ. स. मध्ये शाळा सुरु केली,</v>
+        <v xml:space="preserve">62. भारतातील उच्च जननदरास खालीलपैकी कोणते दोन सामाजिक घटक जबाबदार आहेत?  (a) गरिबी (0) लग्नाच्या वेळी कमी असणारे वय  (©) शेतीचे प्राबल्य (d) धार्मिक आणि सामाजिक अंधश्रद्धा  पर्यायी उत्तरे : | </v>
       </c>
       <c r="C57" t="str">
-        <v>(1) 1885</v>
+        <v>(1) (४) आणि (०)</v>
       </c>
       <c r="D57" t="str">
-        <v>(2) 1852</v>
+        <v>(2) (७) आणि (d)</v>
       </c>
       <c r="E57" t="str">
-        <v>(3) 1886</v>
+        <v>(3) (a) आणि (b)</v>
       </c>
       <c r="F57" t="str">
-        <v>(4) 1863</v>
+        <v>(4) (०) आणि (व)</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58" t="str">
-        <v>60. मुस्लीम समाजातील पडदापद्धती व बहुपत्नीत्व या पद्धतींना यांनी विरोध केला होता.</v>
+        <v>63. भारतात केंद्रीय पातळीला आर्थिक साधनसामुग्रीचे वाटप करण्याचे काम कोणता आयोग करतो ?</v>
       </c>
       <c r="C58" t="str">
-        <v>(1) सर सय्यद अहमद खान</v>
+        <v>(1) नियोजन आयोग</v>
       </c>
       <c r="D58" t="str">
-        <v>(2) बॅरीस्टर जिना</v>
+        <v>(2) वित्त आयोग</v>
       </c>
       <c r="E58" t="str">
-        <v>(3) खान अब्दुल गफार खान</v>
+        <v>(3) केंद्रीय लोकसेवा आयोग</v>
       </c>
       <c r="F58" t="str">
-        <v>(4) रहेमत अली</v>
+        <v>(4) वरीलपैकी कोणतेही नाही</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B59" t="str">
-        <v>61. गोपाळ गणेश आगरकरांनी 'बालविवाह' ही सामाजिक प्रथा बंद करण्यासाठी 'केसरी त अग्रलेख लिहून बाजू मांडली की</v>
+        <v>64. भारतीय अर्थव्यवस्थेत खालीलपैकी कोणती बाब राजकोषीय धोरणाशी संबंधित आहे ?</v>
       </c>
       <c r="C59" t="str">
-        <v>(1) समाजाने ही प्रथा बंद करावी</v>
+        <v>(1) बॅक दर</v>
       </c>
       <c r="D59" t="str">
-        <v>(2) कायद्याने ही प्रथा बंद करावी</v>
+        <v>(2) कर व HER महसूल |</v>
       </c>
       <c r="E59" t="str">
-        <v>(3) स्त्री-शिक्षणाचा प्रसार करून प्रथा बद करावी</v>
+        <v>(3) प्रत्यक्ष कारवाई</v>
       </c>
       <c r="F59" t="str">
-        <v>(4) हिंदू धर्माने पुढाकार घेऊन प्रथा बंद करावी</v>
+        <v>(4) राखीव निधीचे प्रमाण</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60" t="str">
-        <v>62. तृतीय रत्न हे मराठी नाटक ___ यांनी लिहिले,</v>
+        <v>65. खालील विधाने विचारात घ्या : (a) 1 जानेवारी 1995 रोजी जागतिक व्यापार संघटनेची स्थापना झाली.</v>
       </c>
       <c r="C60" t="str">
-        <v>(1) महर्षी कर्वे</v>
+        <v>(0) जागतिक व्यापार संघटनेचा उद्देश हा आंतरराष्ट्रीय व्यापारातील बंधने दूर करणे आहे.</v>
       </c>
       <c r="D60" t="str">
-        <v>(2) महात्मा फुले</v>
+        <v>(८) भारत हा जागतिक व्यापार संघटनेच्या संस्थापक सदस्यापैकी एक आहे.</v>
       </c>
       <c r="E60" t="str">
-        <v>©</v>
+        <v>वरीलपैकी कोणते/ती विधान/ने असत्य आहे/ आहेत ?</v>
       </c>
       <c r="F60" t="str">
-        <v>(3) दादोबा पांडुरंग</v>
+        <v>(1) (a) आणि</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61" t="str">
-        <v>63. आगरकर, पंडिता रमाबाईंनी काढलेल्या कुठल्या संस्थेचे हितचिंतक होते ?</v>
+        <v>66. साक्षरता (शिक्षण) हा प्रामुख्याने कोणत्या प्रकारच्या विकासाचा निर्देशांक आहे ?</v>
       </c>
       <c r="C61" t="str">
-        <v>(1) महिलाश्रम</v>
+        <v>(1) मानवी साधनसंपत्ती विकास</v>
       </c>
       <c r="D61" t="str">
-        <v>(2) स्त्री-सुधारकेंद्र</v>
+        <v>(2) भौगोलिक विकास</v>
       </c>
       <c r="E61" t="str">
-        <v>(3) स्त्री-आधारकेंद्र</v>
+        <v>(3) आर्थिक विकास</v>
       </c>
       <c r="F61" t="str">
-        <v>(4) शारदासदन</v>
+        <v>(4) राजकोय विकास</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B62" t="str">
-        <v>64. राजर्षी शाहु महाराजांनी कोल्हापूर येथे अस्पृश्य मुलांसाठी सुरु केलेल्या वसतीगृहाचे नाव काय होते ?</v>
+        <v>67. तुटीच्या अर्थसंकल्पामुळे अर्थव्यवस्थेत कोणती आर्थिक समस्या निर्माण होते ?</v>
       </c>
       <c r="C62" t="str">
-        <v>(1) व्हिक्टोरिया वसतीगृह</v>
+        <v>(1) उत्पादनात घट</v>
       </c>
       <c r="D62" t="str">
-        <v>(2) मिस क्लार्क वसतीगृह</v>
+        <v>(2) बँकांना तोटा होतो</v>
       </c>
       <c r="E62" t="str">
-        <v>(3) एस्‌ . एम्‌. क्रेझर वसतीगृह</v>
+        <v>(3) किंमत पातळीत वाढ</v>
       </c>
       <c r="F62" t="str">
-        <v>(4) श्री फिटझिराल वसतीगृह</v>
+        <v>(4) वरीलपैकी कोणतेही नाही</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63" t="str">
-        <v>65. महात्मा फुलेंच्या शाळेतील चौदा वर्षाच्या मुक्ताई या मातंग समाजाच्या मुलीने लिहिलेला निबंध कशावर आधारित आहे ?</v>
+        <v>68. सरकारी अंदाजपत्रकाचे एकूण किती प्रकार आहेत ?</v>
       </c>
       <c r="C63" t="str">
-        <v>(1) सामाजिक स्थितीवर</v>
+        <v>(1) 2 2) 3</v>
       </c>
       <c r="D63" t="str">
-        <v>(2) धार्मिक स्थितीवर</v>
+        <v>(3) 4</v>
       </c>
       <c r="E63" t="str">
-        <v>(3) स्त्रियांच्या स्थितीवर</v>
+        <v>(4) वरीलपैकी कोणतेही नाही</v>
       </c>
       <c r="F63" t="str">
-        <v>(4) शैक्षणिक स्थितीवर</v>
+        <v>(1) 2 2) 3</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B64" t="str">
-        <v>66. महर्षी कर्वे पुणे Af महाविद्यालयात गणिताचे प्राध्यापक होते.</v>
+        <v>69. लोकसंख्येची घनता कशाप्रकारे मोजली जाते ?</v>
       </c>
       <c r="C64" t="str">
-        <v>(1) फर्ग्युसन</v>
+        <v>(1) दर हेक्‍टरी</v>
       </c>
       <c r="D64" t="str">
-        <v>(2) डेक्कन</v>
+        <v>(2) दर चौरस फूट</v>
       </c>
       <c r="E64" t="str">
-        <v>(3) सर परशुरामभाऊ</v>
+        <v>(3) दर चौरस किलोमीटर</v>
       </c>
       <c r="F64" t="str">
-        <v>(4) वाडिया</v>
+        <v>(4) वरीलपैकी कोणतेही नाही</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65" t="str">
-        <v>67. महर्षी कर्वे यांनी ग्रामीण भागात शिक्षण प्रसार करण्यासाठी इ. स. 1936 मध्ये संस्था उघडली</v>
+        <v>70. भारताच्या संदर्भात FE ऑईल नंतर अजून एक खालीलपैकी कोणता महत्वाचा आयात घटक आहे ? (आर्थिक पाहणी 2016 नुसार)</v>
       </c>
       <c r="C65" t="str">
-        <v>(1) महिला विद्यालय</v>
+        <v>(1) वीज यंत्राचे सुरे भाग/साधने आणि उपकरणे</v>
       </c>
       <c r="D65" t="str">
-        <v>(2) अनाथ बालिकाश्रम</v>
+        <v>(2) लोखंड आणि पोलाद</v>
       </c>
       <c r="E65" t="str">
-        <v>(3) ग्राम प्राथमिक शिक्षण मंडळ</v>
+        <v>(3) सोने</v>
       </c>
       <c r="F65" t="str">
-        <v>4) समतामंच</v>
+        <v>(4) वैद्यकीय आणि औषधोत्पादनासंबंधित घटक</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B66" t="str">
-        <v>68. महात्मा फुलेच्या सत्यशोधक समाजाने कशाविरूद्ध आवाज उठविला ?</v>
+        <v>71. कार्बन प्रतिरोधकाचे चार रंग जर केशरी, निळा, पिवळा आणि सोनेरी असल्यास त्याचे मूल्य _ असते.</v>
       </c>
       <c r="C66" t="str">
-        <v>(1) स्त्री-गुलामगिरी</v>
+        <v>(1) 46210१ 0</v>
       </c>
       <c r="D66" t="str">
-        <v>(2) धार्मिक गुलामगिरी</v>
+        <v>(2) 469९10१ 0</v>
       </c>
       <c r="E66" t="str">
-        <v>(3) सामाजिक गुलामगिरी</v>
+        <v>(3) 369९10१ 0</v>
       </c>
       <c r="F66" t="str">
-        <v>(4) शेतकऱ्यांची गुलामगिरी</v>
+        <v>(4) 369९10 0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67" t="str">
-        <v>70. लोकसेवेसाठी कर्वे यांनी संस्थेची स्थापना केली.</v>
+        <v>72. योग्य जोड्या जुळवा : (a) गुरुत्वाकर्षण (i) कूलंब/सेकंद (७) विद्युतधारा (i) आओहमस्‌</v>
       </c>
       <c r="C67" t="str">
-        <v>(1) ग्राम मंडळ</v>
+        <v>(0) वेग (ii) मी./से.?</v>
       </c>
       <c r="D67" t="str">
-        <v>(2) महिला विद्यापीठ</v>
+        <v>(प) विद्युतरोध (iv) मी./सेकंद</v>
       </c>
       <c r="E67" t="str">
-        <v>(3) ग्रामरक्षा</v>
+        <v>पर्यायी उत्तरे : झ</v>
       </c>
       <c r="F67" t="str">
-        <v>(4) निष्काम कर्ममठ</v>
+        <v>(ब) (b) (८ (d)</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68" t="str">
-        <v>71. आगरकर चे संपादक होते.</v>
+        <v>73. खालीलपैकी कोणता ग्रह नाही ?</v>
       </c>
       <c r="C68" t="str">
-        <v>(1) शतपत्रे</v>
+        <v>(1) प्लूटो</v>
       </c>
       <c r="D68" t="str">
-        <v>(2) हरिञन</v>
+        <v>(2) शनि</v>
       </c>
       <c r="E68" t="str">
-        <v>(3) सुधारक</v>
+        <v>(3) युरेनस</v>
       </c>
       <c r="F68" t="str">
-        <v>(4) मराठा</v>
+        <v>(4) नेपच्यून</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69" t="str">
-        <v>72. कोणता कायदा म्हणजे स्त्री-पुरुषांच्या सामाजिक स्वातंत्र्याचा पुरस्कार करणारे शाहु महाराजांचे एक क्रांतिकारी पाऊल होते ?</v>
+        <v>75. खालीलपैकी कोणते विधान उत्प्रेरकासाठी योग्य पर्याय नाही ?</v>
       </c>
       <c r="C69" t="str">
-        <v>(1) विधवांच्या पुनर्विवाहाचा कायदा</v>
+        <v>(1) उत्प्रेरक अँक्रिव्हेशन ऊर्जा कमी करतात.</v>
       </c>
       <c r="D69" t="str">
-        <v>(2) आंतरजातीय विवाहाचा कायदा</v>
+        <v>(2) उत्प्रेरक अभिक्रिया समतोल स्थितीत पोहीचण्यासाठी लागणारा वेळ कमी करते .</v>
       </c>
       <c r="E69" t="str">
-        <v>(3) घटस्फोटाचा व वारसाचा कायदा</v>
+        <v>(3) उत्प्रेरक अभिक्रियेत भाग घेतो आणि वेग वाढवितो.</v>
       </c>
       <c r="F69" t="str">
-        <v>(4) क्रूरपणाच्या वर्तनास प्रतिबंध लावणारा कायदा</v>
+        <v>(4) अभिकारक, उत्पादन व उत्प्रेरक हे नेहमी सम प्रवस्थेत असतात.</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70" t="str">
-        <v>73. गोपाळ गणेश आगरकरांचा सुधारक' हे साप्ताहिक काढण्यामागचा उद्देश काय होता ?</v>
+        <v>76. कार्बन टेट्राक्लोराईडची डायपोल मोमेंट Hs शून्य आहे. उ</v>
       </c>
       <c r="C70" t="str">
-        <v>(1) पाश्‍चिमात्य शिक्षणाचा स्वीकार</v>
+        <v>(1) त्याचा समतल आकार</v>
       </c>
       <c r="D70" t="str">
-        <v>(2) स्त्री-पुरुष समानतेचा स्वीकार</v>
+        <v>(2) त्याचा रेग्युलर टेट्राहैड्ल आकार</v>
       </c>
       <c r="E70" t="str">
-        <v>(3) नवीन बैचारिक दृष्टिकोनाचा स्वीकार</v>
+        <v>(3) कार्बन आणि क्लोरिनच्या अणूंचा सारखा आकारमान</v>
       </c>
       <c r="F70" t="str">
-        <v>(4) व्यक्‍ती-स्वातंत्र्याचा स्वीकार</v>
+        <v>(4) कार्बन आणि FARE इलेक्ट्रॉनची सारखी आसक्ती</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71" t="str">
-        <v>74. टिळकांनी गीतारहस्य हा ग्रंथ या तुरुंगात लिहिला.</v>
+        <v>77. शार्कबाबत योग्य तो पर्याय निवडा : (a) अधर बाजूस मुख (0) जरायुज (९) सायक्लॉईड खवले (प) कास्थीमय अंत:कंकाल पर्यायी उत्तरे :</v>
       </c>
       <c r="C71" t="str">
-        <v>(1) अंदमान</v>
+        <v>(1) (a), (by आणि (व)</v>
       </c>
       <c r="D71" t="str">
-        <v>(2) येरवडा</v>
+        <v>(2) फकत (a) आणि (०)</v>
       </c>
       <c r="E71" t="str">
-        <v>(3) मंडाले</v>
+        <v>(3) फकत</v>
       </c>
       <c r="F71" t="str">
-        <v>(4) अहमदनगर</v>
+        <v>(9) आणि (व)</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72" t="str">
-        <v>75. महर्षी कर्व्यांनी 21 एप्रिल, 1944 मध्ये स्थापन केलेला 'समता संघ* कुठल्या संस्थेत पुढे अंतर्भूत झाला ?</v>
+        <v>78. प्रश्‍नचिन्हाच्या जागी योग्य पर्याय निवडा. झुरळ : माल्पिघिअन नलिका : : गांडूळ ?</v>
       </c>
       <c r="C72" t="str">
-        <v>(1) जाती-निर्मूलन संस्था</v>
+        <v>(1) आचवलन</v>
       </c>
       <c r="D72" t="str">
-        <v>(2) स्त्री-पुरुष समानता संघ</v>
+        <v>(2) प्रमेखला</v>
       </c>
       <c r="E72" t="str">
-        <v>(3) स्त्री-पुरुष शिक्षण संघ</v>
+        <v>(3) मूत्रपिंड</v>
       </c>
       <c r="F72" t="str">
-        <v>(4) सर्व धर्मीय संघ</v>
+        <v>(4) वृक्कक</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73" t="str">
-        <v>76. महर्षी कर्व्यांना 3 जून, 1916 रोजी स्थापन केलेल्या महिला विद्यापिठाची प्रेरणा कुणाकडून मिळाली ?</v>
+        <v>79. प्राण्यांच्या बाबतीत खाली काही विधाने दिली आहेत. (a) सर्व पृष्ठवंशीय प्राणी समपृष्ठरज्जू प्राणी आहेत. (b) सर्व प्रकारचे पक्षी हवेत उडतात. (९) सर्व किटक परपोषी आहेत. (प) सवं मृदुकाय प्राणी कवचधारी आहेत. वरीलपैकी कोणते/ती विधान/विधाने बरोबर आहेत ?</v>
       </c>
       <c r="C73" t="str">
-        <v>(1) अमेरिका वुमेन्स युनिव्हर्सिटी</v>
+        <v>(1) फकत (७) आणि (०)</v>
       </c>
       <c r="D73" t="str">
-        <v>(2) मास्को वुमेन्स युनिव्हर्सिटी</v>
+        <v>(2) फक्त (a)</v>
       </c>
       <c r="E73" t="str">
-        <v>(3) जपान वुमेन्स युनिव्हर्सिटी</v>
+        <v>(3) फकत (८) आणि (वी.</v>
       </c>
       <c r="F73" t="str">
-        <v>(4) फ्रान्स वुमेन्स युनिव्हर्सिटी</v>
+        <v>(4) फक्त (७)</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74" t="str">
-        <v>77. डॉ. बाबासाहेब आंबेडकरांना 1923 साली लंडन विद्यापिठाने अर्थशास्त्रातील कोणत्या प्रबंधाबद्दल 'डॉक्टर ऑफ सायन्स ही पदवी दिली ?</v>
+        <v>80. ब्रायोफायरा A बाबतींत टेरिडोफायटा पेक्षा वेगळे असतात.</v>
       </c>
       <c r="C74" t="str">
-        <v>(1) द प्रॉब्लेम्स ऑफ रुपी</v>
+        <v>(1) वाहिनीयुक्त</v>
       </c>
       <c r="D74" t="str">
-        <v>(2) द प्रॉब्लेम्स ऑफ मनी'</v>
+        <v>(2) वीजे</v>
       </c>
       <c r="E74" t="str">
-        <v>(3) अँडमिनिस्ट्रेशन अण्ड फायनान्स अँट द ईस्ट इंडिया कंपनी</v>
+        <v>(3) बिंगर-वाहिनीयुक्त</v>
       </c>
       <c r="F74" t="str">
-        <v>(4) 'द इव्होल्युशन अट प्रिन्सीपल फायनान्स इन ब्रिटीश इंडिया</v>
+        <v>(4) बिजुकधारी</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75" t="str">
-        <v>78. कशामधील डॉ. आंबेडकरांचे अग्रलेख म्हणजे शैलीच्या सौंदर्याने सजलेले बैचाशकि गद्य होय ?</v>
+        <v>81. भुरी रोगाच्या नियंत्रणासाठी क्रोणत्या रोगनाशकाचा वापर करतात ? वरीलपैकी कोणता पर्याय/पर्याये बरोबर आहेत ?</v>
       </c>
       <c r="C75" t="str">
-        <v>(1) मूकनायक</v>
+        <v>(1)</v>
       </c>
       <c r="D75" t="str">
-        <v>(2) बहिष्कृत भारत</v>
+        <v>(8) आणि (७) फक्त</v>
       </c>
       <c r="E75" t="str">
-        <v>(3) समतापत्र</v>
+        <v>(2) (७) फक्त</v>
       </c>
       <c r="F75" t="str">
-        <v>(4) श्रबुद्ध भारत</v>
+        <v>(3) (०) फक्त</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76" t="str">
-        <v>79. कोल्हापूरमध्ये मोफत शिक्षण देणाऱ्या शाळा कोणी सुरु कैल्या ?</v>
+        <v>82. वनस्पती वर्गीकरणाची नैसर्गिक पद्धत कोणी मांडली ?</v>
       </c>
       <c r="C76" t="str">
-        <v>(1) कर्मवीर भाऊराव पाटील</v>
+        <v>(1) एंजलर आणि प्रॅन्टल</v>
       </c>
       <c r="D76" t="str">
-        <v>(2) शाहु महाराज</v>
+        <v>(2) बेस्सी</v>
       </c>
       <c r="E76" t="str">
-        <v>(3) गो. कृ. गोखले</v>
+        <v>(3) बेनथम आणि हुकर</v>
       </c>
       <c r="F76" t="str">
-        <v>(4) डॉ. बाबासाहेब आंबेडकर</v>
+        <v>(4) dS</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B77" t="str">
-        <v>80. ' डोंगरीच्या तुरुंगातील 101 दिवस'' हे पुस्तक कोणी लिहिले ?</v>
+        <v>84. मनुष्य व प्राण्यांच्या आतड्यातले जीवजंतू हे मैला प्रदूषणाचे द्योतक आहेत कारण :</v>
       </c>
       <c r="C77" t="str">
-        <v>(1) लोकमान्य टिळक</v>
+        <v>(1) हे जंतू रोगकारक आहेत.</v>
       </c>
       <c r="D77" t="str">
-        <v>(2) चिपळूणकर</v>
+        <v>(2) ते दुग्धशर्करेचे विघटन करतात.</v>
       </c>
       <c r="E77" t="str">
-        <v>(3) आगरकर</v>
+        <v>(3) ते मनुष्याच्या आतड्यात खूप मोठ्या संख्येने आढळून येतात.</v>
       </c>
       <c r="F77" t="str">
-        <v>(4) डॉ. आंबेडकर</v>
+        <v>(4) ते 48 तासांत वाढतात.</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B78" t="str">
-        <v>81. क्षेत्रफळाच्या दृष्टीने भारत हा जगातील क्रमांकाचा देश आहे.</v>
+        <v>85. 1948 साली, झीया मेस मधून प्रथमच ट्रान्स्पोझॉनस्‌ शोधून काढण्याचे श्रेय यांना जाते.</v>
       </c>
       <c r="C78" t="str">
-        <v>(1) तीन</v>
+        <v>(1) बार्बारा मॅकक्लीन्टॉक</v>
       </c>
       <c r="D78" t="str">
-        <v>(2) पाच</v>
+        <v>(2) केरी म्यूलिस</v>
       </c>
       <c r="E78" t="str">
-        <v>(3) सात</v>
+        <v>(3) स्टॅन्ले कोहेन</v>
       </c>
       <c r="F78" t="str">
-        <v>(4) नऊ</v>
+        <v>(4) हर्बर्ट बॉयर</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B79" t="str">
-        <v>82. झासकर, लडाख व काराकोरम पर्वतरांगांचे TIF हिमालयात आहे.</v>
+        <v>86. अजिंक्य, रमेश व वैभव यांना प्रथम, दुसरा व तिसरा क्रमांक मिळाला. : पण क्रमाने नव्हे. त्यांना विचारले असता ते प्रत्येकी दोन उत्तरे देतात. त्यापैकी एक खरे व दुसरे खोटे असते. पण त्याच क्रमाने नव्हे. त्यांची उत्तरे खालीलप्रमाणे आहेत. रमेश : मला प्रथम क्रमांक मिळाला. अजिंक्यला दुसरा क्रमांक मिळाला. वैभव : मला प्रथम क्रमांक मिळाला. रमेशला दुसरा क्रमांक मिळाला. अजिंक्य : मला प्रथम क्रमांक मिळाला, रमेशला तिसरा क्रमांक मिळाला. अजिंक्यला कोणता क्रमांक मिळाला नाही ?</v>
       </c>
       <c r="C79" t="str">
-        <v>(1) कुमाउन</v>
+        <v>(1) पहिला</v>
       </c>
       <c r="D79" t="str">
-        <v>(2) काश्मिर</v>
+        <v>(2) दुसरा</v>
       </c>
       <c r="E79" t="str">
-        <v>(3) पूर्व</v>
+        <v>(3) तिसरा</v>
       </c>
       <c r="F79" t="str">
-        <v>(4) मध्य</v>
+        <v>(4) निश्‍चित सांगता येत नाही</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B80" t="str">
-        <v>83. हा भारतातील सर्वात उंच धबधबा आहे.</v>
+        <v>87. पुढे दिलेली माहिती व त्यावर आधारित अनुमाने अभ्यासा. योग्य तर्कसंगत विधान/ने निवडा. चार पुरुष विमानतळावर थांबले आहेत. दोघे डॉक्टर आहेत आणि अन्य दोघे व्यापारी आहेत. दोघे गुजराती बोलतात आणि दोघे तामील बोलतात. दोघे मुस्लिम आहेत आणि दोघे खिश्चन आहेत. समान समान व्यवसाय असणाऱ्या पुरुषांतील कोणीही समान धर्माचे नाहीत की समान भाषकही नाहीत. तामीळ बोलणारा डॉक्टर ख्रिश्चन आहे. अनुमाने : (1) खिश्चन व्यापारी गुजराती बोलतो.</v>
       </c>
       <c r="C80" t="str">
-        <v>(1) जोग</v>
+        <v>(11) गुजराती बोलणारा डॉक्टर मुस्लिम आहे.</v>
       </c>
       <c r="D80" t="str">
-        <v>(2) नायगारा</v>
+        <v>पर्यायी उत्तरे :</v>
       </c>
       <c r="E80" t="str">
-        <v>(3) कपिलधारा</v>
+        <v>(1) फक्त</v>
       </c>
       <c r="F80" t="str">
-        <v>(4) शिवसमुद्र</v>
+        <v>(1)</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B81" t="str">
-        <v>84. भारतामध्ये दर वर्षांनी पशुगणना केली जाते.</v>
+        <v>88. दिलेली माहिती अभ्यासा : A, B,C, 1) आणि E या व्यक्‍ती बागेतील बाकांवर उत्तरेकडे तोंड करून बसलेल्या आहेत. 1 ही D च्या उजवीकडे 50 मी. अंतरावर आहे, A ही 1 च्या दक्षिणेला 60 मी. अंतरावर आहे, C ही D च्या पश्चिमेला 40 मी. अंतरावर आहे आणि 1: ही A च्या उत्तरेला 80 मी. अंतरावर आहे. C आणि E दरम्यानच्या कमीत कमी अंदाजे अंतराचे मीटरमध्ये सर्वात उचित वर्णन करणारा पर्याय निवडा :</v>
       </c>
       <c r="C81" t="str">
-        <v>(1) दहा</v>
+        <v>(1) ते निश्‍चितपणे 110 मी. पेक्षा जास्त असणार.</v>
       </c>
       <c r="D81" t="str">
-        <v>(2) बारा</v>
+        <v>(2) ते निश्‍चितपणे 92 मी. च्या सर्वात जास्त जवळ असणार.</v>
       </c>
       <c r="E81" t="str">
-        <v>(3) सात</v>
+        <v>(3) ते निश्‍चितपणे 91 मीटरच्या सर्वांत जास्त जवळ असणार. |</v>
       </c>
       <c r="F81" t="str">
-        <v>(4) पाच</v>
+        <v>(4) ते निश्‍चितपणे 110 मी. पेक्षा कमी असणार.</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B82" t="str">
-        <v>85. श्योक, झासकर आणि गिलगिट या नद्या या नदीच्या प्रमुख उपनद्या आहेत.</v>
+        <v>90. एका संख्येतून 5 वजा करून 7 ने भागल्यास उत्तर 2 येते. तर त्या संख्येतून 4 वजा करून 3 ने भागल्यास उत्तर किती येईल ?</v>
       </c>
       <c r="C82" t="str">
-        <v>(1) गंगा</v>
+        <v>(1) 5</v>
       </c>
       <c r="D82" t="str">
-        <v>(2) कोसी</v>
+        <v>(2) 6 3) 7</v>
       </c>
       <c r="E82" t="str">
-        <v>(3) महानंदा</v>
+        <v>(4) 8</v>
       </c>
       <c r="F82" t="str">
-        <v>(4) सिंधु</v>
+        <v>(1) 5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B83" t="str">
-        <v>86. हे राज्य तंबाखू उत्पादनात अग्रेसर आहे.</v>
+        <v>91. A, 9, € आणि D हे मार्कच्या मळ्यात काम करतात. त्या सर्वांना मिळून त्याने एकूण वीस कलिंगडे दिली. त्यापैकी एकाला दोन मिळाली, दुसऱ्याला चार मिळाली, तिसऱ्याला सहा आणि चौथ्याला आठ मिळाली. A ला B पेक्षा जास्त नेहमीच सत्य ठरेलच असे/अशी विधान/ने निवडा. विधाने : (a) A ला नेहमीच C पेक्षा जास्त कलिंगडे मिळतील,</v>
       </c>
       <c r="C83" t="str">
-        <v>(1) आंध्रप्रदेश</v>
+        <v>(0) € ला कधीही A ला मिळाली तितकी कलिंगडे मिळणार नाहीत.</v>
       </c>
       <c r="D83" t="str">
-        <v>(2) महाराष्ट्र</v>
+        <v>(९) D ला त्याच्या बरोबर काम करणाऱ्या कोणाही SAFI] जास्त कलिंगडे मिळणे शक्‍य नाही.</v>
       </c>
       <c r="E83" t="str">
-        <v>(3) कर्नाटक</v>
+        <v>(4) B® नेहमीच A पेक्षा कमी कलिंगडे मिळतील.</v>
       </c>
       <c r="F83" t="str">
-        <v>(4) गुजरात</v>
+        <v>पर्यायी उत्तरे :</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B84" t="str">
-        <v>87. सोलापूर-विजापूर-हुबळी हा राष्ट्रीय महामार्ग क्रमांक आहे.</v>
+        <v>92. C, आणि € या दोन महाविद्यालयांतील एकूण 480 विद्यार्थ्यांचे ते वापरत असलेल्या संगणकाच्या प्रकाराबाबत सर्वेक्षण करण्याते आले. त्या सर्वेक्षणातून गोळा झालेली काही माहिती पुढील तक्त्यात दर्शविली आहे. C, आणि C, या महाविद्यालयातील विद्यार्थ्यांचे प्रमाण 9 : 7 आहे. |: 1-7 i C, महाविद्यालयातील किती विद्यार्थ्यांकडे किमान एक प्रकारचा संगणक आहे ?</v>
       </c>
       <c r="C84" t="str">
-        <v>(1) नऊ</v>
+        <v>(1) 195</v>
       </c>
       <c r="D84" t="str">
-        <v>(2) तेरा</v>
+        <v>(2) 90</v>
       </c>
       <c r="E84" t="str">
-        <v>(3) सात</v>
+        <v>(3) 315</v>
       </c>
       <c r="F84" t="str">
-        <v>(4) आढ</v>
+        <v>(4) 255</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B85" t="str">
-        <v>88. कोणत्या नदीला बिहारचे दु:खाश्चु म्हणतात ?</v>
+        <v>93. परिसंवादासाठी जमलेल्या सहभागींपैकी 32 व्यक्‍ती 'चहा पितात, 35 व्यकती कॉफी पितात आणि 22 जण चहा आणि कॉफी पितात तर परिसंवादासाठी जमलेल्या व्यक्तींची संख्या निवडा.</v>
       </c>
       <c r="C85" t="str">
-        <v>(1) कोसी</v>
+        <v>(1) 44</v>
       </c>
       <c r="D85" t="str">
-        <v>(2) दामोदर</v>
+        <v>(2) 41</v>
       </c>
       <c r="E85" t="str">
-        <v>(3) गंडक</v>
+        <v>(3) 55</v>
       </c>
       <c r="F85" t="str">
-        <v>(4) घागरा</v>
+        <v>(4) 45</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B86" t="str">
-        <v>89. लोह व अल्युमिनिअमचे प्रमाण कोणत्या मृदेमध्ये जास्त असते 7</v>
+        <v>94. एक भाग लपवलेला आहे अशी षटकोनाकार प्रतिमा पूर्ण करण्यासाठी प्रतलातील स्थिती न बदलता वा उलटवता ठंवण्यासाठी उचित त्रिकोणाकार प्रतिमा निवडा. सा YAN AWA त ९८४ ७ XS ८५ टा ८” स 7 Va 4 “XE J</v>
       </c>
       <c r="C86" t="str">
-        <v>(1) काळी मृदा</v>
+        <v/>
       </c>
       <c r="D86" t="str">
-        <v>(2) गाळाची मृदा</v>
+        <v/>
       </c>
       <c r="E86" t="str">
-        <v>(3) जांभी मृदा</v>
+        <v/>
       </c>
       <c r="F86" t="str">
-        <v>(4) पिवळसर मृदा</v>
+        <v/>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B87" t="str">
-        <v>90. अभयाणण्यांची संख्या व क्षेत्रफळ सर्वात जास्त असलेले राज्य आहे.</v>
+        <v>95. दिलेल्या संख्या मालिकेतील प्रश्‍नचिन्हाऐवजी उचित पर्याय निवडा. 4, 13, 38, _ 2, 168, 289, 458. 1) 72 (2) 8&amp;7 (3) 103 (4) 129 4,13,38, _7__, 168, 289, 458.</v>
       </c>
       <c r="C87" t="str">
-        <v>(1) हिमाचल प्रदेश</v>
+        <v>(1) 72</v>
       </c>
       <c r="D87" t="str">
-        <v>(2) महाराष्ट</v>
+        <v>(2) 87</v>
       </c>
       <c r="E87" t="str">
-        <v>(3) गुजरात</v>
+        <v>(3) 103</v>
       </c>
       <c r="F87" t="str">
-        <v>(4) राजस्थान</v>
+        <v>(4) 129</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B88" t="str">
-        <v>91. जम्मुव काश्मिर या राज्यामधील सलाल जलविद्युत्‌ प्रकल्प 0" नंदीवर आहे न</v>
+        <v>96. समीरने जुना टि.व्ही. ₹ 4,700 ला विकत घेतला. त्यासाठी ₹ 800 दुरुस्ती खर्च झाला. त्याने तो ₹ 5,800 ला विकला तर त्याचा शेकडा नफा किती ? 4, J 4, 0</v>
       </c>
       <c r="C88" t="str">
-        <v>(1) रावी</v>
+        <v>(1) 10</v>
       </c>
       <c r="D88" t="str">
-        <v>(2) बियास</v>
+        <v>(2) शन 0</v>
       </c>
       <c r="E88" t="str">
-        <v>(3) चिनाब</v>
+        <v>(3) 10%</v>
       </c>
       <c r="F88" t="str">
-        <v>(4) व्यास</v>
+        <v>(4) 12%</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B89" t="str">
-        <v>92. भारतातील सर्वात जास्त तांबे उत्पादन करणारे राज्य आहे.</v>
+        <v>97. समान उंचीचे दोन खांब 80 मी. रूंद असलेल्या रस्त्याच्या विरुद्ध दिशेला आहेत. त्या खांबांमधील रस्त्यावर असलेल्या एका बिंदूने त्यांच्या टोकांशी केलेला उन्नत कोन अनुक्रमे 60° व 30° आहेत. तर खांबांची उंची किती ?</v>
       </c>
       <c r="C89" t="str">
-        <v>(1) कर्नाटक</v>
+        <v>(1) 20 मी.</v>
       </c>
       <c r="D89" t="str">
-        <v>(2) झारखंड</v>
+        <v>(2) 20२53 मी.</v>
       </c>
       <c r="E89" t="str">
-        <v>(3) आंध्रप्रदेश</v>
+        <v>(3) 60 मी.</v>
       </c>
       <c r="F89" t="str">
-        <v>(4) उत्तर प्रदेश</v>
+        <v>(4) 6035 मी.</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B90" t="str">
-        <v>93. संकल्पित जैतापूर अणु-ऊर्जा प्रकल्पाचे स्थान या जिल्ह्यात आहे.</v>
+        <v>98. पुढील संख्यामालेत x च्या जागी कोणती संख्या असेल? 3, 7, 15, 31, x, 127, 255, 511</v>
       </c>
       <c r="C90" t="str">
-        <v>(1) रत्नागिरी</v>
+        <v>(1) 59</v>
       </c>
       <c r="D90" t="str">
-        <v>(2) सिंधुदुर्ग</v>
+        <v>(2) 60</v>
       </c>
       <c r="E90" t="str">
-        <v>(3) कोल्हापूर</v>
+        <v>(3) 62</v>
       </c>
       <c r="F90" t="str">
-        <v>(4) सोलापूर</v>
+        <v>(4) 63</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91" t="str">
-        <v>95. खालीलपैकी कोणत्या जिल्ह्यात चामड्याच्या वस्तु बनविण्याचा उद्योग मोठ्या प्रमाणावर चालतो ?</v>
+        <v>99. स्वाती आणि प्रिती यांच्या आजच्या वयाचे गुणोत्तर 3: 5 आहे. 7 वर्षानंतर त्यांच्या वयाचे गुणोत्तर 11: 16 होईल. तर प्रितीचे आजचे वय काय?</v>
       </c>
       <c r="C91" t="str">
-        <v>(1) सिंधुदुर्ग</v>
+        <v>(1) 15 वर्षे</v>
       </c>
       <c r="D91" t="str">
-        <v>(2) रत्नागिरी</v>
+        <v>(2) 25 वर्षे</v>
       </c>
       <c r="E91" t="str">
-        <v>(3) सातारा</v>
+        <v>(3) 11 वर्ष</v>
       </c>
       <c r="F91" t="str">
-        <v>(4) कोल्हापूर</v>
+        <v>(4) 40 वर्ष</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92" t="str">
-        <v>96. खालीलपैकी कोणत्या ठिकाणास महाराष्ट्रातील चेरापुंजी असे म्हटले जाते ?</v>
+        <v>100. एका रकमेवर दौन वर्षांकरिता 4% दराने मिळालेल्या चक्रवाढ व्याज व सरळ व्याज यातील फरक ₹ 8 आहे. तर ती रक्‍कम किती ?</v>
       </c>
       <c r="C92" t="str">
-        <v>(1) माथेरान</v>
+        <v>(1) 3,000</v>
       </c>
       <c r="D92" t="str">
-        <v>(2) आंबोळी</v>
+        <v>(2) ₹ 4,000</v>
       </c>
       <c r="E92" t="str">
-        <v>(3) रामटेक</v>
+        <v>(3) ₹ 5,000</v>
       </c>
       <c r="F92" t="str">
-        <v>(4) लोणावळा</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="str">
-        <v>97</v>
-      </c>
-      <c r="B93" t="str">
-        <v>97. खालीलपैकी कोणता जिल्हा महाराष्ट्रामध्ये लोकसंख्येच्या दृष्टीने सर्वात मोठा आहे ?</v>
-      </c>
-      <c r="C93" t="str">
-        <v>(1) पुणे</v>
-      </c>
-      <c r="D93" t="str">
-        <v>(2) नागपूर</v>
-      </c>
-      <c r="E93" t="str">
-        <v>(3) ठाणे</v>
-      </c>
-      <c r="F93" t="str">
-        <v>(4) कोल्हापूर</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="str">
-        <v>99</v>
-      </c>
-      <c r="B94" t="str">
-        <v>99. महाराष्ट्रात खालीलपैकी कोणत्या ठिकाणी ऊस संशोधन केंद्र सुरु करण्यात आले आहे ?</v>
-      </c>
-      <c r="C94" t="str">
-        <v>(1) लोणंद</v>
-      </c>
-      <c r="D94" t="str">
-        <v>(2) पाडेगाव</v>
-      </c>
-      <c r="E94" t="str">
-        <v>(3) शेखमिरेवाडी</v>
-      </c>
-      <c r="F94" t="str">
-        <v>(4) कागल</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="str">
-        <v>100</v>
-      </c>
-      <c r="B95" t="str">
-        <v>100. खालीलपैकी कोणती वस्ती महानगरपालिका नाही ?</v>
-      </c>
-      <c r="C95" t="str">
-        <v>(1) नागपूर</v>
-      </c>
-      <c r="D95" t="str">
-        <v>(2) भिवंडी</v>
-      </c>
-      <c r="E95" t="str">
-        <v>(3) पुणे</v>
-      </c>
-      <c r="F95" t="str">
-        <v>(4) बुलढाणा</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="str">
-        <v>101</v>
-      </c>
-      <c r="B96" t="str">
-        <v>101. उत्तरांचल, छत्तीसगड, झारखंड या राज्यांची निर्मिती या पंचवार्षिक योजनेत झाली.</v>
-      </c>
-      <c r="C96" t="str">
-        <v>(1) नवव्या</v>
-      </c>
-      <c r="D96" t="str">
-        <v>(2) सातव्या</v>
-      </c>
-      <c r="E96" t="str">
-        <v>(3) AAT</v>
-      </c>
-      <c r="F96" t="str">
-        <v>(4) वरीलपैकी नाही</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="str">
-        <v>102</v>
-      </c>
-      <c r="B97" t="str">
-        <v>102. भारताच्या दहाव्या पंचवार्षिक योजनेनुसार (2002-2007) शेती क्षेत्रामधून अजूनही टक्के रोजगार निर्मिती होते आहे.</v>
-      </c>
-      <c r="C97" t="str">
-        <v>(1) 50.3</v>
-      </c>
-      <c r="D97" t="str">
-        <v>(2) 40.4</v>
-      </c>
-      <c r="E97" t="str">
-        <v>(3) 45.0</v>
-      </c>
-      <c r="F97" t="str">
-        <v>(4) 58.4</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="str">
-        <v>103</v>
-      </c>
-      <c r="B98" t="str">
-        <v>103. हिराकूड योजना निर्मिती ही पंचवार्षिक योजनेची निष्पत्ती आहे.</v>
-      </c>
-      <c r="C98" t="str">
-        <v>(1) पहिल्या</v>
-      </c>
-      <c r="D98" t="str">
-        <v>(2) दुसऱ्या</v>
-      </c>
-      <c r="E98" t="str">
-        <v>(3) तिसऱ्या</v>
-      </c>
-      <c r="F98" t="str">
-        <v>(4) चौथ्या</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="str">
-        <v>104</v>
-      </c>
-      <c r="B99" t="str">
-        <v>104. - हे नियोजन आयोगाचे पहिले अध्यक्ष होते.</v>
-      </c>
-      <c r="C99" t="str">
-        <v>(1) श्री. जवाहरलाल नेहरु</v>
-      </c>
-      <c r="D99" t="str">
-        <v>(2) श्री. राजेंद्र प्रसाद</v>
-      </c>
-      <c r="E99" t="str">
-        <v>(3) श्री, सी. डी. देशमुख</v>
-      </c>
-      <c r="F99" t="str">
-        <v>(4) श्री. के. सी. पंत</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="str">
-        <v>105</v>
-      </c>
-      <c r="B100" t="str">
-        <v>105. भारतातील पहिला खत कारखाना पहिल्या पंचवार्षिक योजनेत येथे सुरु झाला.</v>
-      </c>
-      <c r="C100" t="str">
-        <v>(1) भटिंडा ARE</v>
-      </c>
-      <c r="D100" t="str">
-        <v>(3) कोची</v>
-      </c>
-      <c r="E100" t="str">
-        <v>(4) हाजिरा</v>
-      </c>
-      <c r="F100" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="str">
-        <v>106</v>
-      </c>
-      <c r="B101" t="str">
-        <v>106. 11 व्या पंचवार्षिक योजनेचा कालावधी आहे.</v>
-      </c>
-      <c r="C101" t="str">
-        <v>(1) 2008-2013</v>
-      </c>
-      <c r="D101" t="str">
-        <v>(2) 2009-2014</v>
-      </c>
-      <c r="E101" t="str">
-        <v>(3) 2007-2012</v>
-      </c>
-      <c r="F101" t="str">
-        <v>(4) 2010-2015</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="str">
-        <v>107</v>
-      </c>
-      <c r="B102" t="str">
-        <v>107. खालीलपैकी कोणत्या तरतूदीद्वारे न्यायालयीन हस्तक्षेपाच्या माध्यमातून मूलभूत अधिकारांच्या संरक्षणाची हमी मिळते ?</v>
-      </c>
-      <c r="C102" t="str">
-        <v>(1) अनुच्छेद 32</v>
-      </c>
-      <c r="D102" t="str">
-        <v>(2) अनुच्छेद 25</v>
-      </c>
-      <c r="E102" t="str">
-        <v>(3) अनुच्छेद 14</v>
-      </c>
-      <c r="F102" t="str">
-        <v>(4) अनुच्छेद 30</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="str">
-        <v>108</v>
-      </c>
-      <c r="B103" t="str">
-        <v>108. खालीलपैकी कोणते उद्दिष्ट्य राज्यांच्या मार्गदर्शक तत्त्वांमध्ये समाविष्ट नाही ?</v>
-      </c>
-      <c r="C103" t="str">
-        <v>(1) गो हत्या थांबविणे</v>
-      </c>
-      <c r="D103" t="str">
-        <v>(2) कुटिरोद्योगांची स्थापना करणे</v>
-      </c>
-      <c r="E103" t="str">
-        <v>(3) आंतरराष्ट्रीय शांतता वृद्धींगत करणे</v>
-      </c>
-      <c r="F103" t="str">
-        <v>(4) देहाताची शिक्षा रद्द करणे</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="str">
-        <v>109</v>
-      </c>
-      <c r="B104" t="str">
-        <v>109. भारतीय राज्यघटना रोजी स्वीकारण्यात आली.</v>
-      </c>
-      <c r="C104" t="str">
-        <v>(1) नोव्हेंबर 26, 1949</v>
-      </c>
-      <c r="D104" t="str">
-        <v>(2) जानेवारी 26, 1949</v>
-      </c>
-      <c r="E104" t="str">
-        <v>(3) जानेवारी 26, 1950</v>
-      </c>
-      <c r="F104" t="str">
-        <v>(4) नोव्हेंबर 10, 1949</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="str">
-        <v>110</v>
-      </c>
-      <c r="B105" t="str">
-        <v>110. भारतीय न्यायपालिकेचे वैशिष्ट्य कोणते ?</v>
-      </c>
-      <c r="C105" t="str">
-        <v>(1) एकेरी ब एकात्म न्यायपालिका</v>
-      </c>
-      <c r="D105" t="str">
-        <v>(2) न्यायपालिकेस विधीमंडळ नियंत्रित करते</v>
-      </c>
-      <c r="E105" t="str">
-        <v>(3) न्यायपालिकेस सरकार नियंत्रित करते</v>
-      </c>
-      <c r="F105" t="str">
-        <v>(4) हे सर्व</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="str">
-        <v>111</v>
-      </c>
-      <c r="B106" t="str">
-        <v>111. राष्ट्रपतींकडून लोकसभेमध्ये अँग्लो इंडियन सदस्य नेमले जातात.</v>
-      </c>
-      <c r="C106" t="str">
-        <v>(1) तीन</v>
-      </c>
-      <c r="D106" t="str">
-        <v>(2) दोन</v>
-      </c>
-      <c r="E106" t="str">
-        <v>(3) चार</v>
-      </c>
-      <c r="F106" t="str">
-        <v>(4) पाच</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="str">
-        <v>112</v>
-      </c>
-      <c r="B107" t="str">
-        <v>112. देशातील कायद्यांची निर्मिती करणारी सर्वोच्च संस्था म्हणजे होय.</v>
-      </c>
-      <c r="C107" t="str">
-        <v>(1) राज्य विधिमंडळ</v>
-      </c>
-      <c r="D107" t="str">
-        <v>(2) कार्यकारी मंडळ</v>
-      </c>
-      <c r="E107" t="str">
-        <v>(3) संसद</v>
-      </c>
-      <c r="F107" t="str">
-        <v>(4) न्यायमंडळ</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="str">
-        <v>114</v>
-      </c>
-      <c r="B108" t="str">
-        <v>114. उच्च न्यायालयाचे न्यायाधिश कडून नियुक्त केले जातात.</v>
-      </c>
-      <c r="C108" t="str">
-        <v>(1) सर्वोच्च न्यायालय</v>
-      </c>
-      <c r="D108" t="str">
-        <v>(2) राज्यपाल</v>
-      </c>
-      <c r="E108" t="str">
-        <v>(3) मुख्यमंत्री</v>
-      </c>
-      <c r="F108" t="str">
-        <v>(4) राष्ट्रपती</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="str">
-        <v>115</v>
-      </c>
-      <c r="B109" t="str">
-        <v>115. विधानपरिषद असलेल्या राज्यातील विधान परिषदेत कमीत कमी 40 व जास्तीत जास्त त्या राज्यातील विधानसभा सदस्य संख्येच्या इतके सभासद असू शकतात.</v>
-      </c>
-      <c r="C109" t="str">
-        <v>(1) दोन तृतियांश</v>
-      </c>
-      <c r="D109" t="str">
-        <v>(2) एक तृतियांश</v>
-      </c>
-      <c r="E109" t="str">
-        <v>(3) एक चतुर्थांश</v>
-      </c>
-      <c r="F109" t="str">
-        <v>(4) यापैकी नाही</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="str">
-        <v>116</v>
-      </c>
-      <c r="B110" t="str">
-        <v>116. ची मर्जी असेपर्यंत राज्यपाल आपल्या पदावर राहू शकतात.</v>
-      </c>
-      <c r="C110" t="str">
-        <v>(1) राष्ट्रपती</v>
-      </c>
-      <c r="D110" t="str">
-        <v>(2) पतप्रधान</v>
-      </c>
-      <c r="E110" t="str">
-        <v>(3) संसद</v>
-      </c>
-      <c r="F110" t="str">
-        <v>(4) सर्वाच्च न्यायालय</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="str">
-        <v>117</v>
-      </c>
-      <c r="B111" t="str">
-        <v>117. हा संघराज्य व घटकराज्य यामधील दुवा म्हणून कार्य करतो.</v>
-      </c>
-      <c r="C111" t="str">
-        <v>(1) मुख्यमंत्री</v>
-      </c>
-      <c r="D111" t="str">
-        <v>(2) पंतप्रधान</v>
-      </c>
-      <c r="E111" t="str">
-        <v>(3) राष्ट्रपती</v>
-      </c>
-      <c r="F111" t="str">
-        <v>(4) राज्यपाल</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="str">
-        <v>118</v>
-      </c>
-      <c r="B112" t="str">
-        <v>118. राज्य मंत्रीमंडळाच्या बैठकीच्या अध्यक्षस्थानी हे असतात.</v>
-      </c>
-      <c r="C112" t="str">
-        <v>(1) उपराष्ट्रपती</v>
-      </c>
-      <c r="D112" t="str">
-        <v>(2) राज्याचे सचिव</v>
-      </c>
-      <c r="E112" t="str">
-        <v>(3) मुख्यमंत्री</v>
-      </c>
-      <c r="F112" t="str">
-        <v>(4) राज्यपाल</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="str">
-        <v>119</v>
-      </c>
-      <c r="B113" t="str">
-        <v>119. महाराष्ट्रातून लोकसभा व राज्यसभेवर निर्वाचित होणाऱ्या सदस्यांची एकूण सदस्य संख्या आहे.</v>
-      </c>
-      <c r="C113" t="str">
-        <v>(1) 288</v>
-      </c>
-      <c r="D113" t="str">
-        <v>(2) 19</v>
-      </c>
-      <c r="E113" t="str">
-        <v>(3) 48</v>
-      </c>
-      <c r="F113" t="str">
-        <v>(4) 67</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="str">
-        <v>120</v>
-      </c>
-      <c r="B114" t="str">
-        <v>120. नागरी भागातील स्थानिक स्वराज्य संस्थांविषयीच्या नवीन तरतूदी घटनादुरुस्तीद्वारे समाविष्ट करण्यात आल्या.</v>
-      </c>
-      <c r="C114" t="str">
-        <v>(1) 178 व्या</v>
-      </c>
-      <c r="D114" t="str">
-        <v>(2) 174 व्या</v>
-      </c>
-      <c r="E114" t="str">
-        <v>(3) 86 व्या</v>
-      </c>
-      <c r="F114" t="str">
-        <v>(4) 42 व्या</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="str">
-        <v>121</v>
-      </c>
-      <c r="B115" t="str">
-        <v>121. गावचा पोलीस पाटील ___________ कडून नियुक्त ees.</v>
-      </c>
-      <c r="C115" t="str">
-        <v>(1) जिल्हाधिकारी</v>
-      </c>
-      <c r="D115" t="str">
-        <v>(2) उपविभागीय अधिकारी</v>
-      </c>
-      <c r="E115" t="str">
-        <v>(3) तहसीलदार</v>
-      </c>
-      <c r="F115" t="str">
-        <v>(4) गट विकास अधिकारी</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="str">
-        <v>122</v>
-      </c>
-      <c r="B116" t="str">
-        <v>122. महाराष्ट्रातील पंचायत राज्याचा आकृतीबंध निश्‍चित करण्यासाठी सर्वात प्रथम कोणती कमिटी नेमली होती ?</v>
-      </c>
-      <c r="C116" t="str">
-        <v>(1) ल. ना. बोंगिरवार</v>
-      </c>
-      <c r="D116" t="str">
-        <v>(2) बाबुराब काळे</v>
-      </c>
-      <c r="E116" t="str">
-        <v>(3) वसंतराव नाईक</v>
-      </c>
-      <c r="F116" t="str">
-        <v>(4) प्राचार्य पी. बी. पाटील</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="str">
-        <v>124</v>
-      </c>
-      <c r="B117" t="str">
-        <v>124. TEER धरण जिल्ह्यात आहे.</v>
-      </c>
-      <c r="C117" t="str">
-        <v>(1) बीड</v>
-      </c>
-      <c r="D117" t="str">
-        <v>(2) जालना</v>
-      </c>
-      <c r="E117" t="str">
-        <v>(3) चंद्रपूर</v>
-      </c>
-      <c r="F117" t="str">
-        <v>(4) गडचिरोली</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="str">
-        <v>125</v>
-      </c>
-      <c r="B118" t="str">
-        <v>125. ग्रामपंचायतीमध्ये किती सभासद असू शकतात १</v>
-      </c>
-      <c r="C118" t="str">
-        <v>(1) 7ते 10</v>
-      </c>
-      <c r="D118" t="str">
-        <v>(2) 7d 17</v>
-      </c>
-      <c r="E118" t="str">
-        <v>(3) 10ते 15</v>
-      </c>
-      <c r="F118" t="str">
-        <v>(4) 1858 ते 20</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="str">
-        <v>126</v>
-      </c>
-      <c r="B119" t="str">
-        <v>126. 'जलमणी' योजना कशाशी संबंधित आहे ?</v>
-      </c>
-      <c r="C119" t="str">
-        <v>(1) शहरांना शुद्ध पाणी पुरवठा</v>
-      </c>
-      <c r="D119" t="str">
-        <v>(2) विद्यार्थ्यांना पिण्याचे शुद्ध पाणी पुरवणे</v>
-      </c>
-      <c r="E119" t="str">
-        <v>(3) पावसाचे पाणी साठवणे</v>
-      </c>
-      <c r="F119" t="str">
-        <v>(4) पाण्याचा जपून वापर करणे</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="str">
-        <v>127</v>
-      </c>
-      <c r="B120" t="str">
-        <v>127. महात्मा गांधी राष्ट्रीय रोजगार हमी कायदा 2005 अन्तर्गत उत्कृष्ट काम केल्याबद्दल कोणत्या जिल्ह्याना पुरस्कार मिळाले ?</v>
-      </c>
-      <c r="C120" t="str">
-        <v>(1) औरंगाबाद, वर्धा</v>
-      </c>
-      <c r="D120" t="str">
-        <v>(2) औरंगाबाद व गडचिरोली</v>
-      </c>
-      <c r="E120" t="str">
-        <v>(3) गडचिरोली, धुळे</v>
-      </c>
-      <c r="F120" t="str">
-        <v>(4) गडचिरोली, उस्मानाबाद</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="str">
-        <v>128</v>
-      </c>
-      <c r="B121" t="str">
-        <v>128. 'अकुला' पानबुड़ी भारताने कोणत्या देशाकडून घेतली आहे ?</v>
-      </c>
-      <c r="C121" t="str">
-        <v>(1) इग्लंड</v>
-      </c>
-      <c r="D121" t="str">
-        <v>(2) फ्रान्स</v>
-      </c>
-      <c r="E121" t="str">
-        <v>(3) अमेरिका</v>
-      </c>
-      <c r="F121" t="str">
-        <v>(4) रशिया</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="str">
-        <v>129</v>
-      </c>
-      <c r="B122" t="str">
-        <v>129. द्वितीय fava मराठी साहित्य सम्मेलन कोठे पार पडले ?</v>
-      </c>
-      <c r="C122" t="str">
-        <v>(1) हाँग-काँग</v>
-      </c>
-      <c r="D122" t="str">
-        <v>(2) सॅनफ्रानसिस्को</v>
-      </c>
-      <c r="E122" t="str">
-        <v>(3) दुबई</v>
-      </c>
-      <c r="F122" t="str">
-        <v>(4) न्युयॉर्क</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="str">
-        <v>130</v>
-      </c>
-      <c r="B123" t="str">
-        <v>130. अमेरिकेचा प्रसिद्ध ग्रॅमी पुरस्कार यांना मिळाला.</v>
-      </c>
-      <c r="C123" t="str">
-        <v>(1) ए. आरं. रेहमान</v>
-      </c>
-      <c r="D123" t="str">
-        <v>(2) झाकीर हुसेन</v>
-      </c>
-      <c r="E123" t="str">
-        <v>(3) नौशाद</v>
-      </c>
-      <c r="F123" t="str">
-        <v>(4) जतीन ललित</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="str">
-        <v>131</v>
-      </c>
-      <c r="B124" t="str">
-        <v>131. केंब्रीज विद्यापिठाने भारताच्या कोणत्या पंतप्रधानाच्या नावाने शिष्यवृत्ती जाहीर केली ?</v>
-      </c>
-      <c r="C124" t="str">
-        <v>(1) इंदिरा गांधी</v>
-      </c>
-      <c r="D124" t="str">
-        <v>(2) जवाहरलाल नेहरु</v>
-      </c>
-      <c r="E124" t="str">
-        <v>(3) मनमोहन सिंग</v>
-      </c>
-      <c r="F124" t="str">
-        <v>(4) पी. व्ही. नरसिंहराव</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="str">
-        <v>132</v>
-      </c>
-      <c r="B125" t="str">
-        <v>132. प्रसिद्ध चित्रकार एम. एफ. हुसेन यांनी कोणत्या देशाचे नागरिकत्व स्वीकारले ?</v>
-      </c>
-      <c r="C125" t="str">
-        <v>(1) लिबिया</v>
-      </c>
-      <c r="D125" t="str">
-        <v>(2) ओमान</v>
-      </c>
-      <c r="E125" t="str">
-        <v>(3) कुवेत</v>
-      </c>
-      <c r="F125" t="str">
-        <v>(4) कतार</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="str">
-        <v>133</v>
-      </c>
-      <c r="B126" t="str">
-        <v>133. टिंग्याची भूमिका केलेल्या कलाकाराचे आडनाव काय आहे ?</v>
-      </c>
-      <c r="C126" t="str">
-        <v>(1) ओंबाळे</v>
-      </c>
-      <c r="D126" t="str">
-        <v>(2) वासपते</v>
-      </c>
-      <c r="E126" t="str">
-        <v>(3) गोयेकर</v>
-      </c>
-      <c r="F126" t="str">
-        <v>(4) बोयेकर</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="str">
-        <v>134</v>
-      </c>
-      <c r="B127" t="str">
-        <v>134. (सेझ (SEZ) चे विस्तारित रूप काय आहे ?</v>
-      </c>
-      <c r="C127" t="str">
-        <v>(1) स्मॉल इकोनॉमिक झोन</v>
-      </c>
-      <c r="D127" t="str">
-        <v>(2) सोशल इकोनॉमिक झोन</v>
-      </c>
-      <c r="E127" t="str">
-        <v>(3) स्पेशल इकोनॉमिक झोन</v>
-      </c>
-      <c r="F127" t="str">
-        <v>(4) सर्व्हिस इकोनॉमिक झोन</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="str">
-        <v>135</v>
-      </c>
-      <c r="B128" t="str">
-        <v>135. यमुना गंगा नदीचा संगम कोठे होतो ?</v>
-      </c>
-      <c r="C128" t="str">
-        <v>(1) हरिद्वार</v>
-      </c>
-      <c r="D128" t="str">
-        <v>(2) अलाहाबाद</v>
-      </c>
-      <c r="E128" t="str">
-        <v>(3) आग्रा</v>
-      </c>
-      <c r="F128" t="str">
-        <v>(4) मीरत</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="str">
-        <v>136</v>
-      </c>
-      <c r="B129" t="str">
-        <v>136. टाटांनी उत्पादित केलेली छोटी कार या नावाने ओळखली जाते.</v>
-      </c>
-      <c r="C129" t="str">
-        <v>(1) नॅनो</v>
-      </c>
-      <c r="D129" t="str">
-        <v>(2) Tee</v>
-      </c>
-      <c r="E129" t="str">
-        <v>(3) सुमो</v>
-      </c>
-      <c r="F129" t="str">
-        <v>(4) प्राइमो</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="str">
-        <v>137</v>
-      </c>
-      <c r="B130" t="str">
-        <v>137. खालीलपैकी कोणी भारतात आश्रय मागितला आहे ?</v>
-      </c>
-      <c r="C130" t="str">
-        <v>(1) व्ही. एस्‌. नायपॉल</v>
-      </c>
-      <c r="D130" t="str">
-        <v>(2) सलमान रश्दी</v>
-      </c>
-      <c r="E130" t="str">
-        <v>(3) तस्लिमा नसरीन</v>
-      </c>
-      <c r="F130" t="str">
-        <v>(4) डोरिस लेसिंग</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="str">
-        <v>138</v>
-      </c>
-      <c r="B131" t="str">
-        <v>138. राष्ट्रवादी काँग्रेस पक्षाचे अध्यक्ष कोण आहेत ?</v>
-      </c>
-      <c r="C131" t="str">
-        <v>(1) जॉर्ज फर्नांडीस</v>
-      </c>
-      <c r="D131" t="str">
-        <v>(2) आर. आर. पाटील</v>
-      </c>
-      <c r="E131" t="str">
-        <v>(3) लालु प्रसाद यादव</v>
-      </c>
-      <c r="F131" t="str">
-        <v>(4) शरद पवार</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="str">
-        <v>139</v>
-      </c>
-      <c r="B132" t="str">
-        <v>139. महाराष्ट्रात 2008 हे वर्ष काय म्हणून साजरे करण्यात आले ?</v>
-      </c>
-      <c r="C132" t="str">
-        <v>(1) माहिती तंत्रज्ञान वर्ष</v>
-      </c>
-      <c r="D132" t="str">
-        <v>(2) क्रीडा वर्ष</v>
-      </c>
-      <c r="E132" t="str">
-        <v>(3) साक्षरता वर्ष</v>
-      </c>
-      <c r="F132" t="str">
-        <v>(4) महिला विकास वर्ष</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="str">
-        <v>140</v>
-      </c>
-      <c r="B133" t="str">
-        <v>140. स्लमडॉग मिल्लेनियर ह्या चित्रपटाला किती ऑस्कर पुरस्कार मिळाले ?</v>
-      </c>
-      <c r="C133" t="str">
-        <v>(1) सात</v>
-      </c>
-      <c r="D133" t="str">
-        <v>(2) दहा</v>
-      </c>
-      <c r="E133" t="str">
-        <v>(3) आठ</v>
-      </c>
-      <c r="F133" t="str">
-        <v>(4) नऊ</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="str">
-        <v>141</v>
-      </c>
-      <c r="B134" t="str">
-        <v>141. यांचा जन्मदिवस शिक्षक दिन म्हणून साजरा केला जातो.</v>
-      </c>
-      <c r="C134" t="str">
-        <v>(1) जवाहरलाल नेहरु</v>
-      </c>
-      <c r="D134" t="str">
-        <v>(2) एस. राधाकृष्णन्‌</v>
-      </c>
-      <c r="E134" t="str">
-        <v>(3) राजेन्द्र प्रसाद</v>
-      </c>
-      <c r="F134" t="str">
-        <v>(4) इदिरा गांधी</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="str">
-        <v>142</v>
-      </c>
-      <c r="B135" t="str">
-        <v>142. नानावटी आयोग कशासाठी नेमण्यात आला होता ?</v>
-      </c>
-      <c r="C135" t="str">
-        <v>(1) मुंबईतील दंगली</v>
-      </c>
-      <c r="D135" t="str">
-        <v>(2) 26/11 दहशतवादी हल्ला</v>
-      </c>
-      <c r="E135" t="str">
-        <v>(3) गुजरातमधील MYT हत्याकांड</v>
-      </c>
-      <c r="F135" t="str">
-        <v>(4) संसदेवरील हल्ला</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="str">
-        <v>143</v>
-      </c>
-      <c r="B136" t="str">
-        <v>143. 2008 सालचा महात्मा गांधी आंतरराष्ट्रीय शांतता व सहजीवन पुरस्कार कोणाला प्रदान करण्यात आला 7</v>
-      </c>
-      <c r="C136" t="str">
-        <v>(1) अमर्त्य सेन</v>
-      </c>
-      <c r="D136" t="str">
-        <v>(2) एल. के. अडवाणी</v>
-      </c>
-      <c r="E136" t="str">
-        <v>(3) सोनिया गांधी</v>
-      </c>
-      <c r="F136" t="str">
-        <v>(4) नेल्सन मंडेला</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="str">
-        <v>145</v>
-      </c>
-      <c r="B137" t="str">
-        <v>145. 2008 चा ई-गव्हर्नन्स राज्य पुरस्कार कोणत्या राज्याने मिळविला ?</v>
-      </c>
-      <c r="C137" t="str">
-        <v>(1) महाराष्टर्‌</v>
-      </c>
-      <c r="D137" t="str">
-        <v>(2) आंध्रप्रदेश</v>
-      </c>
-      <c r="E137" t="str">
-        <v>(3) दिल्ली</v>
-      </c>
-      <c r="F137" t="str">
-        <v>(4) कर्नाटक</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="str">
-        <v>146</v>
-      </c>
-      <c r="B138" t="str">
-        <v>146. राज्य सरकारमध्ये गुर्जरांना नोकरीत 5% (टक्के) आरक्षण दिले आहे.</v>
-      </c>
-      <c r="C138" t="str">
-        <v>(1) गुजरात</v>
-      </c>
-      <c r="D138" t="str">
-        <v>(2) राजस्थान</v>
-      </c>
-      <c r="E138" t="str">
-        <v>(3) महाराष्ट</v>
-      </c>
-      <c r="F138" t="str">
-        <v>(4) बिहार</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="str">
-        <v>147</v>
-      </c>
-      <c r="B139" t="str">
-        <v>147. 8 मार्च म्हणून पाळला जातो.</v>
-      </c>
-      <c r="C139" t="str">
-        <v>(1) आंतरराष्ट्रीय महिला दिन</v>
-      </c>
-      <c r="D139" t="str">
-        <v>(2) जागतिक एडस्‌ दिन</v>
-      </c>
-      <c r="E139" t="str">
-        <v>(3) मानवी हक्क दिन</v>
-      </c>
-      <c r="F139" t="str">
-        <v>(4) जागतिक कामगार दिन</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="str">
-        <v>148</v>
-      </c>
-      <c r="B140" t="str">
-        <v>148. पुढीलपैकी कोणत्या शहरात मुंबई उच्चन्यायालयाचे खंडपीठ नाही ?</v>
-      </c>
-      <c r="C140" t="str">
-        <v>(1) औरंगाबाद</v>
-      </c>
-      <c r="D140" t="str">
-        <v>(2) नागपूर</v>
-      </c>
-      <c r="E140" t="str">
-        <v>(3) पणजी</v>
-      </c>
-      <c r="F140" t="str">
-        <v>(4) नवी मुंबई</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="str">
-        <v>149</v>
-      </c>
-      <c r="B141" t="str">
-        <v>149. 2008 सालची जी-8 शिखर परिषद कोठे घेण्यात आली 7</v>
-      </c>
-      <c r="C141" t="str">
-        <v>(1) लंडन</v>
-      </c>
-      <c r="D141" t="str">
-        <v>(2) रोम</v>
-      </c>
-      <c r="E141" t="str">
-        <v>(3) पॅरिस</v>
-      </c>
-      <c r="F141" t="str">
-        <v>(4) होक्काईडो</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="str">
-        <v>150</v>
-      </c>
-      <c r="B142" t="str">
-        <v>150. शांतता ! कोर्ट चालू आहे' हे नाटक कोणी लिहिले ? र</v>
-      </c>
-      <c r="C142" t="str">
-        <v>(1) विजय तेंडूलकर</v>
-      </c>
-      <c r="D142" t="str">
-        <v>(2) वसंत बापट</v>
-      </c>
-      <c r="E142" t="str">
-        <v>(3) संतोष पवार</v>
-      </c>
-      <c r="F142" t="str">
-        <v>(4) वसंत कानेटकर</v>
+        <v>(4) ₹ 6,000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F142"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F92"/>
   </ignoredErrors>
 </worksheet>
 </file>